--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13CBF770-C3DB-9443-AE33-061316AF9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807F9B3-BBDF-5541-BCBB-D26F6FB8B36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="412">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1258,6 +1258,14 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
+  </si>
+  <si>
+    <t>backlog</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1363,7 +1371,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1382,6 +1390,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3014,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV92"/>
+  <dimension ref="A1:IV93"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4448,17 +4457,17 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="3" t="s">
-        <v>214</v>
+      <c r="E82" s="14" t="s">
+        <v>410</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" s="3" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82" s="3" t="s">
-        <v>215</v>
+        <v>59</v>
+      </c>
+      <c r="G82" s="14" t="s">
+        <v>411</v>
+      </c>
+      <c r="H82" s="14" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4467,16 +4476,16 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4485,16 +4494,16 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4503,16 +4512,16 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>118</v>
+        <v>218</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4521,16 +4530,16 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>221</v>
+        <v>118</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4539,16 +4548,16 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4557,16 +4566,16 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4575,16 +4584,16 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4593,16 +4602,16 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4611,16 +4620,16 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4629,15 +4638,33 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G92" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="H92" s="3" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="F93" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G93" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H92" s="3" t="s">
+      <c r="H93" s="3" t="s">
         <v>235</v>
       </c>
     </row>
@@ -4655,7 +4682,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9807F9B3-BBDF-5541-BCBB-D26F6FB8B36E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EFA0A-B231-0143-B5F6-1236D79CAF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="847" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="410">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1258,14 +1258,6 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
-  </si>
-  <si>
-    <t>backlog</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1371,7 +1363,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1390,7 +1382,6 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3023,10 +3014,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV93"/>
+  <dimension ref="A1:IV92"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+      <selection activeCell="A82" sqref="A82:XFD82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4457,17 +4448,17 @@
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
-      <c r="E82" s="14" t="s">
-        <v>410</v>
+      <c r="E82" s="3" t="s">
+        <v>214</v>
       </c>
       <c r="F82" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G82" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="H82" s="14" t="s">
-        <v>411</v>
+        <v>61</v>
+      </c>
+      <c r="G82" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="3" t="s">
+        <v>215</v>
       </c>
     </row>
     <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4476,16 +4467,16 @@
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F83" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G83" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4494,16 +4485,16 @@
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
       <c r="E84" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F84" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G84" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4512,16 +4503,16 @@
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
       <c r="E85" s="3" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="F85" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G85" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4530,16 +4521,16 @@
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3" t="s">
-        <v>118</v>
+        <v>221</v>
       </c>
       <c r="F86" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G86" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4548,16 +4539,16 @@
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="F87" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G87" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4566,16 +4557,16 @@
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F88" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G88" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4584,16 +4575,16 @@
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
       <c r="E89" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="F89" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G89" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
     </row>
     <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4602,16 +4593,16 @@
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
       <c r="E90" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="F90" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G90" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
     </row>
     <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4620,16 +4611,16 @@
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
       <c r="E91" s="3" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="F91" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G91" s="3" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
     </row>
     <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4638,33 +4629,15 @@
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
       <c r="E92" s="3" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="F92" s="3" t="s">
         <v>61</v>
       </c>
       <c r="G92" s="3" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3" t="s">
-        <v>234</v>
-      </c>
-      <c r="F93" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G93" s="3" t="s">
-        <v>235</v>
-      </c>
-      <c r="H93" s="3" t="s">
         <v>235</v>
       </c>
     </row>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64EFA0A-B231-0143-B5F6-1236D79CAF6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13CBF770-C3DB-9443-AE33-061316AF9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -3016,8 +3016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV92"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82:XFD82"/>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4655,7 +4655,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10810"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chenshinan/work/java/handspace/choerodon/agile-service/src/main/resources/script/db/data_init/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{13CBF770-C3DB-9443-AE33-061316AF9928}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759B8C8-CE21-A547-AAE4-BF4FB942B456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="18920" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,22 @@
     <sheet name="fd_object_scheme" sheetId="8" r:id="rId8"/>
     <sheet name="fd_page" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="843" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="431">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1258,6 +1268,71 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
+  </si>
+  <si>
+    <t>story,issue_epic,bug,task,sub_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-8</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-9</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-10</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-11</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-12</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-13</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-14</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-15</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-16</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-17</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-18</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-19</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-20</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-21</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-22</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-23</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-24</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-25</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-26</t>
   </si>
 </sst>
 </file>
@@ -1363,7 +1438,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1382,6 +1457,8 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4655,7 +4732,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -6649,25 +6726,28 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:JD31"/>
+  <dimension ref="A1:JE31"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A30" sqref="A27:XFD30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" customWidth="1"/>
-    <col min="5" max="5" width="27" style="2" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="2" customWidth="1"/>
-    <col min="7" max="13" width="29.6640625" style="2" customWidth="1"/>
-    <col min="14" max="16" width="23.1640625" style="2" customWidth="1"/>
-    <col min="17" max="264" width="9" style="2" customWidth="1"/>
-    <col min="265" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.6640625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.1640625" style="2" customWidth="1"/>
+    <col min="18" max="265" width="9" style="2" customWidth="1"/>
+    <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6682,10 +6762,11 @@
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
-      <c r="O1" s="7"/>
+      <c r="O1" s="3"/>
       <c r="P1" s="7"/>
-    </row>
-    <row r="2" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q1" s="7"/>
+    </row>
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6700,10 +6781,11 @@
       <c r="L2" s="3"/>
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
-      <c r="O2" s="7"/>
+      <c r="O2" s="3"/>
       <c r="P2" s="7"/>
-    </row>
-    <row r="3" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q2" s="7"/>
+    </row>
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6718,10 +6800,11 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
-      <c r="O3" s="7"/>
+      <c r="O3" s="3"/>
       <c r="P3" s="7"/>
-    </row>
-    <row r="4" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q3" s="7"/>
+    </row>
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6736,10 +6819,11 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
-      <c r="O4" s="7"/>
+      <c r="O4" s="3"/>
       <c r="P4" s="7"/>
-    </row>
-    <row r="5" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q4" s="7"/>
+    </row>
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6754,10 +6838,11 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
-      <c r="O5" s="7"/>
+      <c r="O5" s="3"/>
       <c r="P5" s="7"/>
-    </row>
-    <row r="6" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q5" s="7"/>
+    </row>
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6772,10 +6857,11 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
-      <c r="O6" s="7"/>
+      <c r="O6" s="3"/>
       <c r="P6" s="7"/>
-    </row>
-    <row r="7" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q6" s="7"/>
+    </row>
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6783,767 +6869,827 @@
         <v>377</v>
       </c>
       <c r="E7" s="3" t="s">
+        <v>411</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="J7" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="K7" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="O7" s="8"/>
       <c r="P7" s="8"/>
-    </row>
-    <row r="8" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q7" s="8"/>
+    </row>
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="15" t="s">
+        <v>412</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>385</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>386</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>386</v>
       </c>
       <c r="H8" s="3" t="s">
+        <v>386</v>
+      </c>
+      <c r="I8" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L8" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L8" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M8" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N8" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O8" s="8"/>
+      <c r="O8" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P8" s="8"/>
-    </row>
-    <row r="9" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q8" s="8"/>
+    </row>
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="15" t="s">
+        <v>413</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>389</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>390</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>390</v>
       </c>
       <c r="H9" s="3" t="s">
+        <v>390</v>
+      </c>
+      <c r="I9" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J9" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L9" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L9" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M9" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M9" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N9" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O9" s="8"/>
+      <c r="O9" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P9" s="8"/>
-    </row>
-    <row r="10" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q9" s="8"/>
+    </row>
+    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="15" t="s">
+        <v>414</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>3</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>391</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>391</v>
       </c>
       <c r="H10" s="3" t="s">
+        <v>391</v>
+      </c>
+      <c r="I10" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="J10" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K10" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M10" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M10" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N10" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O10" s="8"/>
+      <c r="O10" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P10" s="8"/>
-    </row>
-    <row r="11" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q10" s="8"/>
+    </row>
+    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="15" t="s">
+        <v>415</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>393</v>
       </c>
       <c r="H11" s="3" t="s">
+        <v>393</v>
+      </c>
+      <c r="I11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K11" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M11" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M11" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N11" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O11" s="8"/>
+      <c r="O11" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P11" s="8"/>
-    </row>
-    <row r="12" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q11" s="8"/>
+    </row>
+    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>394</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>117</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>117</v>
       </c>
       <c r="H12" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="J12" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="L12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N12" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O12" s="8"/>
+      <c r="O12" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P12" s="8"/>
-    </row>
-    <row r="13" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q12" s="8"/>
+    </row>
+    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="15" t="s">
+        <v>417</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>243</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>244</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>244</v>
       </c>
       <c r="H13" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J13" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L13" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M13" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M13" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N13" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O13" s="8"/>
+      <c r="O13" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P13" s="8"/>
-    </row>
-    <row r="14" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q13" s="8"/>
+    </row>
+    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="15" t="s">
+        <v>418</v>
+      </c>
+      <c r="F14" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>21</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
       <c r="H14" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="3" t="s">
         <v>227</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J14" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L14" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L14" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M14" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M14" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N14" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O14" s="8"/>
+      <c r="O14" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P14" s="8"/>
-    </row>
-    <row r="15" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q14" s="8"/>
+    </row>
+    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="15" t="s">
+        <v>419</v>
+      </c>
+      <c r="F15" s="3" t="s">
         <v>272</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>273</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>273</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I15" s="3" t="s">
+      <c r="J15" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K15" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M15" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M15" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N15" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O15" s="8"/>
+      <c r="O15" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P15" s="8"/>
-    </row>
-    <row r="16" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q15" s="8"/>
+    </row>
+    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="15" t="s">
+        <v>420</v>
+      </c>
+      <c r="F16" s="3" t="s">
         <v>269</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>270</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>270</v>
       </c>
       <c r="H16" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I16" s="3" t="s">
+      <c r="J16" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J16" s="3" t="s">
+      <c r="K16" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K16" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M16" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M16" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N16" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O16" s="8"/>
+      <c r="O16" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P16" s="8"/>
-    </row>
-    <row r="17" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="8"/>
+    </row>
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="15" t="s">
+        <v>421</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>395</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>279</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>279</v>
       </c>
       <c r="H17" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I17" s="3" t="s">
+      <c r="J17" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J17" s="3" t="s">
+      <c r="K17" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="L17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M17" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N17" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O17" s="8"/>
+      <c r="O17" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P17" s="8"/>
-    </row>
-    <row r="18" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q17" s="8"/>
+    </row>
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="15" t="s">
+        <v>422</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>396</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>276</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>276</v>
       </c>
       <c r="H18" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="J18" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="K18" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M18" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M18" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N18" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O18" s="8"/>
+      <c r="O18" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P18" s="8"/>
-    </row>
-    <row r="19" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q18" s="8"/>
+    </row>
+    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="15" t="s">
+        <v>423</v>
+      </c>
+      <c r="F19" s="3" t="s">
         <v>264</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>111</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>111</v>
       </c>
       <c r="H19" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="J19" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J19" s="3" t="s">
+      <c r="K19" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K19" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M19" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M19" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N19" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O19" s="8"/>
+      <c r="O19" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P19" s="8"/>
-    </row>
-    <row r="20" spans="1:16" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q19" s="8"/>
+    </row>
+    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="15" t="s">
+        <v>424</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>266</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>267</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>267</v>
       </c>
       <c r="H20" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="J20" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="K20" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M20" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M20" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N20" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O20" s="8"/>
+      <c r="O20" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P20" s="8"/>
-    </row>
-    <row r="21" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="15" t="s">
+        <v>425</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>398</v>
       </c>
       <c r="H21" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="I21" s="3" t="s">
         <v>223</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K21" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="M21" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M21" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N21" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O21" s="8"/>
+      <c r="O21" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P21" s="8"/>
-    </row>
-    <row r="22" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q21" s="8"/>
+    </row>
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="15" t="s">
+        <v>426</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>246</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>247</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>247</v>
       </c>
       <c r="H22" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="J22" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="K22" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M22" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O22" s="8"/>
+      <c r="O22" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P22" s="8"/>
-    </row>
-    <row r="23" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q22" s="8"/>
+    </row>
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="15" t="s">
+        <v>427</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>108</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>109</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>109</v>
       </c>
       <c r="H23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="J23" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="K23" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M23" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M23" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N23" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O23" s="8"/>
+      <c r="O23" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P23" s="8"/>
-    </row>
-    <row r="24" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q23" s="8"/>
+    </row>
+    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="15" t="s">
+        <v>428</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>399</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>250</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>250</v>
       </c>
       <c r="H24" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L24" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L24" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M24" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M24" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O24" s="9"/>
+      <c r="O24" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P24" s="9"/>
-    </row>
-    <row r="25" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q24" s="9"/>
+    </row>
+    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="15" t="s">
+        <v>429</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>400</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>252</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>252</v>
       </c>
       <c r="H25" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="3" t="s">
         <v>218</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="J25" s="3" t="s">
         <v>387</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L25" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="L25" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M25" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M25" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N25" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O25" s="9"/>
+      <c r="O25" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P25" s="9"/>
-    </row>
-    <row r="26" spans="1:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="15" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>401</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>402</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>402</v>
       </c>
       <c r="H26" s="3" t="s">
+        <v>402</v>
+      </c>
+      <c r="I26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="I26" s="3" t="s">
+      <c r="J26" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="J26" s="3" t="s">
+      <c r="K26" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M26" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="M26" s="3" t="s">
-        <v>388</v>
       </c>
       <c r="N26" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="O26" s="9"/>
+      <c r="O26" s="3" t="s">
+        <v>388</v>
+      </c>
       <c r="P26" s="9"/>
-    </row>
-    <row r="27" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q26" s="9"/>
+    </row>
+    <row r="27" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="6"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="6"/>
       <c r="H27" s="6"/>
       <c r="I27" s="6"/>
@@ -7552,16 +7698,17 @@
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
-      <c r="O27" s="8"/>
+      <c r="O27" s="6"/>
       <c r="P27" s="8"/>
-    </row>
-    <row r="28" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q27" s="8"/>
+    </row>
+    <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="6"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="6"/>
       <c r="H28" s="6"/>
       <c r="I28" s="6"/>
@@ -7570,16 +7717,17 @@
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
-      <c r="O28" s="8"/>
+      <c r="O28" s="6"/>
       <c r="P28" s="8"/>
-    </row>
-    <row r="29" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q28" s="8"/>
+    </row>
+    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="4"/>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="6"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="6"/>
       <c r="H29" s="6"/>
       <c r="I29" s="6"/>
@@ -7588,16 +7736,17 @@
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
-      <c r="O29" s="8"/>
+      <c r="O29" s="6"/>
       <c r="P29" s="8"/>
-    </row>
-    <row r="30" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q29" s="8"/>
+    </row>
+    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="6"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
       <c r="I30" s="6"/>
@@ -7606,16 +7755,17 @@
       <c r="L30" s="6"/>
       <c r="M30" s="6"/>
       <c r="N30" s="6"/>
-      <c r="O30" s="8"/>
+      <c r="O30" s="6"/>
       <c r="P30" s="8"/>
-    </row>
-    <row r="31" spans="1:16" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q30" s="8"/>
+    </row>
+    <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="6"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="6"/>
       <c r="H31" s="6"/>
       <c r="I31" s="6"/>
@@ -7624,8 +7774,9 @@
       <c r="L31" s="6"/>
       <c r="M31" s="6"/>
       <c r="N31" s="6"/>
-      <c r="O31" s="8"/>
+      <c r="O31" s="6"/>
       <c r="P31" s="8"/>
+      <c r="Q31" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6759B8C8-CE21-A547-AAE4-BF4FB942B456}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0DE0A-C36B-8544-AD1D-4D70ED9537B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="438">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1333,6 +1333,32 @@
   </si>
   <si>
     <t>fd_object_scheme_field-26</t>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计结束时间</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-27</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-28</t>
+  </si>
+  <si>
+    <t>estimatedStartTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>estimatedEndTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1438,7 +1464,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1459,6 +1485,7 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6726,17 +6753,17 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:JE31"/>
+  <dimension ref="A1:JE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
     <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="23.83203125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
     <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
     <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
@@ -7683,100 +7710,448 @@
       <c r="P26" s="9"/>
       <c r="Q26" s="9"/>
     </row>
-    <row r="27" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="5"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="6"/>
-      <c r="K27" s="6"/>
-      <c r="L27" s="6"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="6"/>
-      <c r="O27" s="6"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-    </row>
-    <row r="28" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="5"/>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="6"/>
-      <c r="K28" s="6"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="6"/>
-      <c r="O28" s="6"/>
-      <c r="P28" s="8"/>
-      <c r="Q28" s="8"/>
-    </row>
-    <row r="29" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="5"/>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="6"/>
-      <c r="K29" s="6"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="6"/>
-      <c r="O29" s="6"/>
-      <c r="P29" s="8"/>
-      <c r="Q29" s="8"/>
-    </row>
-    <row r="30" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="5"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="6"/>
-      <c r="K30" s="6"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-      <c r="N30" s="6"/>
-      <c r="O30" s="6"/>
-      <c r="P30" s="8"/>
-      <c r="Q30" s="8"/>
-    </row>
-    <row r="31" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="5"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="6"/>
-      <c r="K31" s="6"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-      <c r="N31" s="6"/>
-      <c r="O31" s="6"/>
-      <c r="P31" s="8"/>
-      <c r="Q31" s="8"/>
+    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="15" t="s">
+        <v>434</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>436</v>
+      </c>
+      <c r="G27" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="H27" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L27" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O27" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+    </row>
+    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="15" t="s">
+        <v>435</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>437</v>
+      </c>
+      <c r="G28" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="H28" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>433</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="L28" s="14" t="s">
+        <v>410</v>
+      </c>
+      <c r="M28" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="O28" s="3" t="s">
+        <v>388</v>
+      </c>
+      <c r="P28" s="9"/>
+      <c r="Q28" s="9"/>
+    </row>
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="15"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+      <c r="L29" s="14"/>
+      <c r="M29" s="3"/>
+      <c r="N29" s="3"/>
+      <c r="O29" s="3"/>
+      <c r="P29" s="9"/>
+      <c r="Q29" s="9"/>
+    </row>
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="3"/>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="3"/>
+      <c r="J30" s="3"/>
+      <c r="K30" s="3"/>
+      <c r="L30" s="14"/>
+      <c r="M30" s="3"/>
+      <c r="N30" s="3"/>
+      <c r="O30" s="3"/>
+      <c r="P30" s="9"/>
+      <c r="Q30" s="9"/>
+    </row>
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="14"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
+      <c r="P31" s="9"/>
+      <c r="Q31" s="9"/>
+    </row>
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="15"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="14"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+    </row>
+    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="15"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="14"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+    </row>
+    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="15"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="14"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+    </row>
+    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="15"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="14"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+    </row>
+    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="15"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="14"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+    </row>
+    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+    </row>
+    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="14"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+    </row>
+    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="14"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+    </row>
+    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="14"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+    </row>
+    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="14"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+    </row>
+    <row r="42" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="14"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+    </row>
+    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="6"/>
+      <c r="I43" s="6"/>
+      <c r="J43" s="6"/>
+      <c r="K43" s="6"/>
+      <c r="L43" s="6"/>
+      <c r="M43" s="6"/>
+      <c r="N43" s="6"/>
+      <c r="O43" s="6"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+    </row>
+    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="4"/>
+      <c r="E44" s="4"/>
+      <c r="F44" s="5"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="6"/>
+      <c r="I44" s="6"/>
+      <c r="J44" s="6"/>
+      <c r="K44" s="6"/>
+      <c r="L44" s="6"/>
+      <c r="M44" s="6"/>
+      <c r="N44" s="6"/>
+      <c r="O44" s="6"/>
+      <c r="P44" s="8"/>
+      <c r="Q44" s="8"/>
+    </row>
+    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="5"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="6"/>
+      <c r="I45" s="6"/>
+      <c r="J45" s="6"/>
+      <c r="K45" s="6"/>
+      <c r="L45" s="6"/>
+      <c r="M45" s="6"/>
+      <c r="N45" s="6"/>
+      <c r="O45" s="6"/>
+      <c r="P45" s="8"/>
+      <c r="Q45" s="8"/>
+    </row>
+    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="4"/>
+      <c r="E46" s="4"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="6"/>
+      <c r="H46" s="6"/>
+      <c r="I46" s="6"/>
+      <c r="J46" s="6"/>
+      <c r="K46" s="6"/>
+      <c r="L46" s="6"/>
+      <c r="M46" s="6"/>
+      <c r="N46" s="6"/>
+      <c r="O46" s="6"/>
+      <c r="P46" s="8"/>
+      <c r="Q46" s="8"/>
+    </row>
+    <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="4"/>
+      <c r="E47" s="4"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="6"/>
+      <c r="H47" s="6"/>
+      <c r="I47" s="6"/>
+      <c r="J47" s="6"/>
+      <c r="K47" s="6"/>
+      <c r="L47" s="6"/>
+      <c r="M47" s="6"/>
+      <c r="N47" s="6"/>
+      <c r="O47" s="6"/>
+      <c r="P47" s="8"/>
+      <c r="Q47" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF0DE0A-C36B-8544-AD1D-4D70ED9537B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8ADCC-2248-F14F-B70C-0A738DB3D30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6755,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7728,7 +7728,7 @@
         <v>431</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="J27" s="16" t="s">
         <v>433</v>
@@ -7769,7 +7769,7 @@
         <v>432</v>
       </c>
       <c r="I28" s="3" t="s">
-        <v>218</v>
+        <v>118</v>
       </c>
       <c r="J28" s="16" t="s">
         <v>433</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42B8ADCC-2248-F14F-B70C-0A738DB3D30F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1920715-EBED-7647-BF7B-7A3039C9C8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6755,8 +6755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7529,7 +7529,7 @@
         <v>387</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L22" s="14" t="s">
         <v>410</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1920715-EBED-7647-BF7B-7A3039C9C8B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0D52A09-C60F-1D47-BAE7-DC60D9D3E5B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19120" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="440">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1358,6 +1358,14 @@
   </si>
   <si>
     <t>estimatedEndTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story,bug,task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -6755,8 +6763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE47"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D4" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7081,7 +7089,7 @@
         <v>388</v>
       </c>
       <c r="L11" s="14" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>199</v>
@@ -7409,7 +7417,7 @@
         <v>388</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>410</v>
+        <v>438</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>199</v>
@@ -7696,7 +7704,7 @@
         <v>388</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>410</v>
+        <v>439</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>199</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,182 +4,1351 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" activeTab="1"/>
+    <workbookView windowWidth="28770" windowHeight="10305" firstSheet="3" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
-    <sheet name="agile_configuration_rule_filed" sheetId="10" r:id="rId2"/>
+    <sheet name="lookup_type" sheetId="2" r:id="rId2"/>
+    <sheet name="lookup_value" sheetId="3" r:id="rId3"/>
+    <sheet name="agile_quick_filter_field" sheetId="4" r:id="rId4"/>
+    <sheet name="agile_message" sheetId="5" r:id="rId5"/>
+    <sheet name="agile_work_calendar_holiday_ref" sheetId="6" r:id="rId6"/>
+    <sheet name="fd_object_shceme_field" sheetId="7" r:id="rId7"/>
+    <sheet name="fd_object_scheme" sheetId="8" r:id="rId8"/>
+    <sheet name="fd_page" sheetId="9" r:id="rId9"/>
+    <sheet name="agile_configuration_rule_filed" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="442">
+  <si>
+    <t>lookup_type</t>
+  </si>
+  <si>
+    <t>#type_code</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>status_category</t>
+  </si>
+  <si>
+    <t>Status Category</t>
+  </si>
+  <si>
+    <t>列状态</t>
+  </si>
+  <si>
+    <t>constraint</t>
+  </si>
+  <si>
+    <t>Constraint</t>
+  </si>
+  <si>
+    <t>列约束</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>版本</t>
+  </si>
+  <si>
+    <t>sprint_status</t>
+  </si>
+  <si>
+    <t>Sprint Status</t>
+  </si>
+  <si>
+    <t>冲刺状态</t>
+  </si>
+  <si>
+    <t>issue_type</t>
+  </si>
+  <si>
+    <t>Issue Type</t>
+  </si>
+  <si>
+    <t>issue类型</t>
+  </si>
+  <si>
+    <t>priority</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>优先级</t>
+  </si>
+  <si>
+    <t>swimlane_based_code</t>
+  </si>
+  <si>
+    <t>Swimlane Based Code</t>
+  </si>
+  <si>
+    <t>泳道基于</t>
+  </si>
+  <si>
+    <t>estimation_statistic</t>
+  </si>
+  <si>
+    <t>Estimation Statistic</t>
+  </si>
+  <si>
+    <t>预估统计</t>
+  </si>
+  <si>
+    <t>epic_color</t>
+  </si>
+  <si>
+    <t>Epic Color</t>
+  </si>
+  <si>
+    <t>epic的颜色</t>
+  </si>
+  <si>
+    <t>column_color</t>
+  </si>
+  <si>
+    <t>Column Color</t>
+  </si>
+  <si>
+    <t>column的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color</t>
+  </si>
+  <si>
+    <t>Issue Status Color</t>
+  </si>
+  <si>
+    <t>issue状态颜色</t>
+  </si>
+  <si>
+    <t>state_machine_status</t>
+  </si>
+  <si>
+    <t>State Machine Status</t>
+  </si>
+  <si>
+    <t>状态机状态</t>
+  </si>
+  <si>
+    <t>state_machine_config</t>
+  </si>
+  <si>
+    <t>State Machine Config</t>
+  </si>
+  <si>
+    <t>状态机配置</t>
+  </si>
+  <si>
+    <t>state_machine_node</t>
+  </si>
+  <si>
+    <t>State Machine Node</t>
+  </si>
+  <si>
+    <t>状态机节点</t>
+  </si>
+  <si>
+    <t>state_machine_transform</t>
+  </si>
+  <si>
+    <t>State Machine Transform</t>
+  </si>
+  <si>
+    <t>状态机转换</t>
+  </si>
+  <si>
+    <t>status_category_color</t>
+  </si>
+  <si>
+    <t>Status Category Color</t>
+  </si>
+  <si>
+    <t>状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_strategy</t>
+  </si>
+  <si>
+    <t>Condition Strategy</t>
+  </si>
+  <si>
+    <t>条件策略</t>
+  </si>
+  <si>
+    <t>object_scheme_code</t>
+  </si>
+  <si>
+    <t>对象方案编码</t>
+  </si>
+  <si>
+    <t>page_code</t>
+  </si>
+  <si>
+    <t>页面编码</t>
+  </si>
+  <si>
+    <t>object_scheme_field_context</t>
+  </si>
+  <si>
+    <t>对象方案字段上下文</t>
+  </si>
+  <si>
+    <t>field_type</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>lookup_value</t>
+  </si>
+  <si>
+    <t>#value_code</t>
+  </si>
+  <si>
+    <t>todo</t>
+  </si>
+  <si>
+    <t>待办</t>
+  </si>
+  <si>
+    <t>doing</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>done</t>
+  </si>
+  <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>prepare</t>
+  </si>
+  <si>
+    <t>准备</t>
+  </si>
+  <si>
+    <t>constraint_none</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>问题计数</t>
+  </si>
+  <si>
+    <t>issue_without_sub_task</t>
+  </si>
+  <si>
+    <t>问题计数，不包括子任务</t>
+  </si>
+  <si>
+    <t>version_planning</t>
+  </si>
+  <si>
+    <t>规划中</t>
+  </si>
+  <si>
+    <t>released</t>
+  </si>
+  <si>
+    <t>已发布</t>
+  </si>
+  <si>
+    <t>archived</t>
+  </si>
+  <si>
+    <t>归档</t>
+  </si>
+  <si>
+    <t>sprint_planning</t>
+  </si>
+  <si>
+    <t>started</t>
+  </si>
+  <si>
+    <t>活跃</t>
+  </si>
+  <si>
+    <t>closed</t>
+  </si>
+  <si>
+    <t>issue_epic</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>故事</t>
+  </si>
+  <si>
+    <t>task</t>
+  </si>
+  <si>
+    <t>任务</t>
+  </si>
+  <si>
+    <t>sub_task</t>
+  </si>
+  <si>
+    <t>子任务</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>故障</t>
+  </si>
+  <si>
+    <t>issue_test</t>
+  </si>
+  <si>
+    <t>测试</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>低</t>
+  </si>
+  <si>
+    <t>medium</t>
+  </si>
+  <si>
+    <t>中</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>高</t>
+  </si>
+  <si>
+    <t>parent_child</t>
+  </si>
+  <si>
+    <t>assignee</t>
+  </si>
+  <si>
+    <t>经办人</t>
+  </si>
+  <si>
+    <t>swimlane_epic</t>
+  </si>
+  <si>
+    <t>史诗</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>项目</t>
+  </si>
+  <si>
+    <t>swimlane_none</t>
+  </si>
+  <si>
+    <t>没有泳道</t>
+  </si>
+  <si>
+    <t>story_point</t>
+  </si>
+  <si>
+    <t>故事点</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>原预估时间</t>
+  </si>
+  <si>
+    <t>epic_color_a</t>
+  </si>
+  <si>
+    <t>#4D90FE</t>
+  </si>
+  <si>
+    <t>浅蓝色</t>
+  </si>
+  <si>
+    <t>epic_color_b</t>
+  </si>
+  <si>
+    <t>#303F9F</t>
+  </si>
+  <si>
+    <t>深蓝色</t>
+  </si>
+  <si>
+    <t>epic_color_c</t>
+  </si>
+  <si>
+    <t>#FFB100</t>
+  </si>
+  <si>
+    <t>土黄色</t>
+  </si>
+  <si>
+    <t>epic_color_d</t>
+  </si>
+  <si>
+    <t>#FF7043</t>
+  </si>
+  <si>
+    <t>橙色</t>
+  </si>
+  <si>
+    <t>epic_color_e</t>
+  </si>
+  <si>
+    <t>#F44336</t>
+  </si>
+  <si>
+    <t>浅红色</t>
+  </si>
+  <si>
+    <t>epic_color_f</t>
+  </si>
+  <si>
+    <t>#F953BA</t>
+  </si>
+  <si>
+    <t>粉色</t>
+  </si>
+  <si>
+    <t>epic_color_g</t>
+  </si>
+  <si>
+    <t>#00BFA5</t>
+  </si>
+  <si>
+    <t>淡绿色</t>
+  </si>
+  <si>
+    <t>epic_color_h</t>
+  </si>
+  <si>
+    <t>rgba(0,0,0,0.36)</t>
+  </si>
+  <si>
+    <t>灰色</t>
+  </si>
+  <si>
+    <t>issue_status_color_todo</t>
+  </si>
+  <si>
+    <t>待处理状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_doing</t>
+  </si>
+  <si>
+    <t>处理中状态的颜色</t>
+  </si>
+  <si>
+    <t>issue_status_color_done</t>
+  </si>
+  <si>
+    <t>已完成状态的颜色</t>
+  </si>
+  <si>
+    <t>column_color_todo</t>
+  </si>
+  <si>
+    <t>#4A6785</t>
+  </si>
+  <si>
+    <t>todo列颜色</t>
+  </si>
+  <si>
+    <t>column_color_doing</t>
+  </si>
+  <si>
+    <t>#F6C342</t>
+  </si>
+  <si>
+    <t>doing列颜色</t>
+  </si>
+  <si>
+    <t>column_color_done</t>
+  </si>
+  <si>
+    <t>#14882C</t>
+  </si>
+  <si>
+    <t>done列颜色</t>
+  </si>
+  <si>
+    <t>column_color_no_status</t>
+  </si>
+  <si>
+    <t>#707070</t>
+  </si>
+  <si>
+    <t>无状态列颜色</t>
+  </si>
+  <si>
+    <t>column_color_prepare</t>
+  </si>
+  <si>
+    <t>#F67F5A</t>
+  </si>
+  <si>
+    <t>prepare列颜色</t>
+  </si>
+  <si>
+    <t>state_machine_draft</t>
+  </si>
+  <si>
+    <t>草稿状态</t>
+  </si>
+  <si>
+    <t>state_machine_active</t>
+  </si>
+  <si>
+    <t>活跃状态</t>
+  </si>
+  <si>
+    <t>state_machine_create</t>
+  </si>
+  <si>
+    <t>新建状态</t>
+  </si>
+  <si>
+    <t>config_condition</t>
+  </si>
+  <si>
+    <t>条件</t>
+  </si>
+  <si>
+    <t>config_validator</t>
+  </si>
+  <si>
+    <t>验证器</t>
+  </si>
+  <si>
+    <t>config_trigger</t>
+  </si>
+  <si>
+    <t>触发器</t>
+  </si>
+  <si>
+    <t>config_postposition</t>
+  </si>
+  <si>
+    <t>后置功能</t>
+  </si>
+  <si>
+    <t>node_init</t>
+  </si>
+  <si>
+    <t>默认初始化节点</t>
+  </si>
+  <si>
+    <t>node_start</t>
+  </si>
+  <si>
+    <t>开始节点</t>
+  </si>
+  <si>
+    <t>node_custom</t>
+  </si>
+  <si>
+    <t>自定义节点</t>
+  </si>
+  <si>
+    <t>transform_init</t>
+  </si>
+  <si>
+    <t>初始转换</t>
+  </si>
+  <si>
+    <t>transform_custom</t>
+  </si>
+  <si>
+    <t>自定义转换</t>
+  </si>
+  <si>
+    <t>transform_all</t>
+  </si>
+  <si>
+    <t>全部转换</t>
+  </si>
+  <si>
+    <t>color_status_todo</t>
+  </si>
+  <si>
+    <t>待处理状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_doing</t>
+  </si>
+  <si>
+    <t>处理中状态类别颜色</t>
+  </si>
+  <si>
+    <t>color_status_done</t>
+  </si>
+  <si>
+    <t>已完成状态类别颜色</t>
+  </si>
+  <si>
+    <t>condition_all</t>
+  </si>
+  <si>
+    <t>满足所有条件</t>
+  </si>
+  <si>
+    <t>agile_issue</t>
+  </si>
+  <si>
+    <t>敏捷问题</t>
+  </si>
+  <si>
+    <t>test_issue</t>
+  </si>
+  <si>
+    <t>测试问题</t>
+  </si>
+  <si>
+    <t>agile_issue_create</t>
+  </si>
+  <si>
+    <t>敏捷问题页面（创建）</t>
+  </si>
+  <si>
+    <t>agile_issue_edit</t>
+  </si>
+  <si>
+    <t>敏捷问题页面（编辑）</t>
+  </si>
+  <si>
+    <t>test_issue_create</t>
+  </si>
+  <si>
+    <t>测试问题页面（创建）</t>
+  </si>
+  <si>
+    <t>test_issue_edit</t>
+  </si>
+  <si>
+    <t>测试问题页面（编辑）</t>
+  </si>
+  <si>
+    <t>global</t>
+  </si>
+  <si>
+    <t>全部类型</t>
+  </si>
+  <si>
+    <t>缺陷</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>单选框</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>复选框</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>时间选择器</t>
+  </si>
+  <si>
+    <t>日期时间选择器</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>数字输入框</t>
+  </si>
+  <si>
+    <t>input</t>
+  </si>
+  <si>
+    <t>文本框（单行）</t>
+  </si>
+  <si>
+    <t>text</t>
+  </si>
+  <si>
+    <t>文本框（多行）</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>选择器（单选）</t>
+  </si>
+  <si>
+    <t>multiple</t>
+  </si>
+  <si>
+    <t>选择器（多选）</t>
+  </si>
+  <si>
+    <t>member</t>
+  </si>
+  <si>
+    <t>人员</t>
+  </si>
+  <si>
+    <t>人员（需要特定加载用户）</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>日期选择器</t>
+  </si>
+  <si>
+    <t>agile_quick_filter_field</t>
+  </si>
+  <si>
+    <t>#field_code</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>field</t>
+  </si>
+  <si>
+    <t>long</t>
+  </si>
+  <si>
+    <t>assignee_id</t>
+  </si>
+  <si>
+    <t>priority_id</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>状态</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>reporter</t>
+  </si>
+  <si>
+    <t>报告人</t>
+  </si>
+  <si>
+    <t>reporter_id</t>
+  </si>
+  <si>
+    <t>creation_date</t>
+  </si>
+  <si>
+    <t>创建时间</t>
+  </si>
+  <si>
+    <t>last_update_date</t>
+  </si>
+  <si>
+    <t>更新时间</t>
+  </si>
+  <si>
+    <t>created_user</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>created_by</t>
+  </si>
+  <si>
+    <t>last_updated_user</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>last_updated_by</t>
+  </si>
+  <si>
+    <t>story_points</t>
+  </si>
+  <si>
+    <t>remain_time</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>剩余时间</t>
+  </si>
+  <si>
+    <t>remaining_time</t>
+  </si>
+  <si>
+    <t>epic</t>
+  </si>
+  <si>
+    <t>epic_id</t>
+  </si>
+  <si>
+    <t>sprint</t>
+  </si>
+  <si>
+    <t>冲刺</t>
+  </si>
+  <si>
+    <t>sprint_id</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>标签</t>
+  </si>
+  <si>
+    <t>label_id</t>
+  </si>
+  <si>
+    <t>component</t>
+  </si>
+  <si>
+    <t>模块</t>
+  </si>
+  <si>
+    <t>component_id</t>
+  </si>
+  <si>
+    <t>fix_version</t>
+  </si>
+  <si>
+    <t>修复的版本</t>
+  </si>
+  <si>
+    <t>version_id</t>
+  </si>
+  <si>
+    <t>influence_version</t>
+  </si>
+  <si>
+    <t>影响的版本</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>type_code</t>
+  </si>
+  <si>
+    <t>agile_message</t>
+  </si>
+  <si>
+    <t>#event</t>
+  </si>
+  <si>
+    <t>#notice_type</t>
+  </si>
+  <si>
+    <t>notice_name</t>
+  </si>
+  <si>
+    <t>is_enable</t>
+  </si>
+  <si>
+    <t>issue_created</t>
+  </si>
+  <si>
+    <t>assigneer</t>
+  </si>
+  <si>
+    <t>当前处理人</t>
+  </si>
+  <si>
+    <t>project_owner</t>
+  </si>
+  <si>
+    <t>项目所有者</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>用户</t>
+  </si>
+  <si>
+    <t>issue_assigneed</t>
+  </si>
+  <si>
+    <t>issue_solved</t>
+  </si>
+  <si>
+    <t>agile_work_calendar_holiday_ref</t>
+  </si>
+  <si>
+    <t>#holiday</t>
+  </si>
+  <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>2017-12-30</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>元旦</t>
+  </si>
+  <si>
+    <t>2018-1-1</t>
+  </si>
+  <si>
+    <t>2018-2-11</t>
+  </si>
+  <si>
+    <t>除夕</t>
+  </si>
+  <si>
+    <t>2018-2-15</t>
+  </si>
+  <si>
+    <t>春节</t>
+  </si>
+  <si>
+    <t>2018-2-16</t>
+  </si>
+  <si>
+    <t>2018-2-17</t>
+  </si>
+  <si>
+    <t>2018-2-18</t>
+  </si>
+  <si>
+    <t>2018-2-19</t>
+  </si>
+  <si>
+    <t>2018-2-20</t>
+  </si>
+  <si>
+    <t>2018-2-21</t>
+  </si>
+  <si>
+    <t>2018-2-24</t>
+  </si>
+  <si>
+    <t>清明节</t>
+  </si>
+  <si>
+    <t>2018-4-5</t>
+  </si>
+  <si>
+    <t>2018-4-6</t>
+  </si>
+  <si>
+    <t>2018-4-7</t>
+  </si>
+  <si>
+    <t>2018-4-8</t>
+  </si>
+  <si>
+    <t>2018-4-28</t>
+  </si>
+  <si>
+    <t>2018-4-29</t>
+  </si>
+  <si>
+    <t>2018-4-30</t>
+  </si>
+  <si>
+    <t>劳动节</t>
+  </si>
+  <si>
+    <t>2018-5-1</t>
+  </si>
+  <si>
+    <t>2018-6-16</t>
+  </si>
+  <si>
+    <t>2018-6-17</t>
+  </si>
+  <si>
+    <t>端午节</t>
+  </si>
+  <si>
+    <t>2018-6-18</t>
+  </si>
+  <si>
+    <t>2018-9-22</t>
+  </si>
+  <si>
+    <t>2018-9-23</t>
+  </si>
+  <si>
+    <t>中秋节</t>
+  </si>
+  <si>
+    <t>2018-9-24</t>
+  </si>
+  <si>
+    <t>2018-9-29</t>
+  </si>
+  <si>
+    <t>2018-9-30</t>
+  </si>
+  <si>
+    <t>国庆节</t>
+  </si>
+  <si>
+    <t>2018-10-1</t>
+  </si>
+  <si>
+    <t>2018-10-2</t>
+  </si>
+  <si>
+    <t>2018-10-3</t>
+  </si>
+  <si>
+    <t>2018-10-4</t>
+  </si>
+  <si>
+    <t>2018-10-5</t>
+  </si>
+  <si>
+    <t>2018-10-6</t>
+  </si>
+  <si>
+    <t>2018-10-7</t>
+  </si>
+  <si>
+    <t>2019-1-1</t>
+  </si>
+  <si>
+    <t>2019-2-2</t>
+  </si>
+  <si>
+    <t>2019-2-3</t>
+  </si>
+  <si>
+    <t>2019-2-4</t>
+  </si>
+  <si>
+    <t>2019-2-5</t>
+  </si>
+  <si>
+    <t>2019-2-6</t>
+  </si>
+  <si>
+    <t>2019-2-7</t>
+  </si>
+  <si>
+    <t>2019-2-8</t>
+  </si>
+  <si>
+    <t>2019-2-9</t>
+  </si>
+  <si>
+    <t>2019-2-10</t>
+  </si>
+  <si>
+    <t>2019-4-5</t>
+  </si>
+  <si>
+    <t>2019-4-6</t>
+  </si>
+  <si>
+    <t>2019-4-7</t>
+  </si>
+  <si>
+    <t>2019-4-28</t>
+  </si>
+  <si>
+    <t>2019-5-1</t>
+  </si>
+  <si>
+    <t>2019-5-2</t>
+  </si>
+  <si>
+    <t>2019-5-3</t>
+  </si>
+  <si>
+    <t>2019-5-4</t>
+  </si>
+  <si>
+    <t>2019-5-5</t>
+  </si>
+  <si>
+    <t>2019-6-7</t>
+  </si>
+  <si>
+    <t>2019-6-8</t>
+  </si>
+  <si>
+    <t>2019-6-9</t>
+  </si>
+  <si>
+    <t>2019-9-13</t>
+  </si>
+  <si>
+    <t>2019-9-14</t>
+  </si>
+  <si>
+    <t>2019-9-15</t>
+  </si>
+  <si>
+    <t>2019-9-29</t>
+  </si>
+  <si>
+    <t>2019-9-30</t>
+  </si>
+  <si>
+    <t>2019-10-1</t>
+  </si>
+  <si>
+    <t>2019-10-2</t>
+  </si>
+  <si>
+    <t>2019-10-3</t>
+  </si>
+  <si>
+    <t>2019-10-4</t>
+  </si>
+  <si>
+    <t>2019-10-5</t>
+  </si>
+  <si>
+    <t>2019-10-6</t>
+  </si>
+  <si>
+    <t>2019-10-7</t>
+  </si>
+  <si>
+    <t>2019-10-12</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field</t>
+  </si>
+  <si>
+    <t>*id</t>
+  </si>
+  <si>
+    <t>#code</t>
+  </si>
+  <si>
+    <t>is_system</t>
+  </si>
+  <si>
+    <t>is_required</t>
+  </si>
+  <si>
+    <t>context</t>
+  </si>
+  <si>
+    <t>scheme_code</t>
+  </si>
+  <si>
+    <t>project_id</t>
+  </si>
+  <si>
+    <t>organization_id</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-8</t>
+  </si>
+  <si>
+    <t>issueType</t>
+  </si>
+  <si>
+    <t>问题类型</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>story,issue_epic,bug,task,sub_task</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-9</t>
+  </si>
+  <si>
+    <t>summary</t>
+  </si>
+  <si>
+    <t>概要</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-10</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-11</t>
+  </si>
+  <si>
+    <t>remainingTime</t>
+  </si>
+  <si>
+    <t>预估时间</t>
+  </si>
+  <si>
+    <t>story,bug,task,sub_task</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-12</t>
+  </si>
+  <si>
+    <t>storyPoints</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-13</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-14</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-15</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-16</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-17</t>
+  </si>
+  <si>
+    <t>influenceVersion</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-18</t>
+  </si>
+  <si>
+    <t>fixVersion</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-19</t>
+  </si>
+  <si>
+    <t>story,bug,task</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-20</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-21</t>
+  </si>
+  <si>
+    <t>epicName</t>
+  </si>
+  <si>
+    <t>史诗名称</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-22</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-23</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-24</t>
+  </si>
+  <si>
+    <t>creationDate</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-25</t>
+  </si>
+  <si>
+    <t>lastUpdateDate</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-26</t>
+  </si>
+  <si>
+    <t>timeTrace</t>
+  </si>
+  <si>
+    <t>时间跟踪</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-27</t>
+  </si>
+  <si>
+    <t>estimatedStartTime</t>
+  </si>
+  <si>
+    <t>预计开始时间</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-28</t>
+  </si>
+  <si>
+    <t>estimatedEndTime</t>
+  </si>
+  <si>
+    <t>预计结束时间</t>
+  </si>
+  <si>
+    <t>fd_object_scheme</t>
+  </si>
+  <si>
+    <t>#scheme_code</t>
+  </si>
+  <si>
+    <t>敏捷问题字段方案</t>
+  </si>
+  <si>
+    <t>fd_page</t>
+  </si>
+  <si>
+    <t>#page_code</t>
+  </si>
+  <si>
+    <t>敏捷问题页面【创建】</t>
+  </si>
+  <si>
+    <t>敏捷问题页面【编辑】</t>
+  </si>
   <si>
     <t>agile_configuration_rule_filed</t>
   </si>
   <si>
-    <t>#field_code</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>field</t>
-  </si>
-  <si>
-    <t>assignee</t>
-  </si>
-  <si>
-    <t>long</t>
-  </si>
-  <si>
-    <t>经办人</t>
-  </si>
-  <si>
-    <t>assignee_id</t>
-  </si>
-  <si>
-    <t>priority</t>
-  </si>
-  <si>
-    <t>优先级</t>
-  </si>
-  <si>
-    <t>priority_id</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>状态</t>
-  </si>
-  <si>
-    <t>status_id</t>
-  </si>
-  <si>
-    <t>reporter</t>
-  </si>
-  <si>
-    <t>报告人</t>
-  </si>
-  <si>
-    <t>reporter_id</t>
-  </si>
-  <si>
-    <t>creation_date</t>
-  </si>
-  <si>
-    <t>date</t>
-  </si>
-  <si>
-    <t>创建时间</t>
-  </si>
-  <si>
-    <t>last_update_date</t>
-  </si>
-  <si>
-    <t>更新时间</t>
-  </si>
-  <si>
-    <t>story_point</t>
-  </si>
-  <si>
-    <t>故事点</t>
-  </si>
-  <si>
-    <t>story_points</t>
-  </si>
-  <si>
-    <t>remain_time</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>剩余时间</t>
-  </si>
-  <si>
-    <t>remaining_time</t>
-  </si>
-  <si>
-    <t>epic</t>
-  </si>
-  <si>
-    <t>史诗</t>
-  </si>
-  <si>
-    <t>epic_id</t>
-  </si>
-  <si>
-    <t>sprint</t>
-  </si>
-  <si>
-    <t>冲刺</t>
-  </si>
-  <si>
-    <t>sprint_id</t>
-  </si>
-  <si>
-    <t>label</t>
-  </si>
-  <si>
-    <t>标签</t>
-  </si>
-  <si>
-    <t>label_id</t>
-  </si>
-  <si>
-    <t>component</t>
-  </si>
-  <si>
-    <t>模块</t>
-  </si>
-  <si>
-    <t>component_id</t>
-  </si>
-  <si>
-    <t>fix_version</t>
-  </si>
-  <si>
-    <t>修复的版本</t>
-  </si>
-  <si>
-    <t>version_id</t>
-  </si>
-  <si>
-    <t>influence_version</t>
-  </si>
-  <si>
-    <t>影响的版本</t>
-  </si>
-  <si>
-    <t>issue_type</t>
-  </si>
-  <si>
-    <t>text</t>
-  </si>
-  <si>
-    <t>类型</t>
-  </si>
-  <si>
-    <t>type_code</t>
-  </si>
-  <si>
     <t>estimated_start_time</t>
   </si>
   <si>
-    <t>预计开始时间</t>
-  </si>
-  <si>
     <t>estimated_end_time</t>
-  </si>
-  <si>
-    <t>预计结束时间</t>
   </si>
 </sst>
 </file>
@@ -189,11 +1358,36 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="25">
     <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color indexed="8"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
@@ -222,37 +1416,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -268,9 +1431,55 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -293,7 +1502,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,37 +1531,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -345,7 +1539,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -378,7 +1572,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -390,7 +1602,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -402,67 +1722,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,84 +1740,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -576,16 +1770,25 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="9"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="9"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="9"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -600,31 +1803,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -655,11 +1843,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,160 +1866,192 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2087,7 +3313,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H24"/>
@@ -2172,19 +3398,19 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1</v>
+        <v>237</v>
       </c>
       <c r="F7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="3" t="s">
-        <v>4</v>
+        <v>239</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="true" spans="1:8">
@@ -2193,16 +3419,16 @@
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>5</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>7</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>8</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="true" spans="1:8">
@@ -2211,16 +3437,16 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>11</v>
+        <v>242</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="true" spans="1:8">
@@ -2229,16 +3455,16 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>13</v>
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>14</v>
+        <v>245</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="true" spans="1:8">
@@ -2247,16 +3473,16 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>15</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>16</v>
+        <v>247</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>17</v>
+        <v>248</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="true" spans="1:8">
@@ -2265,16 +3491,16 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>20</v>
+        <v>250</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>18</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="true" spans="1:8">
@@ -2283,16 +3509,16 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>22</v>
+        <v>252</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>21</v>
+        <v>251</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="true" spans="1:8">
@@ -2301,16 +3527,16 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>23</v>
+        <v>116</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>24</v>
+        <v>117</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>25</v>
+        <v>259</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="true" spans="1:8">
@@ -2319,16 +3545,16 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>26</v>
+        <v>260</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>27</v>
+        <v>261</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>28</v>
+        <v>262</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="true" spans="1:8">
@@ -2337,16 +3563,16 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>30</v>
+        <v>264</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>31</v>
+        <v>111</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>32</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="true" spans="1:8">
@@ -2355,16 +3581,16 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>33</v>
+        <v>266</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>34</v>
+        <v>267</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>35</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="true" spans="1:8">
@@ -2373,16 +3599,16 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>36</v>
+        <v>269</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>37</v>
+        <v>270</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>38</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="true" spans="1:8">
@@ -2391,16 +3617,16 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>39</v>
+        <v>272</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>40</v>
+        <v>273</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>41</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="true" spans="1:8">
@@ -2409,16 +3635,16 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>42</v>
+        <v>275</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>43</v>
+        <v>276</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="true" spans="1:8">
@@ -2427,16 +3653,16 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>45</v>
+        <v>278</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>6</v>
+        <v>240</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>46</v>
+        <v>279</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>44</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="true" spans="1:8">
@@ -2445,16 +3671,16 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>47</v>
+        <v>16</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>48</v>
+        <v>225</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>49</v>
+        <v>280</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>50</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="true" spans="1:8">
@@ -2463,16 +3689,16 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>52</v>
+        <v>428</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>51</v>
+        <v>440</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="true" spans="1:8">
@@ -2481,16 +3707,16 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>53</v>
+        <v>441</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>54</v>
+        <v>431</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>53</v>
+        <v>441</v>
       </c>
     </row>
   </sheetData>
@@ -2500,4 +3726,5604 @@
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="6"/>
+  <cols>
+    <col min="1" max="3" width="9.82962962962963" style="1" customWidth="true"/>
+    <col min="4" max="4" width="19" style="1" customWidth="true"/>
+    <col min="5" max="6" width="30.5037037037037" style="1" customWidth="true"/>
+    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="true"/>
+    <col min="8" max="256" width="9" style="1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:7">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:7">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:7">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:7">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:7">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:7">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:7">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:7">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:7">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:7">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:7">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:7">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:7">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:7">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:7">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:7">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:7">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:7">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" customHeight="true" spans="1:7">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" customHeight="true" spans="1:7">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" customHeight="true" spans="1:7">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" customHeight="true" spans="1:7">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" customHeight="true" spans="1:7">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" customHeight="true" spans="1:7">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" customHeight="true" spans="1:7">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" customHeight="true" spans="1:7">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" customHeight="true" spans="1:7">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" customHeight="true" spans="1:7">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H92"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="$A77:$XFD77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1" customWidth="true"/>
+    <col min="4" max="4" width="18" style="1" customWidth="true"/>
+    <col min="5" max="5" width="27" style="1" customWidth="true"/>
+    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="true"/>
+    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="true"/>
+    <col min="8" max="8" width="23.162962962963" style="1" customWidth="true"/>
+    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="true" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="true" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="true" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="true" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="true" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="true" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="true" spans="1:8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" ht="17" customHeight="true" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="true" spans="1:8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" ht="17" customHeight="true" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="true" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="true" spans="1:8">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="true" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="true" spans="1:8">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" ht="17" customHeight="true" spans="1:8">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="true" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="true" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="true" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" ht="17" customHeight="true" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" ht="17" customHeight="true" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" ht="17" customHeight="true" spans="1:8">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" ht="17" customHeight="true" spans="1:8">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" ht="17" customHeight="true" spans="1:8">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" ht="17" customHeight="true" spans="1:8">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" ht="17" customHeight="true" spans="1:8">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" ht="17" customHeight="true" spans="1:8">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" ht="17" customHeight="true" spans="1:8">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" ht="17" customHeight="true" spans="1:8">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" ht="17" customHeight="true" spans="1:8">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" ht="17" customHeight="true" spans="1:8">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" ht="17" customHeight="true" spans="1:8">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" ht="17" customHeight="true" spans="1:8">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" ht="17" customHeight="true" spans="1:8">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" ht="17" customHeight="true" spans="1:8">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" customHeight="true" spans="1:8">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" customHeight="true" spans="1:8">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" customHeight="true" spans="1:8">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" customHeight="true" spans="1:8">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" customHeight="true" spans="1:8">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" customHeight="true" spans="1:8">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" customHeight="true" spans="1:8">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" customHeight="true" spans="1:8">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" customHeight="true" spans="1:8">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" customHeight="true" spans="1:8">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" customHeight="true" spans="1:8">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" customHeight="true" spans="1:8">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" customHeight="true" spans="1:8">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" customHeight="true" spans="1:8">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" customHeight="true" spans="1:8">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" customHeight="true" spans="1:8">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" customHeight="true" spans="1:8">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" customHeight="true" spans="1:8">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" customHeight="true" spans="1:8">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" customHeight="true" spans="1:8">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" customHeight="true" spans="1:8">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" customHeight="true" spans="1:8">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" customHeight="true" spans="1:8">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" customHeight="true" spans="1:8">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" customHeight="true" spans="1:8">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" customHeight="true" spans="1:8">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" customHeight="true" spans="1:8">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" customHeight="true" spans="1:8">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" customHeight="true" spans="1:8">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" customHeight="true" spans="1:8">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" customHeight="true" spans="1:8">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" customHeight="true" spans="1:8">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" customHeight="true" spans="1:8">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" customHeight="true" spans="1:8">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" customHeight="true" spans="1:8">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" customHeight="true" spans="1:8">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" customHeight="true" spans="1:8">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" customHeight="true" spans="1:8">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" customHeight="true" spans="1:8">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" customHeight="true" spans="1:8">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1" customWidth="true"/>
+    <col min="4" max="4" width="22.162962962963" style="1" customWidth="true"/>
+    <col min="5" max="5" width="25" style="1" customWidth="true"/>
+    <col min="6" max="6" width="15.8296296296296" style="1" customWidth="true"/>
+    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="true"/>
+    <col min="8" max="8" width="19.5037037037037" style="1" customWidth="true"/>
+    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>234</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>254</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>262</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="true" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>267</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="true" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>270</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="true" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="true" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3" t="s">
+        <v>275</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="true" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="3" t="s">
+        <v>278</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="G23" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="true" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>281</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="9.82962962962963" style="1" customWidth="true"/>
+    <col min="4" max="4" width="19" style="1" customWidth="true"/>
+    <col min="5" max="6" width="30.5037037037037" style="1" customWidth="true"/>
+    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="true"/>
+    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>283</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H9" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H10" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>287</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H11" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="H17" s="14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="H18" s="14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="true" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="H19" s="14">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H77"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="16" customHeight="true" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="10.8296296296296" style="1" customWidth="true"/>
+    <col min="4" max="4" width="15.8296296296296" style="1" customWidth="true"/>
+    <col min="5" max="5" width="16.8296296296296" style="1" customWidth="true"/>
+    <col min="6" max="6" width="29" style="1" customWidth="true"/>
+    <col min="7" max="256" width="10.8296296296296" style="1" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:8">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:8">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:8">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:8">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:8">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:8">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:8">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>297</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:8">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="3" t="s">
+        <v>299</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:8">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="G9" s="14">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:8">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="G10" s="14">
+        <v>0</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:8">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="G11" s="14">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:8">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="G12" s="14">
+        <v>0</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:8">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>307</v>
+      </c>
+      <c r="G13" s="14">
+        <v>0</v>
+      </c>
+      <c r="H13" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:8">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="3" t="s">
+        <v>308</v>
+      </c>
+      <c r="G14" s="14">
+        <v>0</v>
+      </c>
+      <c r="H14" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:8">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="3" t="s">
+        <v>309</v>
+      </c>
+      <c r="G15" s="14">
+        <v>0</v>
+      </c>
+      <c r="H15" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:8">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="G16" s="14">
+        <v>0</v>
+      </c>
+      <c r="H16" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:8">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="G17" s="14">
+        <v>0</v>
+      </c>
+      <c r="H17" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:8">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G18" s="14">
+        <v>0</v>
+      </c>
+      <c r="H18" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="19" ht="17" customHeight="true" spans="1:8">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="G19" s="14">
+        <v>1</v>
+      </c>
+      <c r="H19" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="20" ht="17" customHeight="true" spans="1:8">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="G20" s="14">
+        <v>0</v>
+      </c>
+      <c r="H20" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="21" ht="17" customHeight="true" spans="1:8">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="G21" s="14">
+        <v>0</v>
+      </c>
+      <c r="H21" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="22" ht="17" customHeight="true" spans="1:8">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
+      <c r="F22" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="G22" s="14">
+        <v>0</v>
+      </c>
+      <c r="H22" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="23" ht="17" customHeight="true" spans="1:8">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
+      <c r="F23" s="3" t="s">
+        <v>318</v>
+      </c>
+      <c r="G23" s="14">
+        <v>1</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="24" ht="17" customHeight="true" spans="1:8">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
+      <c r="F24" s="3" t="s">
+        <v>319</v>
+      </c>
+      <c r="G24" s="14">
+        <v>1</v>
+      </c>
+      <c r="H24" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="25" ht="17" customHeight="true" spans="1:8">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" s="14">
+        <v>0</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="26" ht="17" customHeight="true" spans="1:8">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="G26" s="14">
+        <v>0</v>
+      </c>
+      <c r="H26" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="27" ht="17" customHeight="true" spans="1:8">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>322</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>323</v>
+      </c>
+      <c r="G27" s="14">
+        <v>0</v>
+      </c>
+      <c r="H27" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="28" ht="17" customHeight="true" spans="1:8">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="3" t="s">
+        <v>324</v>
+      </c>
+      <c r="G28" s="14">
+        <v>0</v>
+      </c>
+      <c r="H28" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="29" ht="17" customHeight="true" spans="1:8">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="3" t="s">
+        <v>325</v>
+      </c>
+      <c r="G29" s="14">
+        <v>0</v>
+      </c>
+      <c r="H29" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="30" ht="17" customHeight="true" spans="1:8">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G30" s="14">
+        <v>0</v>
+      </c>
+      <c r="H30" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="31" ht="17" customHeight="true" spans="1:8">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="3" t="s">
+        <v>328</v>
+      </c>
+      <c r="G31" s="14">
+        <v>0</v>
+      </c>
+      <c r="H31" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="32" ht="17" customHeight="true" spans="1:8">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+      <c r="F32" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G32" s="14">
+        <v>0</v>
+      </c>
+      <c r="H32" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="33" ht="17" customHeight="true" spans="1:8">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="G33" s="14">
+        <v>0</v>
+      </c>
+      <c r="H33" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="34" ht="17" customHeight="true" spans="1:8">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="G34" s="14">
+        <v>1</v>
+      </c>
+      <c r="H34" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="35" ht="17" customHeight="true" spans="1:8">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="G35" s="14">
+        <v>1</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="36" ht="17" customHeight="true" spans="1:8">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="G36" s="14">
+        <v>0</v>
+      </c>
+      <c r="H36" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="37" ht="17" customHeight="true" spans="1:8">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="G37" s="14">
+        <v>0</v>
+      </c>
+      <c r="H37" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="38" ht="17" customHeight="true" spans="1:8">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="3" t="s">
+        <v>337</v>
+      </c>
+      <c r="G38" s="14">
+        <v>0</v>
+      </c>
+      <c r="H38" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="39" ht="17" customHeight="true" spans="1:8">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="G39" s="14">
+        <v>0</v>
+      </c>
+      <c r="H39" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="40" ht="17" customHeight="true" spans="1:8">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="3" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" s="14">
+        <v>0</v>
+      </c>
+      <c r="H40" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="41" ht="17" customHeight="true" spans="1:8">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="G41" s="14">
+        <v>0</v>
+      </c>
+      <c r="H41" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="42" ht="17" customHeight="true" spans="1:8">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="G42" s="14">
+        <v>0</v>
+      </c>
+      <c r="H42" s="14">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="43" ht="17" customHeight="true" spans="1:8">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="G43" s="14">
+        <v>0</v>
+      </c>
+      <c r="H43" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="44" customHeight="true" spans="1:8">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+      <c r="F44" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="G44" s="14">
+        <v>1</v>
+      </c>
+      <c r="H44" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="45" customHeight="true" spans="1:8">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="3" t="s">
+        <v>344</v>
+      </c>
+      <c r="G45" s="14">
+        <v>1</v>
+      </c>
+      <c r="H45" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="46" customHeight="true" spans="1:8">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="G46" s="14">
+        <v>0</v>
+      </c>
+      <c r="H46" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="47" customHeight="true" spans="1:8">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="G47" s="14">
+        <v>0</v>
+      </c>
+      <c r="H47" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="48" customHeight="true" spans="1:8">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="G48" s="14">
+        <v>0</v>
+      </c>
+      <c r="H48" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="49" customHeight="true" spans="1:8">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="3" t="s">
+        <v>348</v>
+      </c>
+      <c r="G49" s="14">
+        <v>0</v>
+      </c>
+      <c r="H49" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="50" customHeight="true" spans="1:8">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" s="14">
+        <v>0</v>
+      </c>
+      <c r="H50" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="51" customHeight="true" spans="1:8">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="G51" s="14">
+        <v>0</v>
+      </c>
+      <c r="H51" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="52" customHeight="true" spans="1:8">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="G52" s="14">
+        <v>0</v>
+      </c>
+      <c r="H52" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="53" customHeight="true" spans="1:8">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>352</v>
+      </c>
+      <c r="G53" s="14">
+        <v>0</v>
+      </c>
+      <c r="H53" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="54" customHeight="true" spans="1:8">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="G54" s="14">
+        <v>0</v>
+      </c>
+      <c r="H54" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="55" customHeight="true" spans="1:8">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G55" s="14">
+        <v>0</v>
+      </c>
+      <c r="H55" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="56" customHeight="true" spans="1:8">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+      <c r="F56" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="G56" s="14">
+        <v>1</v>
+      </c>
+      <c r="H56" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="57" customHeight="true" spans="1:8">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="F57" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="G57" s="14">
+        <v>0</v>
+      </c>
+      <c r="H57" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="58" customHeight="true" spans="1:8">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="3" t="s">
+        <v>357</v>
+      </c>
+      <c r="G58" s="14">
+        <v>0</v>
+      </c>
+      <c r="H58" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="59" customHeight="true" spans="1:8">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="G59" s="14">
+        <v>0</v>
+      </c>
+      <c r="H59" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="60" customHeight="true" spans="1:8">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="G60" s="14">
+        <v>0</v>
+      </c>
+      <c r="H60" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="61" customHeight="true" spans="1:8">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="G61" s="14">
+        <v>1</v>
+      </c>
+      <c r="H61" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="62" customHeight="true" spans="1:8">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="G62" s="14">
+        <v>0</v>
+      </c>
+      <c r="H62" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="63" customHeight="true" spans="1:8">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="3" t="s">
+        <v>362</v>
+      </c>
+      <c r="G63" s="14">
+        <v>0</v>
+      </c>
+      <c r="H63" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="64" customHeight="true" spans="1:8">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="G64" s="14">
+        <v>0</v>
+      </c>
+      <c r="H64" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="65" customHeight="true" spans="1:8">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>330</v>
+      </c>
+      <c r="F65" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="G65" s="14">
+        <v>0</v>
+      </c>
+      <c r="H65" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="66" customHeight="true" spans="1:8">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="G66" s="14">
+        <v>0</v>
+      </c>
+      <c r="H66" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="67" customHeight="true" spans="1:8">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="3" t="s">
+        <v>366</v>
+      </c>
+      <c r="G67" s="14">
+        <v>0</v>
+      </c>
+      <c r="H67" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="68" customHeight="true" spans="1:8">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="G68" s="14">
+        <v>1</v>
+      </c>
+      <c r="H68" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="69" customHeight="true" spans="1:8">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="G69" s="14">
+        <v>1</v>
+      </c>
+      <c r="H69" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="70" customHeight="true" spans="1:8">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="G70" s="14">
+        <v>0</v>
+      </c>
+      <c r="H70" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="71" customHeight="true" spans="1:8">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="G71" s="14">
+        <v>0</v>
+      </c>
+      <c r="H71" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="72" customHeight="true" spans="1:8">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="14">
+        <v>0</v>
+      </c>
+      <c r="H72" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="73" customHeight="true" spans="1:8">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="G73" s="14">
+        <v>0</v>
+      </c>
+      <c r="H73" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="74" customHeight="true" spans="1:8">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="G74" s="14">
+        <v>0</v>
+      </c>
+      <c r="H74" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="75" customHeight="true" spans="1:8">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="G75" s="14">
+        <v>0</v>
+      </c>
+      <c r="H75" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="76" customHeight="true" spans="1:8">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="3" t="s">
+        <v>375</v>
+      </c>
+      <c r="G76" s="14">
+        <v>0</v>
+      </c>
+      <c r="H76" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="77" customHeight="true" spans="1:8">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="3" t="s">
+        <v>376</v>
+      </c>
+      <c r="G77" s="14">
+        <v>1</v>
+      </c>
+      <c r="H77" s="14">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q47"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="L26" sqref="L26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true"/>
+  <cols>
+    <col min="1" max="3" width="9" style="5" customWidth="true"/>
+    <col min="4" max="4" width="24.6666666666667" style="5" customWidth="true"/>
+    <col min="5" max="5" width="26.6666666666667" style="5" customWidth="true"/>
+    <col min="6" max="6" width="27" style="5" customWidth="true"/>
+    <col min="7" max="7" width="24.3333333333333" style="5" customWidth="true"/>
+    <col min="8" max="11" width="29.6666666666667" style="5" customWidth="true"/>
+    <col min="12" max="12" width="39.5037037037037" style="5" customWidth="true"/>
+    <col min="13" max="14" width="29.6666666666667" style="5" customWidth="true"/>
+    <col min="15" max="17" width="23.162962962963" style="5" customWidth="true"/>
+    <col min="18" max="265" width="9" style="5" customWidth="true"/>
+    <col min="266" max="16384" width="9" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="17" customHeight="true" spans="1:17">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+    </row>
+    <row r="2" ht="17" customHeight="true" spans="1:17">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11"/>
+    </row>
+    <row r="3" ht="17" customHeight="true" spans="1:17">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+    </row>
+    <row r="4" ht="17" customHeight="true" spans="1:17">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+    </row>
+    <row r="5" ht="17" customHeight="true" spans="1:17">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row r="6" ht="17" customHeight="true" spans="1:17">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row r="7" ht="17" customHeight="true" spans="1:17">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>378</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>382</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>385</v>
+      </c>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="12"/>
+    </row>
+    <row r="8" ht="17" customHeight="true" spans="1:17">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O8" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="12"/>
+    </row>
+    <row r="9" ht="17" customHeight="true" spans="1:17">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O9" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="12"/>
+    </row>
+    <row r="10" ht="17" customHeight="true" spans="1:17">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O10" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+    </row>
+    <row r="11" ht="17" customHeight="true" spans="1:17">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O11" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P11" s="12"/>
+      <c r="Q11" s="12"/>
+    </row>
+    <row r="12" ht="17" customHeight="true" spans="1:17">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O12" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P12" s="12"/>
+      <c r="Q12" s="12"/>
+    </row>
+    <row r="13" ht="17" customHeight="true" spans="1:17">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="G13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L13" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O13" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P13" s="12"/>
+      <c r="Q13" s="12"/>
+    </row>
+    <row r="14" ht="17" customHeight="true" spans="1:17">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P14" s="12"/>
+      <c r="Q14" s="12"/>
+    </row>
+    <row r="15" ht="17" customHeight="true" spans="1:17">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="G15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="I15" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J15" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L15" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O15" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+    </row>
+    <row r="16" ht="17" customHeight="true" spans="1:17">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F16" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="I16" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J16" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O16" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P16" s="12"/>
+      <c r="Q16" s="12"/>
+    </row>
+    <row r="17" ht="17" customHeight="true" spans="1:17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="I17" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J17" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O17" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P17" s="12"/>
+      <c r="Q17" s="12"/>
+    </row>
+    <row r="18" ht="17" customHeight="true" spans="1:17">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="I18" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="J18" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L18" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O18" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="12"/>
+    </row>
+    <row r="19" ht="17" customHeight="true" spans="1:17">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J19" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L19" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O19" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P19" s="12"/>
+      <c r="Q19" s="12"/>
+    </row>
+    <row r="20" ht="17" customHeight="true" spans="1:17">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="J20" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L20" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O20" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P20" s="12"/>
+      <c r="Q20" s="12"/>
+    </row>
+    <row r="21" ht="21" customHeight="true" spans="1:17">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>415</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>416</v>
+      </c>
+      <c r="I21" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O21" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P21" s="12"/>
+      <c r="Q21" s="12"/>
+    </row>
+    <row r="22" ht="21" customHeight="true" spans="1:17">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I22" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J22" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K22" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L22" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O22" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P22" s="12"/>
+      <c r="Q22" s="12"/>
+    </row>
+    <row r="23" ht="21" customHeight="true" spans="1:17">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="H23" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="J23" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O23" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P23" s="12"/>
+      <c r="Q23" s="12"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="true" spans="1:17">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="I24" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J24" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K24" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L24" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O24" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="true" spans="1:17">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="I25" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J25" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K25" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O25" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="true" spans="1:17">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="I26" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>389</v>
+      </c>
+      <c r="K26" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L26" s="8" t="s">
+        <v>400</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O26" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P26" s="13"/>
+      <c r="Q26" s="13"/>
+    </row>
+    <row r="27" ht="22" customHeight="true" spans="1:17">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>427</v>
+      </c>
+      <c r="G27" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="H27" s="8" t="s">
+        <v>428</v>
+      </c>
+      <c r="I27" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J27" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="K27" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L27" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O27" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P27" s="13"/>
+      <c r="Q27" s="13"/>
+    </row>
+    <row r="28" ht="22" customHeight="true" spans="1:17">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>430</v>
+      </c>
+      <c r="G28" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="H28" s="8" t="s">
+        <v>431</v>
+      </c>
+      <c r="I28" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="K28" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="L28" s="8" t="s">
+        <v>390</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="O28" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" ht="22" customHeight="true" spans="1:17">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="7"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="13"/>
+      <c r="Q29" s="13"/>
+    </row>
+    <row r="30" ht="22" customHeight="true" spans="1:17">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="7"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="8"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="13"/>
+      <c r="Q30" s="13"/>
+    </row>
+    <row r="31" ht="22" customHeight="true" spans="1:17">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="7"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="8"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="13"/>
+      <c r="Q31" s="13"/>
+    </row>
+    <row r="32" ht="22" customHeight="true" spans="1:17">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="7"/>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+      <c r="L32" s="8"/>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="13"/>
+      <c r="Q32" s="13"/>
+    </row>
+    <row r="33" ht="22" customHeight="true" spans="1:17">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="7"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="8"/>
+      <c r="M33" s="2"/>
+      <c r="N33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="13"/>
+      <c r="Q33" s="13"/>
+    </row>
+    <row r="34" ht="22" customHeight="true" spans="1:17">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="7"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
+      <c r="I34" s="2"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="2"/>
+      <c r="L34" s="8"/>
+      <c r="M34" s="2"/>
+      <c r="N34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="13"/>
+      <c r="Q34" s="13"/>
+    </row>
+    <row r="35" ht="22" customHeight="true" spans="1:17">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
+      <c r="I35" s="2"/>
+      <c r="J35" s="2"/>
+      <c r="K35" s="2"/>
+      <c r="L35" s="8"/>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="13"/>
+      <c r="Q35" s="13"/>
+    </row>
+    <row r="36" ht="22" customHeight="true" spans="1:17">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
+      <c r="I36" s="2"/>
+      <c r="J36" s="2"/>
+      <c r="K36" s="2"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="2"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="13"/>
+      <c r="Q36" s="13"/>
+    </row>
+    <row r="37" ht="22" customHeight="true" spans="1:17">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="7"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+      <c r="I37" s="2"/>
+      <c r="J37" s="2"/>
+      <c r="K37" s="2"/>
+      <c r="L37" s="8"/>
+      <c r="M37" s="2"/>
+      <c r="N37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="13"/>
+      <c r="Q37" s="13"/>
+    </row>
+    <row r="38" ht="22" customHeight="true" spans="1:17">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="7"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="8"/>
+      <c r="M38" s="2"/>
+      <c r="N38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="13"/>
+      <c r="Q38" s="13"/>
+    </row>
+    <row r="39" ht="22" customHeight="true" spans="1:17">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="7"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="8"/>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="13"/>
+      <c r="Q39" s="13"/>
+    </row>
+    <row r="40" ht="22" customHeight="true" spans="1:17">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="7"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+      <c r="K40" s="2"/>
+      <c r="L40" s="8"/>
+      <c r="M40" s="2"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" ht="22" customHeight="true" spans="1:17">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="7"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="2"/>
+      <c r="N41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" ht="22" customHeight="true" spans="1:17">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="7"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="2"/>
+      <c r="N42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" ht="21" customHeight="true" spans="1:17">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="12"/>
+      <c r="Q43" s="12"/>
+    </row>
+    <row r="44" ht="21" customHeight="true" spans="1:17">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="12"/>
+      <c r="Q44" s="12"/>
+    </row>
+    <row r="45" ht="21" customHeight="true" spans="1:17">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="9"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="12"/>
+      <c r="Q45" s="12"/>
+    </row>
+    <row r="46" ht="21" customHeight="true" spans="1:17">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="9"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="12"/>
+      <c r="Q46" s="12"/>
+    </row>
+    <row r="47" ht="21" customHeight="true" spans="1:17">
+      <c r="A47" s="6"/>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="9"/>
+      <c r="G47" s="10"/>
+      <c r="H47" s="10"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="10"/>
+      <c r="K47" s="10"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="10"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="12"/>
+      <c r="Q47" s="12"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="3" width="10.8296296296296" style="4"/>
+    <col min="4" max="4" width="18.8296296296296" style="4" customWidth="true"/>
+    <col min="5" max="5" width="13.8296296296296" style="4" customWidth="true"/>
+    <col min="6" max="7" width="17.5037037037037" style="4" customWidth="true"/>
+    <col min="8" max="8" width="19.3333333333333" style="4" customWidth="true"/>
+    <col min="9" max="16384" width="10.8296296296296" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:8">
+      <c r="D7" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
+      <c r="E8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>434</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="D7:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="4" width="10.8296296296296" style="4"/>
+    <col min="5" max="5" width="15.3333333333333" style="4" customWidth="true"/>
+    <col min="6" max="6" width="16.5037037037037" style="4" customWidth="true"/>
+    <col min="7" max="7" width="23.6666666666667" style="4" customWidth="true"/>
+    <col min="8" max="8" width="16.5037037037037" style="4" customWidth="true"/>
+    <col min="9" max="9" width="15.5037037037037" style="4" customWidth="true"/>
+    <col min="10" max="16384" width="10.8296296296296" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="4:9">
+      <c r="D7" s="4" t="s">
+        <v>435</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
+      <c r="E8" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>437</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
+      <c r="E9" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>391</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1357,17 +1357,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
-    </font>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1401,26 +1395,34 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1438,6 +1440,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -1448,7 +1465,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1464,7 +1495,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1478,31 +1509,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1517,24 +1526,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1560,7 +1554,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1572,61 +1602,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1638,19 +1620,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1662,7 +1650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1680,7 +1674,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1692,55 +1728,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1802,21 +1796,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1832,13 +1811,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1860,9 +1843,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1881,156 +1866,165 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="10" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
@@ -2038,20 +2032,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true"/>
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -3319,7 +3312,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
@@ -3530,7 +3523,7 @@
         <v>116</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>240</v>
+        <v>261</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>117</v>
@@ -3804,7 +3797,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -6278,7 +6271,7 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
         <v>282</v>
       </c>
       <c r="E7" s="3" t="s">
@@ -6308,7 +6301,7 @@
       <c r="G8" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6326,7 +6319,7 @@
       <c r="G9" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6344,7 +6337,7 @@
       <c r="G10" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6362,7 +6355,7 @@
       <c r="G11" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6380,7 +6373,7 @@
       <c r="G12" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6398,7 +6391,7 @@
       <c r="G13" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6416,7 +6409,7 @@
       <c r="G14" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6434,7 +6427,7 @@
       <c r="G15" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6452,7 +6445,7 @@
       <c r="G16" s="3" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6470,7 +6463,7 @@
       <c r="G17" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6488,7 +6481,7 @@
       <c r="G18" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6506,7 +6499,7 @@
       <c r="G19" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6627,10 +6620,10 @@
       <c r="F8" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="14">
+      <c r="G8" s="13">
         <v>0</v>
       </c>
-      <c r="H8" s="14">
+      <c r="H8" s="13">
         <v>2017</v>
       </c>
     </row>
@@ -6643,10 +6636,10 @@
       <c r="F9" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G9" s="14">
+      <c r="G9" s="13">
         <v>0</v>
       </c>
-      <c r="H9" s="14">
+      <c r="H9" s="13">
         <v>2017</v>
       </c>
     </row>
@@ -6661,10 +6654,10 @@
       <c r="F10" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="13">
         <v>0</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6677,10 +6670,10 @@
       <c r="F11" s="3" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="13">
         <v>1</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6695,10 +6688,10 @@
       <c r="F12" s="3" t="s">
         <v>305</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="13">
         <v>0</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6713,10 +6706,10 @@
       <c r="F13" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="13">
         <v>0</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6729,10 +6722,10 @@
       <c r="F14" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="13">
         <v>0</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6745,10 +6738,10 @@
       <c r="F15" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="13">
         <v>0</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6761,10 +6754,10 @@
       <c r="F16" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="13">
         <v>0</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6777,10 +6770,10 @@
       <c r="F17" s="3" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="13">
         <v>0</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6793,10 +6786,10 @@
       <c r="F18" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="G18" s="14">
+      <c r="G18" s="13">
         <v>0</v>
       </c>
-      <c r="H18" s="14">
+      <c r="H18" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6809,10 +6802,10 @@
       <c r="F19" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="G19" s="14">
+      <c r="G19" s="13">
         <v>1</v>
       </c>
-      <c r="H19" s="14">
+      <c r="H19" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6827,10 +6820,10 @@
       <c r="F20" s="3" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="14">
+      <c r="G20" s="13">
         <v>0</v>
       </c>
-      <c r="H20" s="14">
+      <c r="H20" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6843,10 +6836,10 @@
       <c r="F21" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="14">
+      <c r="G21" s="13">
         <v>0</v>
       </c>
-      <c r="H21" s="14">
+      <c r="H21" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6859,10 +6852,10 @@
       <c r="F22" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="14">
+      <c r="G22" s="13">
         <v>0</v>
       </c>
-      <c r="H22" s="14">
+      <c r="H22" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6875,10 +6868,10 @@
       <c r="F23" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="14">
+      <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="H23" s="14">
+      <c r="H23" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6891,10 +6884,10 @@
       <c r="F24" s="3" t="s">
         <v>319</v>
       </c>
-      <c r="G24" s="14">
+      <c r="G24" s="13">
         <v>1</v>
       </c>
-      <c r="H24" s="14">
+      <c r="H24" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6907,10 +6900,10 @@
       <c r="F25" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G25" s="14">
+      <c r="G25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="14">
+      <c r="H25" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6923,10 +6916,10 @@
       <c r="F26" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G26" s="14">
+      <c r="G26" s="13">
         <v>0</v>
       </c>
-      <c r="H26" s="14">
+      <c r="H26" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6941,10 +6934,10 @@
       <c r="F27" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="14">
+      <c r="G27" s="13">
         <v>0</v>
       </c>
-      <c r="H27" s="14">
+      <c r="H27" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6957,10 +6950,10 @@
       <c r="F28" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G28" s="14">
+      <c r="G28" s="13">
         <v>0</v>
       </c>
-      <c r="H28" s="14">
+      <c r="H28" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6973,10 +6966,10 @@
       <c r="F29" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G29" s="14">
+      <c r="G29" s="13">
         <v>0</v>
       </c>
-      <c r="H29" s="14">
+      <c r="H29" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -6991,10 +6984,10 @@
       <c r="F30" s="3" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="14">
+      <c r="G30" s="13">
         <v>0</v>
       </c>
-      <c r="H30" s="14">
+      <c r="H30" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7007,10 +7000,10 @@
       <c r="F31" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="G31" s="14">
+      <c r="G31" s="13">
         <v>0</v>
       </c>
-      <c r="H31" s="14">
+      <c r="H31" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7023,10 +7016,10 @@
       <c r="F32" s="3" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="14">
+      <c r="G32" s="13">
         <v>0</v>
       </c>
-      <c r="H32" s="14">
+      <c r="H32" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7041,10 +7034,10 @@
       <c r="F33" s="3" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="14">
+      <c r="G33" s="13">
         <v>0</v>
       </c>
-      <c r="H33" s="14">
+      <c r="H33" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7057,10 +7050,10 @@
       <c r="F34" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="G34" s="14">
+      <c r="G34" s="13">
         <v>1</v>
       </c>
-      <c r="H34" s="14">
+      <c r="H34" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7073,10 +7066,10 @@
       <c r="F35" s="3" t="s">
         <v>333</v>
       </c>
-      <c r="G35" s="14">
+      <c r="G35" s="13">
         <v>1</v>
       </c>
-      <c r="H35" s="14">
+      <c r="H35" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7091,10 +7084,10 @@
       <c r="F36" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="14">
+      <c r="G36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="14">
+      <c r="H36" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7107,10 +7100,10 @@
       <c r="F37" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="G37" s="14">
+      <c r="G37" s="13">
         <v>0</v>
       </c>
-      <c r="H37" s="14">
+      <c r="H37" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7123,10 +7116,10 @@
       <c r="F38" s="3" t="s">
         <v>337</v>
       </c>
-      <c r="G38" s="14">
+      <c r="G38" s="13">
         <v>0</v>
       </c>
-      <c r="H38" s="14">
+      <c r="H38" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7139,10 +7132,10 @@
       <c r="F39" s="3" t="s">
         <v>338</v>
       </c>
-      <c r="G39" s="14">
+      <c r="G39" s="13">
         <v>0</v>
       </c>
-      <c r="H39" s="14">
+      <c r="H39" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7155,10 +7148,10 @@
       <c r="F40" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="G40" s="14">
+      <c r="G40" s="13">
         <v>0</v>
       </c>
-      <c r="H40" s="14">
+      <c r="H40" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7171,10 +7164,10 @@
       <c r="F41" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="G41" s="14">
+      <c r="G41" s="13">
         <v>0</v>
       </c>
-      <c r="H41" s="14">
+      <c r="H41" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7187,10 +7180,10 @@
       <c r="F42" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="G42" s="14">
+      <c r="G42" s="13">
         <v>0</v>
       </c>
-      <c r="H42" s="14">
+      <c r="H42" s="13">
         <v>2018</v>
       </c>
     </row>
@@ -7205,10 +7198,10 @@
       <c r="F43" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="G43" s="14">
+      <c r="G43" s="13">
         <v>0</v>
       </c>
-      <c r="H43" s="14">
+      <c r="H43" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7221,10 +7214,10 @@
       <c r="F44" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="G44" s="14">
+      <c r="G44" s="13">
         <v>1</v>
       </c>
-      <c r="H44" s="14">
+      <c r="H44" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7237,10 +7230,10 @@
       <c r="F45" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="G45" s="14">
+      <c r="G45" s="13">
         <v>1</v>
       </c>
-      <c r="H45" s="14">
+      <c r="H45" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7255,10 +7248,10 @@
       <c r="F46" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="G46" s="14">
+      <c r="G46" s="13">
         <v>0</v>
       </c>
-      <c r="H46" s="14">
+      <c r="H46" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7273,10 +7266,10 @@
       <c r="F47" s="3" t="s">
         <v>346</v>
       </c>
-      <c r="G47" s="14">
+      <c r="G47" s="13">
         <v>0</v>
       </c>
-      <c r="H47" s="14">
+      <c r="H47" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7289,10 +7282,10 @@
       <c r="F48" s="3" t="s">
         <v>347</v>
       </c>
-      <c r="G48" s="14">
+      <c r="G48" s="13">
         <v>0</v>
       </c>
-      <c r="H48" s="14">
+      <c r="H48" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7305,10 +7298,10 @@
       <c r="F49" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="G49" s="14">
+      <c r="G49" s="13">
         <v>0</v>
       </c>
-      <c r="H49" s="14">
+      <c r="H49" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7321,10 +7314,10 @@
       <c r="F50" s="3" t="s">
         <v>349</v>
       </c>
-      <c r="G50" s="14">
+      <c r="G50" s="13">
         <v>0</v>
       </c>
-      <c r="H50" s="14">
+      <c r="H50" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7337,10 +7330,10 @@
       <c r="F51" s="3" t="s">
         <v>350</v>
       </c>
-      <c r="G51" s="14">
+      <c r="G51" s="13">
         <v>0</v>
       </c>
-      <c r="H51" s="14">
+      <c r="H51" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7353,10 +7346,10 @@
       <c r="F52" s="3" t="s">
         <v>351</v>
       </c>
-      <c r="G52" s="14">
+      <c r="G52" s="13">
         <v>0</v>
       </c>
-      <c r="H52" s="14">
+      <c r="H52" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7371,10 +7364,10 @@
       <c r="F53" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="G53" s="14">
+      <c r="G53" s="13">
         <v>0</v>
       </c>
-      <c r="H53" s="14">
+      <c r="H53" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7387,10 +7380,10 @@
       <c r="F54" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="G54" s="14">
+      <c r="G54" s="13">
         <v>0</v>
       </c>
-      <c r="H54" s="14">
+      <c r="H54" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7403,10 +7396,10 @@
       <c r="F55" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="G55" s="14">
+      <c r="G55" s="13">
         <v>0</v>
       </c>
-      <c r="H55" s="14">
+      <c r="H55" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7419,10 +7412,10 @@
       <c r="F56" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="G56" s="14">
+      <c r="G56" s="13">
         <v>1</v>
       </c>
-      <c r="H56" s="14">
+      <c r="H56" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7437,10 +7430,10 @@
       <c r="F57" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="G57" s="14">
+      <c r="G57" s="13">
         <v>0</v>
       </c>
-      <c r="H57" s="14">
+      <c r="H57" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7453,10 +7446,10 @@
       <c r="F58" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="G58" s="14">
+      <c r="G58" s="13">
         <v>0</v>
       </c>
-      <c r="H58" s="14">
+      <c r="H58" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7469,10 +7462,10 @@
       <c r="F59" s="3" t="s">
         <v>358</v>
       </c>
-      <c r="G59" s="14">
+      <c r="G59" s="13">
         <v>0</v>
       </c>
-      <c r="H59" s="14">
+      <c r="H59" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7485,10 +7478,10 @@
       <c r="F60" s="3" t="s">
         <v>359</v>
       </c>
-      <c r="G60" s="14">
+      <c r="G60" s="13">
         <v>0</v>
       </c>
-      <c r="H60" s="14">
+      <c r="H60" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7501,10 +7494,10 @@
       <c r="F61" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="14">
+      <c r="G61" s="13">
         <v>1</v>
       </c>
-      <c r="H61" s="14">
+      <c r="H61" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7519,10 +7512,10 @@
       <c r="F62" s="3" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="14">
+      <c r="G62" s="13">
         <v>0</v>
       </c>
-      <c r="H62" s="14">
+      <c r="H62" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7535,10 +7528,10 @@
       <c r="F63" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="14">
+      <c r="G63" s="13">
         <v>0</v>
       </c>
-      <c r="H63" s="14">
+      <c r="H63" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7551,10 +7544,10 @@
       <c r="F64" s="3" t="s">
         <v>363</v>
       </c>
-      <c r="G64" s="14">
+      <c r="G64" s="13">
         <v>0</v>
       </c>
-      <c r="H64" s="14">
+      <c r="H64" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7569,10 +7562,10 @@
       <c r="F65" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="G65" s="14">
+      <c r="G65" s="13">
         <v>0</v>
       </c>
-      <c r="H65" s="14">
+      <c r="H65" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7585,10 +7578,10 @@
       <c r="F66" s="3" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="14">
+      <c r="G66" s="13">
         <v>0</v>
       </c>
-      <c r="H66" s="14">
+      <c r="H66" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7601,10 +7594,10 @@
       <c r="F67" s="3" t="s">
         <v>366</v>
       </c>
-      <c r="G67" s="14">
+      <c r="G67" s="13">
         <v>0</v>
       </c>
-      <c r="H67" s="14">
+      <c r="H67" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7617,10 +7610,10 @@
       <c r="F68" s="3" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="14">
+      <c r="G68" s="13">
         <v>1</v>
       </c>
-      <c r="H68" s="14">
+      <c r="H68" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7633,10 +7626,10 @@
       <c r="F69" s="3" t="s">
         <v>368</v>
       </c>
-      <c r="G69" s="14">
+      <c r="G69" s="13">
         <v>1</v>
       </c>
-      <c r="H69" s="14">
+      <c r="H69" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7651,10 +7644,10 @@
       <c r="F70" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="G70" s="14">
+      <c r="G70" s="13">
         <v>0</v>
       </c>
-      <c r="H70" s="14">
+      <c r="H70" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7667,10 +7660,10 @@
       <c r="F71" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="G71" s="14">
+      <c r="G71" s="13">
         <v>0</v>
       </c>
-      <c r="H71" s="14">
+      <c r="H71" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7683,10 +7676,10 @@
       <c r="F72" s="3" t="s">
         <v>371</v>
       </c>
-      <c r="G72" s="14">
+      <c r="G72" s="13">
         <v>0</v>
       </c>
-      <c r="H72" s="14">
+      <c r="H72" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7699,10 +7692,10 @@
       <c r="F73" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="G73" s="14">
+      <c r="G73" s="13">
         <v>0</v>
       </c>
-      <c r="H73" s="14">
+      <c r="H73" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7715,10 +7708,10 @@
       <c r="F74" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="G74" s="14">
+      <c r="G74" s="13">
         <v>0</v>
       </c>
-      <c r="H74" s="14">
+      <c r="H74" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7731,10 +7724,10 @@
       <c r="F75" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="G75" s="14">
+      <c r="G75" s="13">
         <v>0</v>
       </c>
-      <c r="H75" s="14">
+      <c r="H75" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7747,10 +7740,10 @@
       <c r="F76" s="3" t="s">
         <v>375</v>
       </c>
-      <c r="G76" s="14">
+      <c r="G76" s="13">
         <v>0</v>
       </c>
-      <c r="H76" s="14">
+      <c r="H76" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7763,10 +7756,10 @@
       <c r="F77" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="G77" s="14">
+      <c r="G77" s="13">
         <v>1</v>
       </c>
-      <c r="H77" s="14">
+      <c r="H77" s="13">
         <v>2019</v>
       </c>
     </row>
@@ -7819,8 +7812,8 @@
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
     </row>
     <row r="2" ht="17" customHeight="true" spans="1:17">
       <c r="A2" s="2"/>
@@ -7838,8 +7831,8 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
-      <c r="P2" s="11"/>
-      <c r="Q2" s="11"/>
+      <c r="P2" s="10"/>
+      <c r="Q2" s="10"/>
     </row>
     <row r="3" ht="17" customHeight="true" spans="1:17">
       <c r="A3" s="2"/>
@@ -7857,8 +7850,8 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
     </row>
     <row r="4" ht="17" customHeight="true" spans="1:17">
       <c r="A4" s="2"/>
@@ -7876,8 +7869,8 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="P4" s="10"/>
+      <c r="Q4" s="10"/>
     </row>
     <row r="5" ht="17" customHeight="true" spans="1:17">
       <c r="A5" s="2"/>
@@ -7895,8 +7888,8 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row r="6" ht="17" customHeight="true" spans="1:17">
       <c r="A6" s="2"/>
@@ -7914,8 +7907,8 @@
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row r="7" ht="17" customHeight="true" spans="1:17">
       <c r="A7" s="2"/>
@@ -7957,8 +7950,8 @@
       <c r="O7" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="11"/>
     </row>
     <row r="8" ht="17" customHeight="true" spans="1:17">
       <c r="A8" s="2"/>
@@ -7986,7 +7979,7 @@
       <c r="K8" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L8" s="8" t="s">
+      <c r="L8" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M8" s="2" t="s">
@@ -7998,8 +7991,8 @@
       <c r="O8" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="12"/>
+      <c r="P8" s="11"/>
+      <c r="Q8" s="11"/>
     </row>
     <row r="9" ht="17" customHeight="true" spans="1:17">
       <c r="A9" s="2"/>
@@ -8027,7 +8020,7 @@
       <c r="K9" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L9" s="8" t="s">
+      <c r="L9" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M9" s="2" t="s">
@@ -8039,8 +8032,8 @@
       <c r="O9" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
+      <c r="P9" s="11"/>
+      <c r="Q9" s="11"/>
     </row>
     <row r="10" ht="17" customHeight="true" spans="1:17">
       <c r="A10" s="2"/>
@@ -8068,7 +8061,7 @@
       <c r="K10" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L10" s="8" t="s">
+      <c r="L10" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M10" s="2" t="s">
@@ -8080,8 +8073,8 @@
       <c r="O10" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="12"/>
+      <c r="P10" s="11"/>
+      <c r="Q10" s="11"/>
     </row>
     <row r="11" ht="17" customHeight="true" spans="1:17">
       <c r="A11" s="2"/>
@@ -8109,7 +8102,7 @@
       <c r="K11" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L11" s="8" t="s">
+      <c r="L11" s="2" t="s">
         <v>400</v>
       </c>
       <c r="M11" s="2" t="s">
@@ -8121,8 +8114,8 @@
       <c r="O11" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P11" s="12"/>
-      <c r="Q11" s="12"/>
+      <c r="P11" s="11"/>
+      <c r="Q11" s="11"/>
     </row>
     <row r="12" ht="17" customHeight="true" spans="1:17">
       <c r="A12" s="2"/>
@@ -8162,8 +8155,8 @@
       <c r="O12" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P12" s="12"/>
-      <c r="Q12" s="12"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
     </row>
     <row r="13" ht="17" customHeight="true" spans="1:17">
       <c r="A13" s="2"/>
@@ -8191,7 +8184,7 @@
       <c r="K13" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L13" s="8" t="s">
+      <c r="L13" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M13" s="2" t="s">
@@ -8203,8 +8196,8 @@
       <c r="O13" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="12"/>
-      <c r="Q13" s="12"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
     </row>
     <row r="14" ht="17" customHeight="true" spans="1:17">
       <c r="A14" s="2"/>
@@ -8232,7 +8225,7 @@
       <c r="K14" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L14" s="8" t="s">
+      <c r="L14" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M14" s="2" t="s">
@@ -8244,8 +8237,8 @@
       <c r="O14" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
     </row>
     <row r="15" ht="17" customHeight="true" spans="1:17">
       <c r="A15" s="2"/>
@@ -8273,7 +8266,7 @@
       <c r="K15" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="8" t="s">
+      <c r="L15" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M15" s="2" t="s">
@@ -8285,8 +8278,8 @@
       <c r="O15" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P15" s="12"/>
-      <c r="Q15" s="12"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
     </row>
     <row r="16" ht="17" customHeight="true" spans="1:17">
       <c r="A16" s="2"/>
@@ -8314,7 +8307,7 @@
       <c r="K16" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L16" s="8" t="s">
+      <c r="L16" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M16" s="2" t="s">
@@ -8326,8 +8319,8 @@
       <c r="O16" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P16" s="12"/>
-      <c r="Q16" s="12"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
     </row>
     <row r="17" ht="17" customHeight="true" spans="1:17">
       <c r="A17" s="2"/>
@@ -8367,8 +8360,8 @@
       <c r="O17" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P17" s="12"/>
-      <c r="Q17" s="12"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
     </row>
     <row r="18" ht="17" customHeight="true" spans="1:17">
       <c r="A18" s="2"/>
@@ -8396,7 +8389,7 @@
       <c r="K18" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L18" s="8" t="s">
+      <c r="L18" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M18" s="2" t="s">
@@ -8408,8 +8401,8 @@
       <c r="O18" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P18" s="12"/>
-      <c r="Q18" s="12"/>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="11"/>
     </row>
     <row r="19" ht="17" customHeight="true" spans="1:17">
       <c r="A19" s="2"/>
@@ -8437,7 +8430,7 @@
       <c r="K19" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L19" s="8" t="s">
+      <c r="L19" s="2" t="s">
         <v>412</v>
       </c>
       <c r="M19" s="2" t="s">
@@ -8449,8 +8442,8 @@
       <c r="O19" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P19" s="12"/>
-      <c r="Q19" s="12"/>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="11"/>
     </row>
     <row r="20" ht="17" customHeight="true" spans="1:17">
       <c r="A20" s="2"/>
@@ -8478,7 +8471,7 @@
       <c r="K20" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L20" s="8" t="s">
+      <c r="L20" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M20" s="2" t="s">
@@ -8490,8 +8483,8 @@
       <c r="O20" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P20" s="12"/>
-      <c r="Q20" s="12"/>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="11"/>
     </row>
     <row r="21" ht="21" customHeight="true" spans="1:17">
       <c r="A21" s="2"/>
@@ -8531,8 +8524,8 @@
       <c r="O21" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P21" s="12"/>
-      <c r="Q21" s="12"/>
+      <c r="P21" s="11"/>
+      <c r="Q21" s="11"/>
     </row>
     <row r="22" ht="21" customHeight="true" spans="1:17">
       <c r="A22" s="2"/>
@@ -8560,7 +8553,7 @@
       <c r="K22" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L22" s="8" t="s">
+      <c r="L22" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M22" s="2" t="s">
@@ -8572,8 +8565,8 @@
       <c r="O22" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P22" s="12"/>
-      <c r="Q22" s="12"/>
+      <c r="P22" s="11"/>
+      <c r="Q22" s="11"/>
     </row>
     <row r="23" ht="21" customHeight="true" spans="1:17">
       <c r="A23" s="2"/>
@@ -8601,7 +8594,7 @@
       <c r="K23" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L23" s="8" t="s">
+      <c r="L23" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M23" s="2" t="s">
@@ -8613,8 +8606,8 @@
       <c r="O23" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P23" s="12"/>
-      <c r="Q23" s="12"/>
+      <c r="P23" s="11"/>
+      <c r="Q23" s="11"/>
     </row>
     <row r="24" ht="22.5" customHeight="true" spans="1:17">
       <c r="A24" s="2"/>
@@ -8642,7 +8635,7 @@
       <c r="K24" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L24" s="8" t="s">
+      <c r="L24" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M24" s="2" t="s">
@@ -8654,8 +8647,8 @@
       <c r="O24" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P24" s="13"/>
-      <c r="Q24" s="13"/>
+      <c r="P24" s="12"/>
+      <c r="Q24" s="12"/>
     </row>
     <row r="25" ht="22.5" customHeight="true" spans="1:17">
       <c r="A25" s="2"/>
@@ -8683,7 +8676,7 @@
       <c r="K25" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="L25" s="8" t="s">
+      <c r="L25" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M25" s="2" t="s">
@@ -8695,8 +8688,8 @@
       <c r="O25" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
     </row>
     <row r="26" ht="22.5" customHeight="true" spans="1:17">
       <c r="A26" s="2"/>
@@ -8724,7 +8717,7 @@
       <c r="K26" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L26" s="8" t="s">
+      <c r="L26" s="2" t="s">
         <v>400</v>
       </c>
       <c r="M26" s="2" t="s">
@@ -8736,8 +8729,8 @@
       <c r="O26" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P26" s="13"/>
-      <c r="Q26" s="13"/>
+      <c r="P26" s="12"/>
+      <c r="Q26" s="12"/>
     </row>
     <row r="27" ht="22" customHeight="true" spans="1:17">
       <c r="A27" s="2"/>
@@ -8747,25 +8740,25 @@
       <c r="E27" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F27" s="8" t="s">
+      <c r="F27" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="8" t="s">
+      <c r="G27" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="H27" s="8" t="s">
+      <c r="H27" s="2" t="s">
         <v>428</v>
       </c>
       <c r="I27" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="16" t="s">
+      <c r="J27" s="15" t="s">
         <v>389</v>
       </c>
       <c r="K27" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L27" s="8" t="s">
+      <c r="L27" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M27" s="2" t="s">
@@ -8777,8 +8770,8 @@
       <c r="O27" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P27" s="13"/>
-      <c r="Q27" s="13"/>
+      <c r="P27" s="12"/>
+      <c r="Q27" s="12"/>
     </row>
     <row r="28" ht="22" customHeight="true" spans="1:17">
       <c r="A28" s="2"/>
@@ -8788,25 +8781,25 @@
       <c r="E28" s="7" t="s">
         <v>429</v>
       </c>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="H28" s="8" t="s">
+      <c r="H28" s="2" t="s">
         <v>431</v>
       </c>
       <c r="I28" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="16" t="s">
+      <c r="J28" s="15" t="s">
         <v>389</v>
       </c>
       <c r="K28" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="2" t="s">
         <v>390</v>
       </c>
       <c r="M28" s="2" t="s">
@@ -8818,8 +8811,8 @@
       <c r="O28" s="2" t="s">
         <v>391</v>
       </c>
-      <c r="P28" s="13"/>
-      <c r="Q28" s="13"/>
+      <c r="P28" s="12"/>
+      <c r="Q28" s="12"/>
     </row>
     <row r="29" ht="22" customHeight="true" spans="1:17">
       <c r="A29" s="2"/>
@@ -8833,12 +8826,12 @@
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
       <c r="K29" s="2"/>
-      <c r="L29" s="8"/>
+      <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="2"/>
-      <c r="P29" s="13"/>
-      <c r="Q29" s="13"/>
+      <c r="P29" s="12"/>
+      <c r="Q29" s="12"/>
     </row>
     <row r="30" ht="22" customHeight="true" spans="1:17">
       <c r="A30" s="2"/>
@@ -8852,12 +8845,12 @@
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
       <c r="K30" s="2"/>
-      <c r="L30" s="8"/>
+      <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
-      <c r="P30" s="13"/>
-      <c r="Q30" s="13"/>
+      <c r="P30" s="12"/>
+      <c r="Q30" s="12"/>
     </row>
     <row r="31" ht="22" customHeight="true" spans="1:17">
       <c r="A31" s="2"/>
@@ -8871,12 +8864,12 @@
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
       <c r="K31" s="2"/>
-      <c r="L31" s="8"/>
+      <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="13"/>
-      <c r="Q31" s="13"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
     </row>
     <row r="32" ht="22" customHeight="true" spans="1:17">
       <c r="A32" s="2"/>
@@ -8890,12 +8883,12 @@
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
-      <c r="L32" s="8"/>
+      <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="13"/>
+      <c r="P32" s="12"/>
+      <c r="Q32" s="12"/>
     </row>
     <row r="33" ht="22" customHeight="true" spans="1:17">
       <c r="A33" s="2"/>
@@ -8909,12 +8902,12 @@
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
       <c r="K33" s="2"/>
-      <c r="L33" s="8"/>
+      <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
-      <c r="P33" s="13"/>
-      <c r="Q33" s="13"/>
+      <c r="P33" s="12"/>
+      <c r="Q33" s="12"/>
     </row>
     <row r="34" ht="22" customHeight="true" spans="1:17">
       <c r="A34" s="2"/>
@@ -8928,12 +8921,12 @@
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
       <c r="K34" s="2"/>
-      <c r="L34" s="8"/>
+      <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
-      <c r="P34" s="13"/>
-      <c r="Q34" s="13"/>
+      <c r="P34" s="12"/>
+      <c r="Q34" s="12"/>
     </row>
     <row r="35" ht="22" customHeight="true" spans="1:17">
       <c r="A35" s="2"/>
@@ -8947,12 +8940,12 @@
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
       <c r="K35" s="2"/>
-      <c r="L35" s="8"/>
+      <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
-      <c r="P35" s="13"/>
-      <c r="Q35" s="13"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
     </row>
     <row r="36" ht="22" customHeight="true" spans="1:17">
       <c r="A36" s="2"/>
@@ -8966,12 +8959,12 @@
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
       <c r="K36" s="2"/>
-      <c r="L36" s="8"/>
+      <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
-      <c r="P36" s="13"/>
-      <c r="Q36" s="13"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
     </row>
     <row r="37" ht="22" customHeight="true" spans="1:17">
       <c r="A37" s="2"/>
@@ -8985,12 +8978,12 @@
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
       <c r="K37" s="2"/>
-      <c r="L37" s="8"/>
+      <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
-      <c r="P37" s="13"/>
-      <c r="Q37" s="13"/>
+      <c r="P37" s="12"/>
+      <c r="Q37" s="12"/>
     </row>
     <row r="38" ht="22" customHeight="true" spans="1:17">
       <c r="A38" s="2"/>
@@ -9004,12 +8997,12 @@
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
       <c r="K38" s="2"/>
-      <c r="L38" s="8"/>
+      <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
-      <c r="P38" s="13"/>
-      <c r="Q38" s="13"/>
+      <c r="P38" s="12"/>
+      <c r="Q38" s="12"/>
     </row>
     <row r="39" ht="22" customHeight="true" spans="1:17">
       <c r="A39" s="2"/>
@@ -9023,12 +9016,12 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
       <c r="K39" s="2"/>
-      <c r="L39" s="8"/>
+      <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
-      <c r="P39" s="13"/>
-      <c r="Q39" s="13"/>
+      <c r="P39" s="12"/>
+      <c r="Q39" s="12"/>
     </row>
     <row r="40" ht="22" customHeight="true" spans="1:17">
       <c r="A40" s="2"/>
@@ -9042,12 +9035,12 @@
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
       <c r="K40" s="2"/>
-      <c r="L40" s="8"/>
+      <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
-      <c r="P40" s="13"/>
-      <c r="Q40" s="13"/>
+      <c r="P40" s="12"/>
+      <c r="Q40" s="12"/>
     </row>
     <row r="41" ht="22" customHeight="true" spans="1:17">
       <c r="A41" s="2"/>
@@ -9061,12 +9054,12 @@
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
       <c r="K41" s="2"/>
-      <c r="L41" s="8"/>
+      <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="13"/>
-      <c r="Q41" s="13"/>
+      <c r="P41" s="12"/>
+      <c r="Q41" s="12"/>
     </row>
     <row r="42" ht="22" customHeight="true" spans="1:17">
       <c r="A42" s="2"/>
@@ -9080,12 +9073,12 @@
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
       <c r="K42" s="2"/>
-      <c r="L42" s="8"/>
+      <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
-      <c r="P42" s="13"/>
-      <c r="Q42" s="13"/>
+      <c r="P42" s="12"/>
+      <c r="Q42" s="12"/>
     </row>
     <row r="43" ht="21" customHeight="true" spans="1:17">
       <c r="A43" s="6"/>
@@ -9093,18 +9086,18 @@
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
-      <c r="F43" s="9"/>
-      <c r="G43" s="10"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
-      <c r="K43" s="10"/>
-      <c r="L43" s="10"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="10"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="12"/>
-      <c r="Q43" s="12"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="9"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="9"/>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
     </row>
     <row r="44" ht="21" customHeight="true" spans="1:17">
       <c r="A44" s="6"/>
@@ -9112,18 +9105,18 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
-      <c r="F44" s="9"/>
-      <c r="G44" s="10"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
-      <c r="K44" s="10"/>
-      <c r="L44" s="10"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="10"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="12"/>
-      <c r="Q44" s="12"/>
+      <c r="F44" s="8"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
     </row>
     <row r="45" ht="21" customHeight="true" spans="1:17">
       <c r="A45" s="6"/>
@@ -9131,18 +9124,18 @@
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
-      <c r="F45" s="9"/>
-      <c r="G45" s="10"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="10"/>
-      <c r="K45" s="10"/>
-      <c r="L45" s="10"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="10"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="12"/>
-      <c r="Q45" s="12"/>
+      <c r="F45" s="8"/>
+      <c r="G45" s="9"/>
+      <c r="H45" s="9"/>
+      <c r="I45" s="9"/>
+      <c r="J45" s="9"/>
+      <c r="K45" s="9"/>
+      <c r="L45" s="9"/>
+      <c r="M45" s="9"/>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="11"/>
+      <c r="Q45" s="11"/>
     </row>
     <row r="46" ht="21" customHeight="true" spans="1:17">
       <c r="A46" s="6"/>
@@ -9150,18 +9143,18 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="9"/>
-      <c r="G46" s="10"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="10"/>
-      <c r="K46" s="10"/>
-      <c r="L46" s="10"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="10"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="12"/>
-      <c r="Q46" s="12"/>
+      <c r="F46" s="8"/>
+      <c r="G46" s="9"/>
+      <c r="H46" s="9"/>
+      <c r="I46" s="9"/>
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="11"/>
+      <c r="Q46" s="11"/>
     </row>
     <row r="47" ht="21" customHeight="true" spans="1:17">
       <c r="A47" s="6"/>
@@ -9169,18 +9162,18 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
-      <c r="F47" s="9"/>
-      <c r="G47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
-      <c r="K47" s="10"/>
-      <c r="L47" s="10"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="10"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="12"/>
-      <c r="Q47" s="12"/>
+      <c r="F47" s="8"/>
+      <c r="G47" s="9"/>
+      <c r="H47" s="9"/>
+      <c r="I47" s="9"/>
+      <c r="J47" s="9"/>
+      <c r="K47" s="9"/>
+      <c r="L47" s="9"/>
+      <c r="M47" s="9"/>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="11"/>
+      <c r="Q47" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F2F9E-855B-D04A-98AF-00702EDB2FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28770" windowHeight="10305" firstSheet="3" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="10300" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -16,14 +22,13 @@
     <sheet name="fd_object_shceme_field" sheetId="7" r:id="rId7"/>
     <sheet name="fd_object_scheme" sheetId="8" r:id="rId8"/>
     <sheet name="fd_page" sheetId="9" r:id="rId9"/>
-    <sheet name="agile_configuration_rule_filed" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="958" uniqueCount="442">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="439">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1340,28 +1345,13 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
-  </si>
-  <si>
-    <t>agile_configuration_rule_filed</t>
-  </si>
-  <si>
-    <t>estimated_start_time</t>
-  </si>
-  <si>
-    <t>estimated_end_time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1372,174 +1362,38 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1552,194 +1406,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1777,327 +1445,38 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="9" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="6" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+  <cellXfs count="16">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="true" applyFont="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true" quotePrefix="true"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2171,6 +1550,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -2233,7 +1615,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2254,9 +1636,9 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="true"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2273,7 +1655,7 @@
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="false"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
@@ -2314,7 +1696,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -2340,7 +1722,7 @@
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
         </a:gradFill>
-        <a:gradFill rotWithShape="true">
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -3208,88 +2590,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.82962962962963" style="1" customWidth="true"/>
-    <col min="6" max="256" width="9" style="1" customWidth="true"/>
+    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
+    <col min="6" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" ht="17" customHeight="true" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" ht="17" customHeight="true" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" ht="17" customHeight="true" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -3297,8 +2677,9 @@
       <c r="E10" s="2"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3306,27 +2687,440 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV28"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1" customWidth="true"/>
-    <col min="4" max="4" width="22.162962962963" style="1" customWidth="true"/>
-    <col min="5" max="5" width="25" style="1" customWidth="true"/>
-    <col min="6" max="6" width="15.8296296296296" style="1" customWidth="true"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="true"/>
-    <col min="8" max="8" width="19.5037037037037" style="1" customWidth="true"/>
-    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
+    <col min="8" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:8">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+    </row>
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV92"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77:XFD77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="1" customWidth="1"/>
+    <col min="5" max="5" width="27" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3336,7 +3130,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -3346,7 +3140,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3356,7 +3150,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -3366,7 +3160,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -3376,7 +3170,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -3386,776 +3180,1586 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>439</v>
+        <v>63</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>237</v>
+        <v>64</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>238</v>
+        <v>1</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="true" spans="1:8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>109</v>
+        <v>66</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
+        <v>68</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="true" spans="1:8">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>243</v>
+        <v>69</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>244</v>
+        <v>70</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>246</v>
+        <v>71</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>240</v>
+        <v>4</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>247</v>
+        <v>72</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="true" spans="1:8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>249</v>
+        <v>73</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>250</v>
+        <v>74</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="true" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>234</v>
+        <v>7</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>252</v>
+        <v>76</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="true" spans="1:8">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>116</v>
+        <v>77</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>261</v>
+        <v>7</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true" spans="1:8">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>260</v>
+        <v>79</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>261</v>
+        <v>10</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>262</v>
+        <v>80</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="true" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>264</v>
+        <v>81</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>111</v>
+        <v>82</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="true" spans="1:8">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>266</v>
+        <v>83</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>240</v>
+        <v>10</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="true" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>269</v>
+        <v>85</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>270</v>
+        <v>80</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="true" spans="1:8">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>272</v>
+        <v>86</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>273</v>
+        <v>87</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="true" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>275</v>
+        <v>88</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>240</v>
+        <v>13</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>276</v>
+        <v>70</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="true" spans="1:8">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>278</v>
+        <v>89</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>240</v>
+        <v>16</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>279</v>
+        <v>90</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="true" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>225</v>
-      </c>
       <c r="G22" s="3" t="s">
-        <v>280</v>
+        <v>92</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="true" spans="1:8">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>440</v>
+        <v>93</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>234</v>
+        <v>16</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>428</v>
+        <v>94</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="true" spans="1:8">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="F24" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="2"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="H26" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G27" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="H27" s="3" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="2"/>
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G28" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="H28" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="2"/>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G32" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+      <c r="D33" s="2"/>
+      <c r="E33" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G33" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="H33" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="2"/>
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
+      <c r="E34" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G34" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="H34" s="3" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G35" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="H36" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G38" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="2"/>
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F39" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H39" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="2"/>
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F40" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G40" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="H40" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="2"/>
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G41" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="H41" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="H42" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="2"/>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="F43" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G43" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H43" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="2"/>
+      <c r="E44" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F44" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G44" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="H44" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="2"/>
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G45" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="2"/>
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+      <c r="D46" s="2"/>
+      <c r="E46" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G46" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="H46" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="2"/>
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="2"/>
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="H48" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="2"/>
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G49" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="H49" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="2"/>
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G50" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="2"/>
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G51" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="H51" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="2"/>
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G52" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="H52" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="2"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G53" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="2"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G54" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="2"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="2"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G56" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="2"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G57" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="2"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G58" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="2"/>
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G59" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="2"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G61" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="2"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="G62" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="2"/>
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G63" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="2"/>
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G64" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="2"/>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F65" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G65" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="2"/>
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="2"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G67" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="2"/>
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G68" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="2"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="F69" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G69" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="2"/>
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G70" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="2"/>
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G71" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="2"/>
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G72" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="2"/>
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F73" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G73" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="2"/>
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="F74" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G74" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="2"/>
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="G75" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="2"/>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G76" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="2"/>
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="2"/>
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F78" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G78" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="2"/>
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F79" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G79" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="2"/>
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G80" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="2"/>
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G81" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="2"/>
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G82" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="2"/>
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G83" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="2"/>
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G84" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="2"/>
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G85" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="2"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G86" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="2"/>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G87" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="2"/>
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="2"/>
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G89" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="2"/>
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G90" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="2"/>
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G91" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="2"/>
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>431</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>441</v>
+      <c r="F92" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="G92" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G28"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.82962962962963" style="1" customWidth="true"/>
-    <col min="4" max="4" width="19" style="1" customWidth="true"/>
-    <col min="5" max="6" width="30.5037037037037" style="1" customWidth="true"/>
-    <col min="7" max="7" width="17.6666666666667" style="1" customWidth="true"/>
-    <col min="8" max="256" width="9" style="1" customWidth="true"/>
+    <col min="1" max="3" width="9" style="1" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:7">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" ht="17" customHeight="true" spans="1:7">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" ht="17" customHeight="true" spans="1:7">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" ht="17" customHeight="true" spans="1:7">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" ht="17" customHeight="true" spans="1:7">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" ht="17" customHeight="true" spans="1:7">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" ht="17" customHeight="true" spans="1:7">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="true" spans="1:7">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true" spans="1:7">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="true" spans="1:7">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:7">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="true" spans="1:7">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="true" spans="1:7">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="true" spans="1:7">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="true" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="true" spans="1:7">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="true" spans="1:7">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" customHeight="true" spans="1:7">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" customHeight="true" spans="1:7">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" customHeight="true" spans="1:7">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" customHeight="true" spans="1:7">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" customHeight="true" spans="1:7">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="24" customHeight="true" spans="1:7">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" customHeight="true" spans="1:7">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" customHeight="true" spans="1:7">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="27" customHeight="true" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" customHeight="true" spans="1:7">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H92"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="$A77:$XFD77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="3" width="9" style="1" customWidth="true"/>
-    <col min="4" max="4" width="18" style="1" customWidth="true"/>
-    <col min="5" max="5" width="27" style="1" customWidth="true"/>
-    <col min="6" max="6" width="24.3333333333333" style="1" customWidth="true"/>
-    <col min="7" max="7" width="29.6666666666667" style="1" customWidth="true"/>
-    <col min="8" max="8" width="23.162962962963" style="1" customWidth="true"/>
-    <col min="9" max="256" width="9" style="1" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -4165,7 +4769,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -4175,7 +4779,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4185,7 +4789,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -4195,7 +4799,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -4205,7 +4809,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -4215,1586 +4819,358 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="3" t="s">
-        <v>63</v>
+        <v>236</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>64</v>
+        <v>237</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1</v>
+        <v>238</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="true" spans="1:8">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>66</v>
+        <v>109</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true" spans="1:8">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="true" spans="1:8">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>69</v>
+        <v>243</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>70</v>
+        <v>244</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:8">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>71</v>
+        <v>246</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>4</v>
+        <v>240</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>72</v>
+        <v>247</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="true" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>73</v>
+        <v>249</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>74</v>
+        <v>250</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="true" spans="1:8">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>75</v>
+        <v>251</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>234</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>76</v>
+        <v>252</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="true" spans="1:8">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>77</v>
+        <v>253</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>7</v>
+        <v>240</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>78</v>
+        <v>254</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true" spans="1:8">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>80</v>
+        <v>257</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="true" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>10</v>
+        <v>240</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="true" spans="1:8">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>83</v>
+        <v>260</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>10</v>
+        <v>261</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>84</v>
+        <v>262</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="true" spans="1:8">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>85</v>
+        <v>264</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="true" spans="1:8">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>86</v>
+        <v>266</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>87</v>
+        <v>267</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="true" spans="1:8">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>88</v>
+        <v>269</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>13</v>
+        <v>240</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>70</v>
+        <v>270</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="true" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>89</v>
+        <v>272</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>90</v>
+        <v>273</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="true" spans="1:8">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>91</v>
+        <v>275</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>92</v>
+        <v>276</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="true" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>278</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>16</v>
+        <v>240</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>94</v>
+        <v>279</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="true" spans="1:8">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>16</v>
+        <v>225</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>96</v>
+        <v>280</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="25" ht="17" customHeight="true" spans="1:8">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="26" ht="17" customHeight="true" spans="1:8">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="27" ht="17" customHeight="true" spans="1:8">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="28" ht="17" customHeight="true" spans="1:8">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F28" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G28" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="H28" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="29" ht="17" customHeight="true" spans="1:8">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G29" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H29" s="3" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="30" ht="17" customHeight="true" spans="1:8">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="F30" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G30" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="H30" s="3" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" ht="17" customHeight="true" spans="1:8">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="32" ht="17" customHeight="true" spans="1:8">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F32" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G32" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H32" s="3" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33" ht="17" customHeight="true" spans="1:8">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="34" ht="17" customHeight="true" spans="1:8">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G34" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="H34" s="3" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="35" ht="17" customHeight="true" spans="1:8">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" ht="17" customHeight="true" spans="1:8">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="37" ht="17" customHeight="true" spans="1:8">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G37" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H37" s="3" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="38" ht="17" customHeight="true" spans="1:8">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="F38" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G38" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="H38" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="39" ht="17" customHeight="true" spans="1:8">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F39" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G39" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H39" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="40" ht="17" customHeight="true" spans="1:8">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G40" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="41" ht="17" customHeight="true" spans="1:8">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="42" ht="17" customHeight="true" spans="1:8">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="43" ht="17" customHeight="true" spans="1:8">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H43" s="3" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="44" ht="17" customHeight="true" spans="1:8">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="H44" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="45" ht="17" customHeight="true" spans="1:8">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="F45" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G45" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="H45" s="3" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="46" ht="17" customHeight="true" spans="1:8">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="47" ht="17" customHeight="true" spans="1:8">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="F47" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H47" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="48" ht="17" customHeight="true" spans="1:8">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G48" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H48" s="3" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="49" ht="17" customHeight="true" spans="1:8">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G49" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="H49" s="3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="50" ht="17" customHeight="true" spans="1:8">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3" t="s">
-        <v>156</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G50" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="H50" s="3" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="51" ht="17" customHeight="true" spans="1:8">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3" t="s">
-        <v>159</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G51" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="H51" s="3" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="52" ht="17" customHeight="true" spans="1:8">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" customHeight="true" spans="1:8">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="F53" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G53" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="54" customHeight="true" spans="1:8">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G54" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="H54" s="2" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="55" customHeight="true" spans="1:8">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="G55" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="H55" s="2" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="56" customHeight="true" spans="1:8">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G56" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="H56" s="2" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="57" customHeight="true" spans="1:8">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G57" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="H57" s="2" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="58" customHeight="true" spans="1:8">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G58" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="H58" s="2" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="59" customHeight="true" spans="1:8">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="60" customHeight="true" spans="1:8">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G60" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="H60" s="2" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="61" customHeight="true" spans="1:8">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G61" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="H61" s="2" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="62" customHeight="true" spans="1:8">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="F62" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="G62" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="H62" s="2" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="63" customHeight="true" spans="1:8">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G63" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="64" customHeight="true" spans="1:8">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G64" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="65" customHeight="true" spans="1:8">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="G65" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" customHeight="true" spans="1:8">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="67" customHeight="true" spans="1:8">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G67" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="68" customHeight="true" spans="1:8">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F68" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G68" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="69" customHeight="true" spans="1:8">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="F69" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="G69" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="70" customHeight="true" spans="1:8">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="F70" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G70" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="71" customHeight="true" spans="1:8">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="F71" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="G71" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="H71" s="2" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="72" customHeight="true" spans="1:8">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="F72" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G72" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="H72" s="2" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="73" customHeight="true" spans="1:8">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F73" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G73" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="H73" s="2" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="74" customHeight="true" spans="1:8">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="F74" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G74" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="75" customHeight="true" spans="1:8">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="F75" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="G75" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="76" customHeight="true" spans="1:8">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
-        <v>211</v>
-      </c>
-      <c r="F76" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G76" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="77" customHeight="true" spans="1:8">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F77" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G77" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="H77" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="78" customHeight="true" spans="1:8">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G78" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="79" customHeight="true" spans="1:8">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="F79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G79" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="80" customHeight="true" spans="1:8">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="F80" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G80" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="H80" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="81" customHeight="true" spans="1:8">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F81" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G81" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="H81" s="2" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="82" customHeight="true" spans="1:8">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
-        <v>214</v>
-      </c>
-      <c r="F82" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G82" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="H82" s="2" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="83" customHeight="true" spans="1:8">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
-        <v>216</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G83" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="H83" s="2" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="84" customHeight="true" spans="1:8">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="F84" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G84" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="H84" s="2" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="85" customHeight="true" spans="1:8">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="F85" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G85" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="H85" s="2" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="86" customHeight="true" spans="1:8">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
-        <v>221</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G86" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="87" customHeight="true" spans="1:8">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
-        <v>223</v>
-      </c>
-      <c r="F87" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G87" s="2" t="s">
-        <v>224</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" customHeight="true" spans="1:8">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>226</v>
-      </c>
-      <c r="H88" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" customHeight="true" spans="1:8">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="F89" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G89" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="H89" s="2" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="90" customHeight="true" spans="1:8">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="F90" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G90" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="H90" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="91" customHeight="true" spans="1:8">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
-        <v>231</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G91" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="H91" s="2" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="92" customHeight="true" spans="1:8">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="G92" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>235</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="1" customWidth="true"/>
-    <col min="4" max="4" width="22.162962962963" style="1" customWidth="true"/>
-    <col min="5" max="5" width="25" style="1" customWidth="true"/>
-    <col min="6" max="6" width="15.8296296296296" style="1" customWidth="true"/>
-    <col min="7" max="7" width="18.3333333333333" style="1" customWidth="true"/>
-    <col min="8" max="8" width="19.5037037037037" style="1" customWidth="true"/>
-    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
+    <col min="9" max="256" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -5804,7 +5180,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -5814,7 +5190,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -5824,7 +5200,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -5834,7 +5210,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -5844,7 +5220,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -5854,360 +5230,271 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
-        <v>236</v>
+      <c r="D7" s="14" t="s">
+        <v>282</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>237</v>
+        <v>283</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>238</v>
+        <v>284</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>2</v>
+        <v>285</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="true" spans="1:8">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>108</v>
+        <v>287</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="H8" s="3" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="H8" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>19</v>
+        <v>287</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>240</v>
+        <v>246</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="true" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>243</v>
+        <v>287</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>244</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>246</v>
+        <v>287</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="true" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>249</v>
+        <v>294</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="true" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="H12" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>251</v>
+        <v>294</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>234</v>
+        <v>246</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>252</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="true" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="H13" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
-        <v>253</v>
+        <v>294</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>254</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>256</v>
+        <v>294</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>257</v>
-      </c>
-      <c r="H15" s="3" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="true" spans="1:8">
+        <v>293</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>116</v>
+        <v>295</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="H16" s="3" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="true" spans="1:8">
+        <v>289</v>
+      </c>
+      <c r="H16" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>260</v>
+        <v>295</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>262</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="true" spans="1:8">
+        <v>247</v>
+      </c>
+      <c r="H17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>264</v>
+        <v>295</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="true" spans="1:8">
+        <v>291</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>240</v>
+        <v>292</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>267</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="20" ht="17" customHeight="true" spans="1:8">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
-        <v>269</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>270</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="21" ht="17" customHeight="true" spans="1:8">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
-        <v>272</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="22" ht="17" customHeight="true" spans="1:8">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
-        <v>275</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>276</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="23" ht="17" customHeight="true" spans="1:8">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
-        <v>278</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>240</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="24" ht="17" customHeight="true" spans="1:8">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="G24" s="3" t="s">
-        <v>280</v>
-      </c>
-      <c r="H24" s="3" t="s">
-        <v>281</v>
+        <v>293</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
-    <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
+    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.82962962962963" style="1" customWidth="true"/>
-    <col min="4" max="4" width="19" style="1" customWidth="true"/>
-    <col min="5" max="6" width="30.5037037037037" style="1" customWidth="true"/>
-    <col min="7" max="8" width="17.6666666666667" style="1" customWidth="true"/>
-    <col min="9" max="256" width="9" style="1" customWidth="true"/>
+    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="29" style="1" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -6217,7 +5504,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -6227,7 +5514,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -6237,7 +5524,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -6247,7 +5534,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -6257,7 +5544,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -6267,331 +5554,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:8">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
-        <v>282</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>283</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>284</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H7" s="3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="true" spans="1:8">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H8" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" ht="17" customHeight="true" spans="1:8">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="17" customHeight="true" spans="1:8">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="17" customHeight="true" spans="1:8">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
-        <v>287</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H11" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="17" customHeight="true" spans="1:8">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H12" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" ht="17" customHeight="true" spans="1:8">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" ht="17" customHeight="true" spans="1:8">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H14" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="17" customHeight="true" spans="1:8">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H15" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="17" customHeight="true" spans="1:8">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>288</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="H16" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" ht="17" customHeight="true" spans="1:8">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>246</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="H17" s="13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" ht="17" customHeight="true" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>290</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H18" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="17" customHeight="true" spans="1:8">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
-        <v>295</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>293</v>
-      </c>
-      <c r="H19" s="13">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
-  <headerFooter>
-    <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
-    <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
-  </headerFooter>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H77"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="H66" sqref="H66"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="16" customHeight="true" outlineLevelCol="7"/>
-  <cols>
-    <col min="1" max="3" width="10.8296296296296" style="1" customWidth="true"/>
-    <col min="4" max="4" width="15.8296296296296" style="1" customWidth="true"/>
-    <col min="5" max="5" width="16.8296296296296" style="1" customWidth="true"/>
-    <col min="6" max="6" width="29" style="1" customWidth="true"/>
-    <col min="7" max="256" width="10.8296296296296" style="1" customWidth="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:8">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" ht="17" customHeight="true" spans="1:8">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" ht="17" customHeight="true" spans="1:8">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" ht="17" customHeight="true" spans="1:8">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" ht="17" customHeight="true" spans="1:8">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" ht="17" customHeight="true" spans="1:8">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" ht="17" customHeight="true" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -6611,7 +5574,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="true" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -6627,7 +5590,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="true" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -6643,7 +5606,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="true" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -6661,7 +5624,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="true" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -6677,7 +5640,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="true" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -6695,7 +5658,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="true" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -6713,7 +5676,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="true" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -6729,7 +5692,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="true" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -6745,7 +5708,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="true" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -6761,7 +5724,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="true" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -6777,7 +5740,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="true" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -6793,7 +5756,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="true" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -6809,7 +5772,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="true" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -6827,7 +5790,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="true" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -6843,7 +5806,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="true" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -6859,7 +5822,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="true" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -6875,7 +5838,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="true" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -6891,7 +5854,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="true" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -6907,7 +5870,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="true" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -6923,7 +5886,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="true" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -6941,7 +5904,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="true" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -6957,7 +5920,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="true" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -6973,7 +5936,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="true" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -6991,7 +5954,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="true" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -7007,7 +5970,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="true" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -7023,7 +5986,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="true" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -7041,7 +6004,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="true" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -7057,7 +6020,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="true" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -7073,7 +6036,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="true" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -7091,7 +6054,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="true" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -7107,7 +6070,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="true" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -7123,7 +6086,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="true" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -7139,7 +6102,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="true" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -7155,7 +6118,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="true" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -7171,7 +6134,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="true" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -7187,7 +6150,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="true" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -7205,7 +6168,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="true" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -7221,7 +6184,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="true" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -7237,7 +6200,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="true" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -7255,7 +6218,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="true" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -7273,7 +6236,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="true" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -7289,7 +6252,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="true" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -7305,7 +6268,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="true" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -7321,7 +6284,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="true" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -7337,7 +6300,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="true" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
@@ -7353,7 +6316,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="true" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
@@ -7371,7 +6334,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="true" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
@@ -7387,7 +6350,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="true" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
@@ -7403,7 +6366,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="true" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
@@ -7419,7 +6382,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="true" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -7437,7 +6400,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="true" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
@@ -7453,7 +6416,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="true" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
@@ -7469,7 +6432,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="true" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
@@ -7485,7 +6448,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="true" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -7501,7 +6464,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="true" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
@@ -7519,7 +6482,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="true" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
@@ -7535,7 +6498,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="true" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
@@ -7551,7 +6514,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="true" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
@@ -7569,7 +6532,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="true" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
@@ -7585,7 +6548,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="true" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
@@ -7601,7 +6564,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="true" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
@@ -7617,7 +6580,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="true" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
@@ -7633,7 +6596,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="true" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
@@ -7651,7 +6614,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="true" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
@@ -7667,7 +6630,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="true" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
@@ -7683,7 +6646,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" customHeight="true" spans="1:8">
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
@@ -7699,7 +6662,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" customHeight="true" spans="1:8">
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -7715,7 +6678,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" customHeight="true" spans="1:8">
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
@@ -7731,7 +6694,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" customHeight="true" spans="1:8">
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
@@ -7747,7 +6710,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" customHeight="true" spans="1:8">
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
@@ -7764,8 +6727,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7773,30 +6737,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:JE47"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="L26" sqref="L26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="true"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9" style="5" customWidth="true"/>
-    <col min="4" max="4" width="24.6666666666667" style="5" customWidth="true"/>
-    <col min="5" max="5" width="26.6666666666667" style="5" customWidth="true"/>
-    <col min="6" max="6" width="27" style="5" customWidth="true"/>
-    <col min="7" max="7" width="24.3333333333333" style="5" customWidth="true"/>
-    <col min="8" max="11" width="29.6666666666667" style="5" customWidth="true"/>
-    <col min="12" max="12" width="39.5037037037037" style="5" customWidth="true"/>
-    <col min="13" max="14" width="29.6666666666667" style="5" customWidth="true"/>
-    <col min="15" max="17" width="23.162962962963" style="5" customWidth="true"/>
-    <col min="18" max="265" width="9" style="5" customWidth="true"/>
+    <col min="1" max="3" width="9" style="5" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="27" style="5" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="5" customWidth="1"/>
+    <col min="8" max="11" width="29.6640625" style="5" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="5" customWidth="1"/>
+    <col min="13" max="14" width="29.6640625" style="5" customWidth="1"/>
+    <col min="15" max="17" width="23.1640625" style="5" customWidth="1"/>
+    <col min="18" max="265" width="9" style="5" customWidth="1"/>
     <col min="266" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="true" spans="1:17">
+    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -7815,7 +6778,7 @@
       <c r="P1" s="10"/>
       <c r="Q1" s="10"/>
     </row>
-    <row r="2" ht="17" customHeight="true" spans="1:17">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -7834,7 +6797,7 @@
       <c r="P2" s="10"/>
       <c r="Q2" s="10"/>
     </row>
-    <row r="3" ht="17" customHeight="true" spans="1:17">
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -7853,7 +6816,7 @@
       <c r="P3" s="10"/>
       <c r="Q3" s="10"/>
     </row>
-    <row r="4" ht="17" customHeight="true" spans="1:17">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -7872,7 +6835,7 @@
       <c r="P4" s="10"/>
       <c r="Q4" s="10"/>
     </row>
-    <row r="5" ht="17" customHeight="true" spans="1:17">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -7891,7 +6854,7 @@
       <c r="P5" s="10"/>
       <c r="Q5" s="10"/>
     </row>
-    <row r="6" ht="17" customHeight="true" spans="1:17">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -7910,7 +6873,7 @@
       <c r="P6" s="10"/>
       <c r="Q6" s="10"/>
     </row>
-    <row r="7" ht="17" customHeight="true" spans="1:17">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -7953,7 +6916,7 @@
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
     </row>
-    <row r="8" ht="17" customHeight="true" spans="1:17">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -7994,7 +6957,7 @@
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
     </row>
-    <row r="9" ht="17" customHeight="true" spans="1:17">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -8035,7 +6998,7 @@
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
     </row>
-    <row r="10" ht="17" customHeight="true" spans="1:17">
+    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -8076,7 +7039,7 @@
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
     </row>
-    <row r="11" ht="17" customHeight="true" spans="1:17">
+    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -8117,7 +7080,7 @@
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
     </row>
-    <row r="12" ht="17" customHeight="true" spans="1:17">
+    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -8158,7 +7121,7 @@
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
     </row>
-    <row r="13" ht="17" customHeight="true" spans="1:17">
+    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -8199,7 +7162,7 @@
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
     </row>
-    <row r="14" ht="17" customHeight="true" spans="1:17">
+    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -8240,7 +7203,7 @@
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
     </row>
-    <row r="15" ht="17" customHeight="true" spans="1:17">
+    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -8281,7 +7244,7 @@
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
     </row>
-    <row r="16" ht="17" customHeight="true" spans="1:17">
+    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -8322,7 +7285,7 @@
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
     </row>
-    <row r="17" ht="17" customHeight="true" spans="1:17">
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -8363,7 +7326,7 @@
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
     </row>
-    <row r="18" ht="17" customHeight="true" spans="1:17">
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -8404,7 +7367,7 @@
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
     </row>
-    <row r="19" ht="17" customHeight="true" spans="1:17">
+    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -8445,7 +7408,7 @@
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
     </row>
-    <row r="20" ht="17" customHeight="true" spans="1:17">
+    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -8486,7 +7449,7 @@
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
     </row>
-    <row r="21" ht="21" customHeight="true" spans="1:17">
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -8527,7 +7490,7 @@
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
     </row>
-    <row r="22" ht="21" customHeight="true" spans="1:17">
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -8568,7 +7531,7 @@
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
     </row>
-    <row r="23" ht="21" customHeight="true" spans="1:17">
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -8609,7 +7572,7 @@
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
     </row>
-    <row r="24" ht="22.5" customHeight="true" spans="1:17">
+    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -8650,7 +7613,7 @@
       <c r="P24" s="12"/>
       <c r="Q24" s="12"/>
     </row>
-    <row r="25" ht="22.5" customHeight="true" spans="1:17">
+    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -8691,7 +7654,7 @@
       <c r="P25" s="12"/>
       <c r="Q25" s="12"/>
     </row>
-    <row r="26" ht="22.5" customHeight="true" spans="1:17">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -8732,7 +7695,7 @@
       <c r="P26" s="12"/>
       <c r="Q26" s="12"/>
     </row>
-    <row r="27" ht="22" customHeight="true" spans="1:17">
+    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -8773,7 +7736,7 @@
       <c r="P27" s="12"/>
       <c r="Q27" s="12"/>
     </row>
-    <row r="28" ht="22" customHeight="true" spans="1:17">
+    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -8814,7 +7777,7 @@
       <c r="P28" s="12"/>
       <c r="Q28" s="12"/>
     </row>
-    <row r="29" ht="22" customHeight="true" spans="1:17">
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -8833,7 +7796,7 @@
       <c r="P29" s="12"/>
       <c r="Q29" s="12"/>
     </row>
-    <row r="30" ht="22" customHeight="true" spans="1:17">
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -8852,7 +7815,7 @@
       <c r="P30" s="12"/>
       <c r="Q30" s="12"/>
     </row>
-    <row r="31" ht="22" customHeight="true" spans="1:17">
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -8871,7 +7834,7 @@
       <c r="P31" s="12"/>
       <c r="Q31" s="12"/>
     </row>
-    <row r="32" ht="22" customHeight="true" spans="1:17">
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -8890,7 +7853,7 @@
       <c r="P32" s="12"/>
       <c r="Q32" s="12"/>
     </row>
-    <row r="33" ht="22" customHeight="true" spans="1:17">
+    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -8909,7 +7872,7 @@
       <c r="P33" s="12"/>
       <c r="Q33" s="12"/>
     </row>
-    <row r="34" ht="22" customHeight="true" spans="1:17">
+    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -8928,7 +7891,7 @@
       <c r="P34" s="12"/>
       <c r="Q34" s="12"/>
     </row>
-    <row r="35" ht="22" customHeight="true" spans="1:17">
+    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -8947,7 +7910,7 @@
       <c r="P35" s="12"/>
       <c r="Q35" s="12"/>
     </row>
-    <row r="36" ht="22" customHeight="true" spans="1:17">
+    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -8966,7 +7929,7 @@
       <c r="P36" s="12"/>
       <c r="Q36" s="12"/>
     </row>
-    <row r="37" ht="22" customHeight="true" spans="1:17">
+    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -8985,7 +7948,7 @@
       <c r="P37" s="12"/>
       <c r="Q37" s="12"/>
     </row>
-    <row r="38" ht="22" customHeight="true" spans="1:17">
+    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -9004,7 +7967,7 @@
       <c r="P38" s="12"/>
       <c r="Q38" s="12"/>
     </row>
-    <row r="39" ht="22" customHeight="true" spans="1:17">
+    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -9023,7 +7986,7 @@
       <c r="P39" s="12"/>
       <c r="Q39" s="12"/>
     </row>
-    <row r="40" ht="22" customHeight="true" spans="1:17">
+    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -9042,7 +8005,7 @@
       <c r="P40" s="12"/>
       <c r="Q40" s="12"/>
     </row>
-    <row r="41" ht="22" customHeight="true" spans="1:17">
+    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -9061,7 +8024,7 @@
       <c r="P41" s="12"/>
       <c r="Q41" s="12"/>
     </row>
-    <row r="42" ht="22" customHeight="true" spans="1:17">
+    <row r="42" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -9080,7 +8043,7 @@
       <c r="P42" s="12"/>
       <c r="Q42" s="12"/>
     </row>
-    <row r="43" ht="21" customHeight="true" spans="1:17">
+    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -9099,7 +8062,7 @@
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
     </row>
-    <row r="44" ht="21" customHeight="true" spans="1:17">
+    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -9118,7 +8081,7 @@
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
     </row>
-    <row r="45" ht="21" customHeight="true" spans="1:17">
+    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -9137,7 +8100,7 @@
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
     </row>
-    <row r="46" ht="21" customHeight="true" spans="1:17">
+    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -9156,7 +8119,7 @@
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
     </row>
-    <row r="47" ht="21" customHeight="true" spans="1:17">
+    <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6"/>
       <c r="B47" s="6"/>
       <c r="C47" s="6"/>
@@ -9176,8 +8139,9 @@
       <c r="Q47" s="11"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -9185,25 +8149,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8296296296296" style="4"/>
-    <col min="4" max="4" width="18.8296296296296" style="4" customWidth="true"/>
-    <col min="5" max="5" width="13.8296296296296" style="4" customWidth="true"/>
-    <col min="6" max="7" width="17.5037037037037" style="4" customWidth="true"/>
-    <col min="8" max="8" width="19.3333333333333" style="4" customWidth="true"/>
-    <col min="9" max="16384" width="10.8296296296296" style="4"/>
+    <col min="1" max="3" width="10.83203125" style="4"/>
+    <col min="4" max="4" width="18.83203125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="4" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="19.33203125" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>432</v>
       </c>
@@ -9220,7 +8183,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E8" s="4" t="s">
         <v>199</v>
       </c>
@@ -9235,32 +8198,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8296296296296" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.8296296296296" style="4"/>
-    <col min="5" max="5" width="15.3333333333333" style="4" customWidth="true"/>
-    <col min="6" max="6" width="16.5037037037037" style="4" customWidth="true"/>
-    <col min="7" max="7" width="23.6666666666667" style="4" customWidth="true"/>
-    <col min="8" max="8" width="16.5037037037037" style="4" customWidth="true"/>
-    <col min="9" max="9" width="15.5037037037037" style="4" customWidth="true"/>
-    <col min="10" max="16384" width="10.8296296296296" style="4"/>
+    <col min="1" max="4" width="10.83203125" style="4"/>
+    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="4" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="4" t="s">
         <v>435</v>
       </c>
@@ -9280,7 +8242,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" s="4" t="s">
         <v>203</v>
       </c>
@@ -9297,7 +8259,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" s="4" t="s">
         <v>205</v>
       </c>
@@ -9315,8 +8277,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37F2F9E-855B-D04A-98AF-00702EDB2FD2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28780" windowHeight="10300" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="6" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="885" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="906" uniqueCount="449">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1324,6 +1318,36 @@
   </si>
   <si>
     <t>预计结束时间</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-29</t>
+  </si>
+  <si>
+    <t>mainResponsible</t>
+  </si>
+  <si>
+    <t>主要负责人</t>
+  </si>
+  <si>
+    <t>story,stask,bug</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-30</t>
+  </si>
+  <si>
+    <t>testResponsible</t>
+  </si>
+  <si>
+    <t>测试负责人</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-31</t>
+  </si>
+  <si>
+    <t>environment</t>
+  </si>
+  <si>
+    <t>环境</t>
   </si>
   <si>
     <t>fd_object_scheme</t>
@@ -1350,8 +1374,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1362,38 +1392,174 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
-      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1406,8 +1572,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1445,38 +1797,330 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1549,9 +2193,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2590,96 +3231,97 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="1" customWidth="1"/>
-    <col min="6" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-    </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-    </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
+    <row r="1" ht="17" customHeight="1" spans="1:5">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:5">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:5">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:5">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:5">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:5">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:5">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:5">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:5">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:5">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2688,412 +3330,412 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="1" customWidth="1"/>
-    <col min="8" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-    </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:7">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:7">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:7">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:7">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:7">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:7">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+    <row r="8" ht="17" customHeight="1" spans="1:7">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+    <row r="9" ht="17" customHeight="1" spans="1:7">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" ht="17" customHeight="1" spans="1:7">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+    <row r="11" ht="17" customHeight="1" spans="1:7">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" ht="17" customHeight="1" spans="1:7">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+    <row r="13" ht="17" customHeight="1" spans="1:7">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+    <row r="14" ht="17" customHeight="1" spans="1:7">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" ht="17" customHeight="1" spans="1:7">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" ht="17" customHeight="1" spans="1:7">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+    <row r="17" ht="17" customHeight="1" spans="1:7">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+    <row r="18" ht="17" customHeight="1" spans="1:7">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2" t="s">
+    <row r="19" customHeight="1" spans="1:7">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2" t="s">
+    <row r="20" customHeight="1" spans="1:7">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2" t="s">
+    <row r="21" customHeight="1" spans="1:7">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2" t="s">
+    <row r="22" customHeight="1" spans="1:7">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2" t="s">
+    <row r="23" customHeight="1" spans="1:7">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2" t="s">
+    <row r="24" customHeight="1" spans="1:7">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2" t="s">
+    <row r="25" customHeight="1" spans="1:7">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2" t="s">
+    <row r="26" customHeight="1" spans="1:7">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
+    <row r="27" customHeight="1" spans="1:7">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2" t="s">
+    <row r="28" customHeight="1" spans="1:7">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>62</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3102,1638 +3744,1638 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV92"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77:XFD77"/>
+      <selection activeCell="A77" sqref="$A77:$XFD77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="1" customWidth="1"/>
-    <col min="5" max="5" width="27" style="1" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="13" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="13" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="13" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="13" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="13" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="13" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="13" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="13" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="13" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="13" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="3" t="s">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="3" t="s">
+      <c r="G25" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H25" s="3" t="s">
+      <c r="H25" s="13" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="3" t="s">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="3" t="s">
+      <c r="G26" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H26" s="3" t="s">
+      <c r="H26" s="13" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="13" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="3" t="s">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="F28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="3" t="s">
+      <c r="G28" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H28" s="3" t="s">
+      <c r="H28" s="13" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="3" t="s">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="F29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="3" t="s">
+      <c r="G29" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H29" s="3" t="s">
+      <c r="H29" s="13" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="3" t="s">
+      <c r="G30" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H30" s="3" t="s">
+      <c r="H30" s="13" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="3" t="s">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="3" t="s">
+      <c r="F31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="3" t="s">
+      <c r="G31" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H31" s="3" t="s">
+      <c r="H31" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="3" t="s">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F32" s="3" t="s">
+      <c r="F32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G32" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H32" s="3" t="s">
+      <c r="H32" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="13" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="3" t="s">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="13" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="3" t="s">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="3" t="s">
+      <c r="G35" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H35" s="3" t="s">
+      <c r="H35" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="3" t="s">
+      <c r="G36" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H36" s="3" t="s">
+      <c r="H36" s="13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="3" t="s">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="13" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="3" t="s">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="13" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="3" t="s">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="13" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="3" t="s">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="F40" s="3" t="s">
+      <c r="F40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="3" t="s">
+      <c r="G40" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="H40" s="3" t="s">
+      <c r="H40" s="13" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="3" t="s">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="13" t="s">
         <v>133</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="13" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="3" t="s">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="13" t="s">
         <v>136</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="13" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="3" t="s">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="3" t="s">
+      <c r="G43" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H43" s="3" t="s">
+      <c r="H43" s="13" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="3" t="s">
+    <row r="44" ht="17" customHeight="1" spans="1:8">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="3" t="s">
+      <c r="G44" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="H44" s="3" t="s">
+      <c r="H44" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="3" t="s">
+    <row r="45" ht="17" customHeight="1" spans="1:8">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="3" t="s">
+      <c r="G45" s="13" t="s">
         <v>127</v>
       </c>
-      <c r="H45" s="3" t="s">
+      <c r="H45" s="13" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="3" t="s">
+    <row r="46" ht="17" customHeight="1" spans="1:8">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="3" t="s">
+      <c r="G46" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H46" s="3" t="s">
+      <c r="H46" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="3" t="s">
+    <row r="47" ht="17" customHeight="1" spans="1:8">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="3" t="s">
+      <c r="G47" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="H47" s="3" t="s">
+      <c r="H47" s="13" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="3" t="s">
+    <row r="48" ht="17" customHeight="1" spans="1:8">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="13" t="s">
         <v>151</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="13" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="3" t="s">
+    <row r="49" ht="17" customHeight="1" spans="1:8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="13" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="3" t="s">
+    <row r="50" ht="17" customHeight="1" spans="1:8">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="3" t="s">
+      <c r="G50" s="13" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="3" t="s">
+      <c r="H50" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="3" t="s">
+    <row r="51" ht="17" customHeight="1" spans="1:8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="3" t="s">
+    <row r="52" ht="17" customHeight="1" spans="1:8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="13" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>165</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F53" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="G53" s="3" t="s">
         <v>166</v>
       </c>
-      <c r="H53" s="2" t="s">
+      <c r="H53" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2" t="s">
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G54" s="2" t="s">
+      <c r="G54" s="3" t="s">
         <v>168</v>
       </c>
-      <c r="H54" s="2" t="s">
+      <c r="H54" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2" t="s">
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F55" s="2" t="s">
+      <c r="F55" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="G55" s="2" t="s">
+      <c r="G55" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="H55" s="2" t="s">
+      <c r="H55" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2" t="s">
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F56" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G56" s="2" t="s">
+      <c r="G56" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="H56" s="2" t="s">
+      <c r="H56" s="3" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G57" s="2" t="s">
+      <c r="G57" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="H57" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2" t="s">
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G58" s="2" t="s">
+      <c r="G58" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="H58" s="2" t="s">
+      <c r="H58" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2" t="s">
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F59" s="2" t="s">
+      <c r="F59" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G59" s="2" t="s">
+      <c r="G59" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="H59" s="2" t="s">
+      <c r="H59" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2" t="s">
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F60" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G60" s="2" t="s">
+      <c r="G60" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="H60" s="2" t="s">
+      <c r="H60" s="3" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2" t="s">
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G61" s="2" t="s">
+      <c r="G61" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="H61" s="2" t="s">
+      <c r="H61" s="3" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="G62" s="2" t="s">
+      <c r="G62" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="H62" s="2" t="s">
+      <c r="H62" s="3" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2" t="s">
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="F63" s="2" t="s">
+      <c r="F63" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G63" s="2" t="s">
+      <c r="G63" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="H63" s="2" t="s">
+      <c r="H63" s="3" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2" t="s">
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F64" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G64" s="2" t="s">
+      <c r="G64" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="H64" s="2" t="s">
+      <c r="H64" s="3" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="F65" s="2" t="s">
+      <c r="F65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="G65" s="2" t="s">
+      <c r="G65" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="H65" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="F66" s="2" t="s">
+      <c r="F66" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G66" s="2" t="s">
+      <c r="G66" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="H66" s="2" t="s">
+      <c r="H66" s="3" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2" t="s">
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3" t="s">
         <v>193</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G67" s="2" t="s">
+      <c r="G67" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="H67" s="2" t="s">
+      <c r="H67" s="3" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2" t="s">
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3" t="s">
         <v>195</v>
       </c>
-      <c r="F68" s="2" t="s">
+      <c r="F68" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="G68" s="2" t="s">
+      <c r="G68" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="H68" s="2" t="s">
+      <c r="H68" s="3" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2" t="s">
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F69" s="2" t="s">
+      <c r="F69" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G69" s="2" t="s">
+      <c r="G69" s="3" t="s">
         <v>198</v>
       </c>
-      <c r="H69" s="2" t="s">
+      <c r="H69" s="3" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F70" s="2" t="s">
+      <c r="F70" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G70" s="2" t="s">
+      <c r="G70" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="H70" s="2" t="s">
+      <c r="H70" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2" t="s">
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G71" s="2" t="s">
+      <c r="G71" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="H71" s="2" t="s">
+      <c r="H71" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2" t="s">
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F72" s="2" t="s">
+      <c r="F72" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G72" s="2" t="s">
+      <c r="G72" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="H72" s="2" t="s">
+      <c r="H72" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2" t="s">
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3" t="s">
         <v>205</v>
       </c>
-      <c r="F73" s="2" t="s">
+      <c r="F73" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G73" s="2" t="s">
+      <c r="G73" s="3" t="s">
         <v>206</v>
       </c>
-      <c r="H73" s="2" t="s">
+      <c r="H73" s="3" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2" t="s">
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3" t="s">
         <v>207</v>
       </c>
-      <c r="F74" s="2" t="s">
+      <c r="F74" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G74" s="2" t="s">
+      <c r="G74" s="3" t="s">
         <v>208</v>
       </c>
-      <c r="H74" s="2" t="s">
+      <c r="H74" s="3" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2" t="s">
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="G75" s="2" t="s">
+      <c r="G75" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="H75" s="2" t="s">
+      <c r="H75" s="3" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2" t="s">
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3" t="s">
         <v>211</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G76" s="2" t="s">
+      <c r="G76" s="3" t="s">
         <v>212</v>
       </c>
-      <c r="H76" s="2" t="s">
+      <c r="H76" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2" t="s">
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="F77" s="2" t="s">
+      <c r="F77" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G77" s="2" t="s">
+      <c r="G77" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H77" s="2" t="s">
+      <c r="H77" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A78" s="2"/>
-      <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
+    <row r="78" customHeight="1" spans="1:8">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="F78" s="2" t="s">
+      <c r="F78" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G78" s="2" t="s">
+      <c r="G78" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H78" s="2" t="s">
+      <c r="H78" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A79" s="2"/>
-      <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-      <c r="D79" s="2"/>
-      <c r="E79" s="2" t="s">
+    <row r="79" customHeight="1" spans="1:8">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="F79" s="2" t="s">
+      <c r="F79" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G79" s="2" t="s">
+      <c r="G79" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="H79" s="2" t="s">
+      <c r="H79" s="3" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="2"/>
-      <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
-      <c r="E80" s="2" t="s">
+    <row r="80" customHeight="1" spans="1:8">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="F80" s="2" t="s">
+      <c r="F80" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G80" s="2" t="s">
+      <c r="G80" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="H80" s="2" t="s">
+      <c r="H80" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="2"/>
-      <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2"/>
-      <c r="E81" s="2" t="s">
+    <row r="81" customHeight="1" spans="1:8">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="3" t="s">
         <v>95</v>
       </c>
-      <c r="F81" s="2" t="s">
+      <c r="F81" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="G81" s="2" t="s">
+      <c r="G81" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="H81" s="2" t="s">
+      <c r="H81" s="3" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="2"/>
-      <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2"/>
-      <c r="E82" s="2" t="s">
+    <row r="82" customHeight="1" spans="1:8">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="3" t="s">
         <v>214</v>
       </c>
-      <c r="F82" s="2" t="s">
+      <c r="F82" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G82" s="2" t="s">
+      <c r="G82" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="H82" s="2" t="s">
+      <c r="H82" s="3" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="2"/>
-      <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2" t="s">
+    <row r="83" customHeight="1" spans="1:8">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="F83" s="2" t="s">
+      <c r="F83" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G83" s="2" t="s">
+      <c r="G83" s="3" t="s">
         <v>217</v>
       </c>
-      <c r="H83" s="2" t="s">
+      <c r="H83" s="3" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="2"/>
-      <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
+    <row r="84" customHeight="1" spans="1:8">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="F84" s="2" t="s">
+      <c r="F84" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G84" s="2" t="s">
+      <c r="G84" s="3" t="s">
         <v>219</v>
       </c>
-      <c r="H84" s="2" t="s">
+      <c r="H84" s="3" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="2"/>
-      <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
+    <row r="85" customHeight="1" spans="1:8">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="F85" s="2" t="s">
+      <c r="F85" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G85" s="2" t="s">
+      <c r="G85" s="3" t="s">
         <v>220</v>
       </c>
-      <c r="H85" s="2" t="s">
+      <c r="H85" s="3" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="2"/>
-      <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2" t="s">
+    <row r="86" customHeight="1" spans="1:8">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="F86" s="2" t="s">
+      <c r="F86" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G86" s="2" t="s">
+      <c r="G86" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="H86" s="2" t="s">
+      <c r="H86" s="3" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="2"/>
-      <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-      <c r="D87" s="2"/>
-      <c r="E87" s="2" t="s">
+    <row r="87" customHeight="1" spans="1:8">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="F87" s="2" t="s">
+      <c r="F87" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G87" s="2" t="s">
+      <c r="G87" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="H87" s="2" t="s">
+      <c r="H87" s="3" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="2"/>
-      <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-      <c r="D88" s="2"/>
-      <c r="E88" s="2" t="s">
+    <row r="88" customHeight="1" spans="1:8">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="F88" s="2" t="s">
+      <c r="F88" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G88" s="2" t="s">
+      <c r="G88" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="H88" s="2" t="s">
+      <c r="H88" s="3" t="s">
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="2"/>
-      <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-      <c r="D89" s="2"/>
-      <c r="E89" s="2" t="s">
+    <row r="89" customHeight="1" spans="1:8">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="F89" s="2" t="s">
+      <c r="F89" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G89" s="2" t="s">
+      <c r="G89" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="H89" s="2" t="s">
+      <c r="H89" s="3" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="2"/>
-      <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-      <c r="D90" s="2"/>
-      <c r="E90" s="2" t="s">
+    <row r="90" customHeight="1" spans="1:8">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="F90" s="2" t="s">
+      <c r="F90" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G90" s="2" t="s">
+      <c r="G90" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="H90" s="2" t="s">
+      <c r="H90" s="3" t="s">
         <v>230</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="2"/>
-      <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-      <c r="D91" s="2"/>
-      <c r="E91" s="2" t="s">
+    <row r="91" customHeight="1" spans="1:8">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="F91" s="2" t="s">
+      <c r="F91" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G91" s="2" t="s">
+      <c r="G91" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="H91" s="2" t="s">
+      <c r="H91" s="3" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="2"/>
-      <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2" t="s">
+    <row r="92" customHeight="1" spans="1:8">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="G92" s="2" t="s">
+      <c r="G92" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="H92" s="2" t="s">
+      <c r="H92" s="3" t="s">
         <v>235</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4741,414 +5383,414 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>237</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>238</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="13" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="13" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="13" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="13" t="s">
         <v>249</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13" t="s">
         <v>251</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>234</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="13" t="s">
         <v>251</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>254</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="13" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="H15" s="13" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H16" s="3" t="s">
+      <c r="H16" s="13" t="s">
         <v>259</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>261</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H18" s="3" t="s">
+      <c r="H18" s="13" t="s">
         <v>265</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="H19" s="3" t="s">
+      <c r="H19" s="13" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13" t="s">
         <v>269</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="13" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="3" t="s">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="13" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="3" t="s">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="3" t="s">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="13" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="3" t="s">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="13" t="s">
         <v>225</v>
       </c>
-      <c r="G24" s="3" t="s">
+      <c r="G24" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="H24" s="3" t="s">
+      <c r="H24" s="13" t="s">
         <v>281</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5156,320 +5798,322 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="19" style="1" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="1" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="1" customWidth="1"/>
-    <col min="9" max="256" width="9" style="1" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="14" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="15" t="s">
         <v>282</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>283</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="3" t="s">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="3" t="s">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="3" t="s">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="13" t="s">
         <v>287</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="3" t="s">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="3" t="s">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="G15" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="3" t="s">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="G16" s="3" t="s">
+      <c r="G16" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="3" t="s">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G17" s="3" t="s">
+      <c r="G17" s="13" t="s">
         <v>247</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="3" t="s">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G18" s="3" t="s">
+      <c r="G18" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="3" t="s">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G19" s="3" t="s">
+      <c r="G19" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -5478,1258 +6122,1258 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IV77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29" style="1" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.8333333333333" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-    </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="3" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:8">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:8">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:8">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:8">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:8">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:8">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="13" t="s">
         <v>298</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="3" t="s">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="3" t="s">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="3"/>
+      <c r="F9" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="3" t="s">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="3" t="s">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="3" t="s">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="13" t="s">
         <v>304</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="3" t="s">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="3" t="s">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="14">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="3" t="s">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
-      <c r="F16" s="3" t="s">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="3" t="s">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="3" t="s">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="14">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="3" t="s">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>1</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="3" t="s">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="14">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="3" t="s">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
-      <c r="F22" s="3" t="s">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="14">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="3" t="s">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="14">
         <v>1</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="3" t="s">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="14">
         <v>1</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="3" t="s">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="14">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3" t="s">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="14">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="3" t="s">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="3" t="s">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="3" t="s">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="3" t="s">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="F30" s="3" t="s">
+      <c r="F30" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="14">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="3" t="s">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="3"/>
+      <c r="F31" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="3" t="s">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="3"/>
+      <c r="F32" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="3" t="s">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="3" t="s">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="3"/>
+      <c r="F34" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="14">
         <v>1</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="3" t="s">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="14">
         <v>1</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="3" t="s">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="14">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="3" t="s">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
+      <c r="F37" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="14">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="3" t="s">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
+      <c r="F38" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="3" t="s">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="3"/>
+      <c r="F39" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="14">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="3" t="s">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="3"/>
+      <c r="F40" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="14">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="3" t="s">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="3"/>
+      <c r="F41" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="14">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="3" t="s">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="3"/>
+      <c r="F42" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="14">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="14">
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="2"/>
-      <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
+      <c r="A43" s="3"/>
+      <c r="B43" s="3"/>
+      <c r="C43" s="3"/>
+      <c r="D43" s="3"/>
+      <c r="E43" s="3" t="s">
         <v>301</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="14">
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="3" t="s">
+    <row r="44" customHeight="1" spans="1:8">
+      <c r="A44" s="3"/>
+      <c r="B44" s="3"/>
+      <c r="C44" s="3"/>
+      <c r="D44" s="3"/>
+      <c r="E44" s="3"/>
+      <c r="F44" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="14">
         <v>1</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="2"/>
-      <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
-      <c r="F45" s="3" t="s">
+    <row r="45" customHeight="1" spans="1:8">
+      <c r="A45" s="3"/>
+      <c r="B45" s="3"/>
+      <c r="C45" s="3"/>
+      <c r="D45" s="3"/>
+      <c r="E45" s="3"/>
+      <c r="F45" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="14">
         <v>1</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="2"/>
-      <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2" t="s">
+    <row r="46" customHeight="1" spans="1:8">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+      <c r="C46" s="3"/>
+      <c r="D46" s="3"/>
+      <c r="E46" s="3" t="s">
         <v>304</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="14">
         <v>0</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="2"/>
-      <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2" t="s">
+    <row r="47" customHeight="1" spans="1:8">
+      <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
+      <c r="C47" s="3"/>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3" t="s">
         <v>306</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="14">
         <v>0</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="2"/>
-      <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="3" t="s">
+    <row r="48" customHeight="1" spans="1:8">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+      <c r="F48" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="14">
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="2"/>
-      <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="3" t="s">
+    <row r="49" customHeight="1" spans="1:8">
+      <c r="A49" s="3"/>
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="3"/>
+      <c r="E49" s="3"/>
+      <c r="F49" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="14">
         <v>0</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="2"/>
-      <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="3" t="s">
+    <row r="50" customHeight="1" spans="1:8">
+      <c r="A50" s="3"/>
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="3"/>
+      <c r="E50" s="3"/>
+      <c r="F50" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="2"/>
-      <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="3" t="s">
+    <row r="51" customHeight="1" spans="1:8">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+      <c r="C51" s="3"/>
+      <c r="D51" s="3"/>
+      <c r="E51" s="3"/>
+      <c r="F51" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="2"/>
-      <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="3" t="s">
+    <row r="52" customHeight="1" spans="1:8">
+      <c r="A52" s="3"/>
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="14">
         <v>0</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="2"/>
-      <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
+    <row r="53" customHeight="1" spans="1:8">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3" t="s">
         <v>314</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="14">
         <v>0</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="2"/>
-      <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
-      <c r="F54" s="3" t="s">
+    <row r="54" customHeight="1" spans="1:8">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+      <c r="F54" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="14">
         <v>0</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="2"/>
-      <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
-      <c r="F55" s="3" t="s">
+    <row r="55" customHeight="1" spans="1:8">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="14">
         <v>0</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="2"/>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="3" t="s">
+    <row r="56" customHeight="1" spans="1:8">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="14">
         <v>1</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="2"/>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2" t="s">
+    <row r="57" customHeight="1" spans="1:8">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="F57" s="3" t="s">
+      <c r="F57" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="2"/>
-      <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="3" t="s">
+    <row r="58" customHeight="1" spans="1:8">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="14">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="2"/>
-      <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="3" t="s">
+    <row r="59" customHeight="1" spans="1:8">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="14">
         <v>0</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="2"/>
-      <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2"/>
-      <c r="F60" s="3" t="s">
+    <row r="60" customHeight="1" spans="1:8">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+      <c r="E60" s="3"/>
+      <c r="F60" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
-      <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="3" t="s">
+    <row r="61" customHeight="1" spans="1:8">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="14">
         <v>1</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="2"/>
-      <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
-      <c r="E62" s="2" t="s">
+    <row r="62" customHeight="1" spans="1:8">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+      <c r="E62" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="14">
         <v>0</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="2"/>
-      <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="3" t="s">
+    <row r="63" customHeight="1" spans="1:8">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+      <c r="E63" s="3"/>
+      <c r="F63" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="14">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="2"/>
-      <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="3" t="s">
+    <row r="64" customHeight="1" spans="1:8">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+      <c r="E64" s="3"/>
+      <c r="F64" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="14">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="2"/>
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
+    <row r="65" customHeight="1" spans="1:8">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="14">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="2"/>
-      <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="3" t="s">
+    <row r="66" customHeight="1" spans="1:8">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+      <c r="F66" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="14">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="2"/>
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="3" t="s">
+    <row r="67" customHeight="1" spans="1:8">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="3"/>
+      <c r="F67" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="14">
         <v>0</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="2"/>
-      <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="3" t="s">
+    <row r="68" customHeight="1" spans="1:8">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+      <c r="E68" s="3"/>
+      <c r="F68" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="14">
         <v>1</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="2"/>
-      <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="3" t="s">
+    <row r="69" customHeight="1" spans="1:8">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+      <c r="E69" s="3"/>
+      <c r="F69" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="14">
         <v>1</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="2"/>
-      <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2" t="s">
+    <row r="70" customHeight="1" spans="1:8">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+      <c r="E70" s="3" t="s">
         <v>334</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="14">
         <v>0</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A71" s="2"/>
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="3" t="s">
+    <row r="71" customHeight="1" spans="1:8">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+      <c r="E71" s="3"/>
+      <c r="F71" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="14">
         <v>0</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A72" s="2"/>
-      <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-      <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="3" t="s">
+    <row r="72" customHeight="1" spans="1:8">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+      <c r="E72" s="3"/>
+      <c r="F72" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="14">
         <v>0</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A73" s="2"/>
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="3" t="s">
+    <row r="73" customHeight="1" spans="1:8">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+      <c r="F73" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="14">
         <v>0</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A74" s="2"/>
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="3" t="s">
+    <row r="74" customHeight="1" spans="1:8">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+      <c r="F74" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="14">
         <v>0</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="2"/>
-      <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="3" t="s">
+    <row r="75" customHeight="1" spans="1:8">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="3"/>
+      <c r="F75" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="14">
         <v>0</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A76" s="2"/>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-      <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
-      <c r="F76" s="3" t="s">
+    <row r="76" customHeight="1" spans="1:8">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+      <c r="E76" s="3"/>
+      <c r="F76" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="14">
         <v>0</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="14">
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A77" s="2"/>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="3" t="s">
+    <row r="77" customHeight="1" spans="1:8">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+      <c r="E77" s="3"/>
+      <c r="F77" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="14">
         <v>1</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="14">
         <v>2019</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6737,1411 +7381,1477 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:JE47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9" style="5" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="5" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="27" style="5" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="5" customWidth="1"/>
-    <col min="8" max="11" width="29.6640625" style="5" customWidth="1"/>
-    <col min="12" max="12" width="39.5" style="5" customWidth="1"/>
-    <col min="13" max="14" width="29.6640625" style="5" customWidth="1"/>
-    <col min="15" max="17" width="23.1640625" style="5" customWidth="1"/>
-    <col min="18" max="265" width="9" style="5" customWidth="1"/>
-    <col min="266" max="16384" width="9" style="4"/>
+    <col min="1" max="3" width="9" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6666666666667" style="2" customWidth="1"/>
+    <col min="6" max="6" width="27" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.1666666666667" style="2" customWidth="1"/>
+    <col min="18" max="265" width="9" style="2" customWidth="1"/>
+    <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="2"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="10"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="O2" s="2"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-    </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2"/>
-      <c r="P3" s="10"/>
-      <c r="Q3" s="10"/>
-    </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-    </row>
-    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-    </row>
-    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2" t="s">
+    <row r="1" ht="17" customHeight="1" spans="1:17">
+      <c r="A1" s="3"/>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:17">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="3"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="3"/>
+      <c r="M2" s="3"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="3"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:17">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:17">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:17">
+      <c r="A5" s="3"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
+      <c r="F5" s="3"/>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="M5" s="3"/>
+      <c r="N5" s="3"/>
+      <c r="O5" s="3"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:17">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3"/>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:17">
+      <c r="A7" s="3"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="3" t="s">
         <v>379</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="I7" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="J7" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="L7" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="M7" s="2" t="s">
+      <c r="M7" s="3" t="s">
         <v>383</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" s="3" t="s">
         <v>384</v>
       </c>
-      <c r="O7" s="2" t="s">
+      <c r="O7" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
-    </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="7" t="s">
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:17">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="4" t="s">
         <v>386</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="I8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="J8" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="L8" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M8" s="2" t="s">
+      <c r="M8" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O8" s="2" t="s">
+      <c r="O8" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
-    </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="7" t="s">
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:17">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
+      <c r="D9" s="3"/>
+      <c r="E9" s="4" t="s">
         <v>392</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" s="3" t="s">
         <v>393</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="G9" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="J9" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="L9" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O9" s="2" t="s">
+      <c r="O9" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
-    </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="7" t="s">
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:17">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="4" t="s">
         <v>395</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="H10" s="3" t="s">
         <v>396</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="I10" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="J10" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="K10" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="L10" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M10" s="2" t="s">
+      <c r="M10" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N10" s="2" t="s">
+      <c r="N10" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O10" s="2" t="s">
+      <c r="O10" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="7" t="s">
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:17">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="4" t="s">
         <v>397</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F11" s="3" t="s">
         <v>398</v>
       </c>
-      <c r="G11" s="2" t="s">
+      <c r="G11" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="H11" s="2" t="s">
+      <c r="H11" s="3" t="s">
         <v>399</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="L11" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="M11" s="2" t="s">
+      <c r="M11" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N11" s="2" t="s">
+      <c r="N11" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O11" s="2" t="s">
+      <c r="O11" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
-    </row>
-    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="7" t="s">
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:17">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+      <c r="E12" s="4" t="s">
         <v>401</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="H12" s="2" t="s">
+      <c r="H12" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="J12" s="2" t="s">
+      <c r="J12" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="L12" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N12" s="2" t="s">
+      <c r="N12" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O12" s="2" t="s">
+      <c r="O12" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-    </row>
-    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
-      <c r="E13" s="7" t="s">
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:17">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="4" t="s">
         <v>403</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="G13" s="2" t="s">
+      <c r="G13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="H13" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="I13" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="J13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="K13" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="L13" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O13" s="2" t="s">
+      <c r="O13" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="7" t="s">
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:17">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="4" t="s">
         <v>404</v>
       </c>
-      <c r="F14" s="2" t="s">
+      <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="G14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H14" s="2" t="s">
+      <c r="H14" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="L14" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M14" s="2" t="s">
+      <c r="M14" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N14" s="2" t="s">
+      <c r="N14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O14" s="2" t="s">
+      <c r="O14" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="7" t="s">
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:17">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="4" t="s">
         <v>405</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="F15" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="G15" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="H15" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="I15" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="L15" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M15" s="2" t="s">
+      <c r="M15" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N15" s="2" t="s">
+      <c r="N15" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O15" s="2" t="s">
+      <c r="O15" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-    </row>
-    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="7" t="s">
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:17">
+      <c r="A16" s="3"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="4" t="s">
         <v>406</v>
       </c>
-      <c r="F16" s="2" t="s">
+      <c r="F16" s="3" t="s">
         <v>269</v>
       </c>
-      <c r="G16" s="2" t="s">
+      <c r="G16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="H16" s="2" t="s">
+      <c r="H16" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="I16" s="2" t="s">
+      <c r="I16" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J16" s="2" t="s">
+      <c r="J16" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="L16" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O16" s="2" t="s">
+      <c r="O16" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-    </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="7" t="s">
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:17">
+      <c r="A17" s="3"/>
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="4" t="s">
         <v>407</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" s="3" t="s">
         <v>408</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="G17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="H17" s="2" t="s">
+      <c r="H17" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="I17" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="K17" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="M17" s="2" t="s">
+      <c r="M17" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N17" s="2" t="s">
+      <c r="N17" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-    </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="7" t="s">
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:17">
+      <c r="A18" s="3"/>
+      <c r="B18" s="3"/>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="4" t="s">
         <v>409</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="G18" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="H18" s="2" t="s">
+      <c r="H18" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="I18" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="J18" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="L18" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M18" s="2" t="s">
+      <c r="M18" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O18" s="2" t="s">
+      <c r="O18" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-    </row>
-    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="2"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
-      <c r="E19" s="7" t="s">
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:17">
+      <c r="A19" s="3"/>
+      <c r="B19" s="3"/>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="4" t="s">
         <v>411</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" s="3" t="s">
         <v>264</v>
       </c>
-      <c r="G19" s="2" t="s">
+      <c r="G19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="H19" s="2" t="s">
+      <c r="H19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="I19" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="J19" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="L19" s="3" t="s">
         <v>412</v>
       </c>
-      <c r="M19" s="2" t="s">
+      <c r="M19" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O19" s="2" t="s">
+      <c r="O19" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-    </row>
-    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="2"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="7" t="s">
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:17">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4" t="s">
         <v>413</v>
       </c>
-      <c r="F20" s="2" t="s">
+      <c r="F20" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="H20" s="2" t="s">
+      <c r="H20" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="I20" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="K20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="L20" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="N20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O20" s="2" t="s">
+      <c r="O20" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="2"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="7" t="s">
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:17">
+      <c r="A21" s="3"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4" t="s">
         <v>414</v>
       </c>
-      <c r="F21" s="2" t="s">
+      <c r="F21" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="G21" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="H21" s="2" t="s">
+      <c r="H21" s="3" t="s">
         <v>416</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="I21" s="3" t="s">
         <v>223</v>
       </c>
-      <c r="J21" s="2" t="s">
+      <c r="J21" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="L21" s="3" t="s">
         <v>89</v>
       </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O21" s="2" t="s">
+      <c r="O21" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-    </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="2"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-      <c r="E22" s="7" t="s">
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:17">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4" t="s">
         <v>417</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="F22" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="G22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="I22" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="J22" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="K22" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L22" s="2" t="s">
+      <c r="L22" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O22" s="2" t="s">
+      <c r="O22" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-    </row>
-    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="2"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="2"/>
-      <c r="D23" s="2"/>
-      <c r="E23" s="7" t="s">
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:17">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4" t="s">
         <v>418</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="F23" s="3" t="s">
         <v>108</v>
       </c>
-      <c r="G23" s="2" t="s">
+      <c r="G23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="H23" s="2" t="s">
+      <c r="H23" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="I23" s="2" t="s">
+      <c r="I23" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J23" s="2" t="s">
+      <c r="J23" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K23" s="2" t="s">
+      <c r="K23" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L23" s="2" t="s">
+      <c r="L23" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M23" s="2" t="s">
+      <c r="M23" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N23" s="2" t="s">
+      <c r="N23" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O23" s="2" t="s">
+      <c r="O23" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-    </row>
-    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="2"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="7" t="s">
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:17">
+      <c r="A24" s="3"/>
+      <c r="B24" s="3"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4" t="s">
         <v>419</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="F24" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="G24" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="H24" s="2" t="s">
+      <c r="H24" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L24" s="2" t="s">
+      <c r="L24" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N24" s="2" t="s">
+      <c r="N24" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O24" s="2" t="s">
+      <c r="O24" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P24" s="12"/>
-      <c r="Q24" s="12"/>
-    </row>
-    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="7" t="s">
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:17">
+      <c r="A25" s="3"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4" t="s">
         <v>421</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="F25" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="G25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="H25" s="2" t="s">
+      <c r="H25" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="I25" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J25" s="2" t="s">
+      <c r="J25" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L25" s="2" t="s">
+      <c r="L25" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M25" s="2" t="s">
+      <c r="M25" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N25" s="2" t="s">
+      <c r="N25" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O25" s="2" t="s">
+      <c r="O25" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-    </row>
-    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="2"/>
-      <c r="E26" s="7" t="s">
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:17">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4" t="s">
         <v>423</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="F26" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="G26" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="H26" s="2" t="s">
+      <c r="H26" s="3" t="s">
         <v>425</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="I26" s="3" t="s">
         <v>218</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L26" s="2" t="s">
+      <c r="L26" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O26" s="2" t="s">
+      <c r="O26" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P26" s="12"/>
-      <c r="Q26" s="12"/>
-    </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="7" t="s">
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:17">
+      <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4" t="s">
         <v>426</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="F27" s="3" t="s">
         <v>427</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="G27" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" s="3" t="s">
         <v>428</v>
       </c>
-      <c r="I27" s="2" t="s">
+      <c r="I27" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="K27" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="L27" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M27" s="2" t="s">
+      <c r="M27" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="N27" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="O27" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P27" s="12"/>
-      <c r="Q27" s="12"/>
-    </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="7" t="s">
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:17">
+      <c r="A28" s="3"/>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4" t="s">
         <v>429</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" s="3" t="s">
         <v>430</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="G28" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="H28" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="I28" s="2" t="s">
+      <c r="I28" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="16" t="s">
         <v>389</v>
       </c>
-      <c r="K28" s="2" t="s">
+      <c r="K28" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="L28" s="2" t="s">
+      <c r="L28" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="N28" s="2" t="s">
+      <c r="N28" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="O28" s="2" t="s">
+      <c r="O28" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P28" s="12"/>
-      <c r="Q28" s="12"/>
-    </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="12"/>
-      <c r="Q29" s="12"/>
-    </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="7"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="12"/>
-      <c r="Q30" s="12"/>
-    </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="7"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="12"/>
-      <c r="Q31" s="12"/>
-    </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="7"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="12"/>
-      <c r="Q32" s="12"/>
-    </row>
-    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="7"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2"/>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="12"/>
-      <c r="Q33" s="12"/>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="7"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-      <c r="H34" s="2"/>
-      <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-      <c r="O34" s="2"/>
-      <c r="P34" s="12"/>
-      <c r="Q34" s="12"/>
-    </row>
-    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="7"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
-      <c r="H35" s="2"/>
-      <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-      <c r="O35" s="2"/>
-      <c r="P35" s="12"/>
-      <c r="Q35" s="12"/>
-    </row>
-    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="7"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
-      <c r="H36" s="2"/>
-      <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-      <c r="O36" s="2"/>
-      <c r="P36" s="12"/>
-      <c r="Q36" s="12"/>
-    </row>
-    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="7"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
-      <c r="H37" s="2"/>
-      <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
-      <c r="P37" s="12"/>
-      <c r="Q37" s="12"/>
-    </row>
-    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="7"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-      <c r="H38" s="2"/>
-      <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
-      <c r="O38" s="2"/>
-      <c r="P38" s="12"/>
-      <c r="Q38" s="12"/>
-    </row>
-    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="2"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
-      <c r="E39" s="7"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-      <c r="H39" s="2"/>
-      <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="L39" s="2"/>
-      <c r="M39" s="2"/>
-      <c r="N39" s="2"/>
-      <c r="O39" s="2"/>
-      <c r="P39" s="12"/>
-      <c r="Q39" s="12"/>
-    </row>
-    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="2"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="7"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-      <c r="H40" s="2"/>
-      <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="L40" s="2"/>
-      <c r="M40" s="2"/>
-      <c r="N40" s="2"/>
-      <c r="O40" s="2"/>
-      <c r="P40" s="12"/>
-      <c r="Q40" s="12"/>
-    </row>
-    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="7"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-      <c r="H41" s="2"/>
-      <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="L41" s="2"/>
-      <c r="M41" s="2"/>
-      <c r="N41" s="2"/>
-      <c r="O41" s="2"/>
-      <c r="P41" s="12"/>
-      <c r="Q41" s="12"/>
-    </row>
-    <row r="42" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="2"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-      <c r="D42" s="2"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
-      <c r="H42" s="2"/>
-      <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="L42" s="2"/>
-      <c r="M42" s="2"/>
-      <c r="N42" s="2"/>
-      <c r="O42" s="2"/>
-      <c r="P42" s="12"/>
-      <c r="Q42" s="12"/>
-    </row>
-    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="6"/>
-      <c r="B43" s="6"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="6"/>
-      <c r="E43" s="6"/>
-      <c r="F43" s="8"/>
-      <c r="G43" s="9"/>
-      <c r="H43" s="9"/>
-      <c r="I43" s="9"/>
-      <c r="J43" s="9"/>
-      <c r="K43" s="9"/>
-      <c r="L43" s="9"/>
-      <c r="M43" s="9"/>
-      <c r="N43" s="9"/>
-      <c r="O43" s="9"/>
-      <c r="P43" s="11"/>
-      <c r="Q43" s="11"/>
-    </row>
-    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="6"/>
-      <c r="B44" s="6"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="6"/>
-      <c r="F44" s="8"/>
-      <c r="G44" s="9"/>
-      <c r="H44" s="9"/>
-      <c r="I44" s="9"/>
-      <c r="J44" s="9"/>
-      <c r="K44" s="9"/>
-      <c r="L44" s="9"/>
-      <c r="M44" s="9"/>
-      <c r="N44" s="9"/>
-      <c r="O44" s="9"/>
-      <c r="P44" s="11"/>
-      <c r="Q44" s="11"/>
-    </row>
-    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="6"/>
-      <c r="B45" s="6"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="6"/>
-      <c r="F45" s="8"/>
-      <c r="G45" s="9"/>
-      <c r="H45" s="9"/>
-      <c r="I45" s="9"/>
-      <c r="J45" s="9"/>
-      <c r="K45" s="9"/>
-      <c r="L45" s="9"/>
-      <c r="M45" s="9"/>
-      <c r="N45" s="9"/>
-      <c r="O45" s="9"/>
-      <c r="P45" s="11"/>
-      <c r="Q45" s="11"/>
-    </row>
-    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="8"/>
-      <c r="G46" s="9"/>
-      <c r="H46" s="9"/>
-      <c r="I46" s="9"/>
-      <c r="J46" s="9"/>
-      <c r="K46" s="9"/>
-      <c r="L46" s="9"/>
-      <c r="M46" s="9"/>
-      <c r="N46" s="9"/>
-      <c r="O46" s="9"/>
-      <c r="P46" s="11"/>
-      <c r="Q46" s="11"/>
-    </row>
-    <row r="47" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="8"/>
-      <c r="G47" s="9"/>
-      <c r="H47" s="9"/>
-      <c r="I47" s="9"/>
-      <c r="J47" s="9"/>
-      <c r="K47" s="9"/>
-      <c r="L47" s="9"/>
-      <c r="M47" s="9"/>
-      <c r="N47" s="9"/>
-      <c r="O47" s="9"/>
-      <c r="P47" s="11"/>
-      <c r="Q47" s="11"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="1:17">
+      <c r="A29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4" t="s">
+        <v>432</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>433</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>434</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" s="11">
+        <v>1</v>
+      </c>
+      <c r="K29" s="11">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>435</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N29" s="11">
+        <v>0</v>
+      </c>
+      <c r="O29" s="11">
+        <v>0</v>
+      </c>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" ht="22" customHeight="1" spans="1:17">
+      <c r="A30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>437</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>438</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J30" s="11">
+        <v>1</v>
+      </c>
+      <c r="K30" s="11">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N30" s="11">
+        <v>0</v>
+      </c>
+      <c r="O30" s="11">
+        <v>0</v>
+      </c>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="1:17">
+      <c r="A31" s="3"/>
+      <c r="B31" s="3"/>
+      <c r="C31" s="3"/>
+      <c r="D31" s="3"/>
+      <c r="E31" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>229</v>
+      </c>
+      <c r="J31" s="11">
+        <v>1</v>
+      </c>
+      <c r="K31" s="11">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="N31" s="11">
+        <v>0</v>
+      </c>
+      <c r="O31" s="11">
+        <v>0</v>
+      </c>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:17">
+      <c r="A32" s="3"/>
+      <c r="B32" s="3"/>
+      <c r="C32" s="3"/>
+      <c r="D32" s="3"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="3"/>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="3"/>
+      <c r="J32" s="3"/>
+      <c r="K32" s="3"/>
+      <c r="L32" s="3"/>
+      <c r="M32" s="3"/>
+      <c r="N32" s="3"/>
+      <c r="O32" s="3"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="1:17">
+      <c r="A33" s="3"/>
+      <c r="B33" s="3"/>
+      <c r="C33" s="3"/>
+      <c r="D33" s="3"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" ht="22" customHeight="1" spans="1:17">
+      <c r="A34" s="3"/>
+      <c r="B34" s="3"/>
+      <c r="C34" s="3"/>
+      <c r="D34" s="3"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="3"/>
+      <c r="G34" s="3"/>
+      <c r="H34" s="3"/>
+      <c r="I34" s="3"/>
+      <c r="J34" s="3"/>
+      <c r="K34" s="3"/>
+      <c r="L34" s="3"/>
+      <c r="M34" s="3"/>
+      <c r="N34" s="3"/>
+      <c r="O34" s="3"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" ht="22" customHeight="1" spans="1:17">
+      <c r="A35" s="3"/>
+      <c r="B35" s="3"/>
+      <c r="C35" s="3"/>
+      <c r="D35" s="3"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="3"/>
+      <c r="H35" s="3"/>
+      <c r="I35" s="3"/>
+      <c r="J35" s="3"/>
+      <c r="K35" s="3"/>
+      <c r="L35" s="3"/>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+      <c r="O35" s="3"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" ht="22" customHeight="1" spans="1:17">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="3"/>
+      <c r="H36" s="3"/>
+      <c r="I36" s="3"/>
+      <c r="J36" s="3"/>
+      <c r="K36" s="3"/>
+      <c r="L36" s="3"/>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="1:17">
+      <c r="A37" s="3"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="4"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
+      <c r="I37" s="3"/>
+      <c r="J37" s="3"/>
+      <c r="K37" s="3"/>
+      <c r="L37" s="3"/>
+      <c r="M37" s="3"/>
+      <c r="N37" s="3"/>
+      <c r="O37" s="3"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" ht="22" customHeight="1" spans="1:17">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
+      <c r="I38" s="3"/>
+      <c r="J38" s="3"/>
+      <c r="K38" s="3"/>
+      <c r="L38" s="3"/>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+      <c r="O38" s="3"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" ht="22" customHeight="1" spans="1:17">
+      <c r="A39" s="3"/>
+      <c r="B39" s="3"/>
+      <c r="C39" s="3"/>
+      <c r="D39" s="3"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="3"/>
+      <c r="G39" s="3"/>
+      <c r="H39" s="3"/>
+      <c r="I39" s="3"/>
+      <c r="J39" s="3"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="1:17">
+      <c r="A40" s="3"/>
+      <c r="B40" s="3"/>
+      <c r="C40" s="3"/>
+      <c r="D40" s="3"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
+      <c r="J40" s="3"/>
+      <c r="K40" s="3"/>
+      <c r="L40" s="3"/>
+      <c r="M40" s="3"/>
+      <c r="N40" s="3"/>
+      <c r="O40" s="3"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" ht="22" customHeight="1" spans="1:17">
+      <c r="A41" s="3"/>
+      <c r="B41" s="3"/>
+      <c r="C41" s="3"/>
+      <c r="D41" s="3"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
+      <c r="J41" s="3"/>
+      <c r="K41" s="3"/>
+      <c r="L41" s="3"/>
+      <c r="M41" s="3"/>
+      <c r="N41" s="3"/>
+      <c r="O41" s="3"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" ht="22" customHeight="1" spans="1:17">
+      <c r="A42" s="3"/>
+      <c r="B42" s="3"/>
+      <c r="C42" s="3"/>
+      <c r="D42" s="3"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
+      <c r="J42" s="3"/>
+      <c r="K42" s="3"/>
+      <c r="L42" s="3"/>
+      <c r="M42" s="3"/>
+      <c r="N42" s="3"/>
+      <c r="O42" s="3"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="1:17">
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="7"/>
+      <c r="L43" s="7"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:17">
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="7"/>
+      <c r="K44" s="7"/>
+      <c r="L44" s="7"/>
+      <c r="M44" s="7"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="7"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+    </row>
+    <row r="45" ht="21" customHeight="1" spans="1:17">
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="7"/>
+      <c r="K45" s="7"/>
+      <c r="L45" s="7"/>
+      <c r="M45" s="7"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="7"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+    </row>
+    <row r="46" ht="21" customHeight="1" spans="1:17">
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="7"/>
+      <c r="K46" s="7"/>
+      <c r="L46" s="7"/>
+      <c r="M46" s="7"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="7"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+    </row>
+    <row r="47" ht="21" customHeight="1" spans="1:17">
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="7"/>
+      <c r="K47" s="7"/>
+      <c r="L47" s="7"/>
+      <c r="M47" s="7"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="7"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8149,136 +8859,138 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="18.83203125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="4" customWidth="1"/>
-    <col min="6" max="7" width="17.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="3" width="10.8333333333333" style="1"/>
+    <col min="4" max="4" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="6" max="7" width="17.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>433</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="7" spans="4:8">
+      <c r="D7" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
-      <c r="E8" s="4" t="s">
+    <row r="8" spans="5:8">
+      <c r="E8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>434</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="F8" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="G8" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="H8" s="1" t="s">
         <v>391</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="4"/>
-    <col min="5" max="5" width="15.33203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="16.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="15.5" style="4" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="4" width="10.8333333333333" style="1"/>
+    <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="D7" s="4" t="s">
-        <v>435</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>436</v>
-      </c>
-      <c r="F7" s="4" t="s">
+    <row r="7" spans="4:9">
+      <c r="D7" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>383</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="1" t="s">
         <v>385</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E8" s="4" t="s">
+    <row r="8" spans="5:9">
+      <c r="E8" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>437</v>
-      </c>
-      <c r="H8" s="4" t="s">
+      <c r="G8" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="I8" s="1" t="s">
         <v>391</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
-      <c r="E9" s="4" t="s">
+    <row r="9" spans="5:9">
+      <c r="E9" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="F9" s="4" t="s">
+      <c r="F9" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>438</v>
-      </c>
-      <c r="H9" s="4" t="s">
+      <c r="G9" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="H9" s="1" t="s">
         <v>389</v>
       </c>
-      <c r="I9" s="4" t="s">
+      <c r="I9" s="1" t="s">
         <v>391</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="13360" activeTab="2"/>
+    <workbookView windowWidth="24860" windowHeight="11540" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1336,6 +1336,30 @@
   </si>
   <si>
     <t>预计结束时间</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-29</t>
+  </si>
+  <si>
+    <t>mainResponsible</t>
+  </si>
+  <si>
+    <t>主要负责人</t>
+  </si>
+  <si>
+    <t>story,stask,bug</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-30</t>
+  </si>
+  <si>
+    <t>testResponsible</t>
+  </si>
+  <si>
+    <t>测试负责人</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-31</t>
   </si>
   <si>
     <t>fd_object_scheme</t>
@@ -1364,12 +1388,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1397,7 +1421,129 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1412,94 +1558,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1508,49 +1569,6 @@
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1568,7 +1586,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1580,13 +1652,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1598,19 +1682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,85 +1694,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,25 +1718,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1748,7 +1730,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1795,8 +1813,17 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1817,16 +1844,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1846,11 +1873,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1870,175 +1903,160 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2049,6 +2067,9 @@
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3236,8 +3257,8 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="11" customWidth="1"/>
-    <col min="6" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:5">
@@ -3325,17 +3346,17 @@
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19" style="11" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="11" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="11" customWidth="1"/>
-    <col min="8" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:7">
@@ -3396,16 +3417,16 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3414,13 +3435,13 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -3429,13 +3450,13 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>9</v>
       </c>
     </row>
@@ -3444,13 +3465,13 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>12</v>
       </c>
     </row>
@@ -3459,13 +3480,13 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3474,13 +3495,13 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>18</v>
       </c>
     </row>
@@ -3489,13 +3510,13 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>21</v>
       </c>
     </row>
@@ -3504,13 +3525,13 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>24</v>
       </c>
     </row>
@@ -3519,13 +3540,13 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>27</v>
       </c>
     </row>
@@ -3534,13 +3555,13 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>30</v>
       </c>
     </row>
@@ -3549,13 +3570,13 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>33</v>
       </c>
     </row>
@@ -3564,13 +3585,13 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>36</v>
       </c>
     </row>
@@ -3754,19 +3775,19 @@
   <sheetPr/>
   <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D96" sqref="D96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="18" style="11" customWidth="1"/>
-    <col min="5" max="5" width="27" style="11" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="11" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="11" customWidth="1"/>
-    <col min="9" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="18" style="12" customWidth="1"/>
+    <col min="5" max="5" width="27" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
@@ -3833,19 +3854,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>3</v>
       </c>
     </row>
@@ -3854,16 +3875,16 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>68</v>
       </c>
     </row>
@@ -3872,16 +3893,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>70</v>
       </c>
     </row>
@@ -3890,16 +3911,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>71</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -3908,16 +3929,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>74</v>
       </c>
     </row>
@@ -3926,16 +3947,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>76</v>
       </c>
     </row>
@@ -3944,16 +3965,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>78</v>
       </c>
     </row>
@@ -3962,16 +3983,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>80</v>
       </c>
     </row>
@@ -3980,16 +4001,16 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -3998,16 +4019,16 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>84</v>
       </c>
     </row>
@@ -4016,16 +4037,16 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>86</v>
       </c>
     </row>
@@ -4034,16 +4055,16 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>82</v>
       </c>
     </row>
@@ -4052,16 +4073,16 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>88</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>89</v>
       </c>
     </row>
@@ -4070,16 +4091,16 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>72</v>
       </c>
     </row>
@@ -4088,16 +4109,16 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>91</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>92</v>
       </c>
     </row>
@@ -4106,16 +4127,16 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>93</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4124,16 +4145,16 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="13" t="s">
         <v>96</v>
       </c>
     </row>
@@ -4142,16 +4163,16 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>97</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>98</v>
       </c>
     </row>
@@ -4160,16 +4181,16 @@
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="12" t="s">
+      <c r="E25" s="13" t="s">
         <v>99</v>
       </c>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G25" s="12" t="s">
+      <c r="G25" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="H25" s="12" t="s">
+      <c r="H25" s="13" t="s">
         <v>100</v>
       </c>
     </row>
@@ -4178,16 +4199,16 @@
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="12" t="s">
+      <c r="E26" s="13" t="s">
         <v>101</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="G26" s="12" t="s">
+      <c r="G26" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="H26" s="12" t="s">
+      <c r="H26" s="13" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4196,16 +4217,16 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>103</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="12" t="s">
+      <c r="G27" s="13" t="s">
         <v>104</v>
       </c>
-      <c r="H27" s="12" t="s">
+      <c r="H27" s="13" t="s">
         <v>104</v>
       </c>
     </row>
@@ -4214,16 +4235,16 @@
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="12" t="s">
+      <c r="G28" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="H28" s="12" t="s">
+      <c r="H28" s="13" t="s">
         <v>106</v>
       </c>
     </row>
@@ -4232,16 +4253,16 @@
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="12" t="s">
+      <c r="E29" s="13" t="s">
         <v>107</v>
       </c>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="12" t="s">
+      <c r="G29" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="H29" s="12" t="s">
+      <c r="H29" s="13" t="s">
         <v>108</v>
       </c>
     </row>
@@ -4250,16 +4271,16 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>109</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G30" s="12" t="s">
+      <c r="G30" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H30" s="12" t="s">
+      <c r="H30" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -4268,16 +4289,16 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="12" t="s">
+      <c r="E31" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G31" s="12" t="s">
+      <c r="G31" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="12" t="s">
+      <c r="H31" s="13" t="s">
         <v>111</v>
       </c>
     </row>
@@ -4286,16 +4307,16 @@
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="13" t="s">
         <v>112</v>
       </c>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G32" s="12" t="s">
+      <c r="G32" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H32" s="12" t="s">
+      <c r="H32" s="13" t="s">
         <v>113</v>
       </c>
     </row>
@@ -4304,16 +4325,16 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G33" s="12" t="s">
+      <c r="G33" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="H33" s="12" t="s">
+      <c r="H33" s="13" t="s">
         <v>115</v>
       </c>
     </row>
@@ -4322,16 +4343,16 @@
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="12" t="s">
+      <c r="E34" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="G34" s="12" t="s">
+      <c r="G34" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="H34" s="12" t="s">
+      <c r="H34" s="13" t="s">
         <v>117</v>
       </c>
     </row>
@@ -4340,16 +4361,16 @@
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="12" t="s">
+      <c r="E35" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G35" s="12" t="s">
+      <c r="G35" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H35" s="12" t="s">
+      <c r="H35" s="13" t="s">
         <v>119</v>
       </c>
     </row>
@@ -4358,16 +4379,16 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G36" s="12" t="s">
+      <c r="G36" s="13" t="s">
         <v>121</v>
       </c>
-      <c r="H36" s="12" t="s">
+      <c r="H36" s="13" t="s">
         <v>121</v>
       </c>
     </row>
@@ -4376,16 +4397,16 @@
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="13" t="s">
         <v>122</v>
       </c>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G37" s="12" t="s">
+      <c r="G37" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H37" s="12" t="s">
+      <c r="H37" s="13" t="s">
         <v>124</v>
       </c>
     </row>
@@ -4394,16 +4415,16 @@
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="12" t="s">
+      <c r="E38" s="13" t="s">
         <v>125</v>
       </c>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G38" s="12" t="s">
+      <c r="G38" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="H38" s="12" t="s">
+      <c r="H38" s="13" t="s">
         <v>127</v>
       </c>
     </row>
@@ -4412,16 +4433,16 @@
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="12" t="s">
+      <c r="E39" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G39" s="12" t="s">
+      <c r="G39" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H39" s="12" t="s">
+      <c r="H39" s="13" t="s">
         <v>130</v>
       </c>
     </row>
@@ -4430,16 +4451,16 @@
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="13" t="s">
         <v>132</v>
       </c>
-      <c r="H40" s="12" t="s">
+      <c r="H40" s="13" t="s">
         <v>133</v>
       </c>
     </row>
@@ -4448,16 +4469,16 @@
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="12" t="s">
+      <c r="E41" s="13" t="s">
         <v>134</v>
       </c>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G41" s="12" t="s">
+      <c r="G41" s="13" t="s">
         <v>135</v>
       </c>
-      <c r="H41" s="12" t="s">
+      <c r="H41" s="13" t="s">
         <v>136</v>
       </c>
     </row>
@@ -4466,16 +4487,16 @@
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="12" t="s">
+      <c r="E42" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G42" s="12" t="s">
+      <c r="G42" s="13" t="s">
         <v>138</v>
       </c>
-      <c r="H42" s="12" t="s">
+      <c r="H42" s="13" t="s">
         <v>139</v>
       </c>
     </row>
@@ -4484,16 +4505,16 @@
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
-      <c r="E43" s="12" t="s">
+      <c r="E43" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G43" s="12" t="s">
+      <c r="G43" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H43" s="12" t="s">
+      <c r="H43" s="13" t="s">
         <v>142</v>
       </c>
     </row>
@@ -4502,16 +4523,16 @@
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G44" s="12" t="s">
+      <c r="G44" s="13" t="s">
         <v>144</v>
       </c>
-      <c r="H44" s="12" t="s">
+      <c r="H44" s="13" t="s">
         <v>145</v>
       </c>
     </row>
@@ -4520,16 +4541,16 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="12" t="s">
+      <c r="E45" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G45" s="12" t="s">
+      <c r="G45" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="H45" s="12" t="s">
+      <c r="H45" s="13" t="s">
         <v>147</v>
       </c>
     </row>
@@ -4538,16 +4559,16 @@
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
-      <c r="E46" s="12" t="s">
+      <c r="E46" s="13" t="s">
         <v>148</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G46" s="12" t="s">
+      <c r="G46" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="H46" s="12" t="s">
+      <c r="H46" s="13" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4556,16 +4577,16 @@
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
-      <c r="E47" s="12" t="s">
+      <c r="E47" s="13" t="s">
         <v>150</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="G47" s="12" t="s">
+      <c r="G47" s="13" t="s">
         <v>141</v>
       </c>
-      <c r="H47" s="12" t="s">
+      <c r="H47" s="13" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4574,16 +4595,16 @@
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G48" s="12" t="s">
+      <c r="G48" s="13" t="s">
         <v>153</v>
       </c>
-      <c r="H48" s="12" t="s">
+      <c r="H48" s="13" t="s">
         <v>154</v>
       </c>
     </row>
@@ -4592,16 +4613,16 @@
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
-      <c r="E49" s="12" t="s">
+      <c r="E49" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G49" s="12" t="s">
+      <c r="G49" s="13" t="s">
         <v>156</v>
       </c>
-      <c r="H49" s="12" t="s">
+      <c r="H49" s="13" t="s">
         <v>157</v>
       </c>
     </row>
@@ -4610,16 +4631,16 @@
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
-      <c r="E50" s="12" t="s">
+      <c r="E50" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="H50" s="12" t="s">
+      <c r="H50" s="13" t="s">
         <v>160</v>
       </c>
     </row>
@@ -4628,16 +4649,16 @@
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
-      <c r="E51" s="12" t="s">
+      <c r="E51" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G51" s="12" t="s">
+      <c r="G51" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="H51" s="12" t="s">
+      <c r="H51" s="13" t="s">
         <v>163</v>
       </c>
     </row>
@@ -4646,16 +4667,16 @@
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G52" s="12" t="s">
+      <c r="G52" s="13" t="s">
         <v>165</v>
       </c>
-      <c r="H52" s="12" t="s">
+      <c r="H52" s="13" t="s">
         <v>166</v>
       </c>
     </row>
@@ -5435,13 +5456,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9" style="11" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="11" customWidth="1"/>
-    <col min="5" max="5" width="25" style="11" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="11" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="11" customWidth="1"/>
-    <col min="8" max="8" width="19.5" style="11" customWidth="1"/>
-    <col min="9" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" style="12" customWidth="1"/>
+    <col min="5" max="5" width="25" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" style="12" customWidth="1"/>
+    <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
@@ -5508,19 +5529,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>242</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>245</v>
       </c>
     </row>
@@ -5529,16 +5550,16 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="13" t="s">
         <v>247</v>
       </c>
     </row>
@@ -5547,16 +5568,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="13" t="s">
         <v>248</v>
       </c>
     </row>
@@ -5565,16 +5586,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="H10" s="12" t="s">
+      <c r="H10" s="13" t="s">
         <v>251</v>
       </c>
     </row>
@@ -5583,16 +5604,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="13" t="s">
         <v>254</v>
       </c>
     </row>
@@ -5601,16 +5622,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>255</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="13" t="s">
         <v>255</v>
       </c>
     </row>
@@ -5619,16 +5640,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>236</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>258</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="13" t="s">
         <v>257</v>
       </c>
     </row>
@@ -5637,16 +5658,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>259</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>260</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="13" t="s">
         <v>261</v>
       </c>
     </row>
@@ -5655,16 +5676,16 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>263</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="13" t="s">
         <v>264</v>
       </c>
     </row>
@@ -5673,16 +5694,16 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>118</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>119</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="13" t="s">
         <v>265</v>
       </c>
     </row>
@@ -5691,16 +5712,16 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>266</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>267</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>268</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="13" t="s">
         <v>269</v>
       </c>
     </row>
@@ -5709,16 +5730,16 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>113</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="13" t="s">
         <v>271</v>
       </c>
     </row>
@@ -5727,16 +5748,16 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="H19" s="12" t="s">
+      <c r="H19" s="13" t="s">
         <v>274</v>
       </c>
     </row>
@@ -5745,16 +5766,16 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="H20" s="12" t="s">
+      <c r="H20" s="13" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5763,16 +5784,16 @@
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="H21" s="12" t="s">
+      <c r="H21" s="13" t="s">
         <v>280</v>
       </c>
     </row>
@@ -5781,16 +5802,16 @@
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="12" t="s">
+      <c r="E22" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="H22" s="12" t="s">
+      <c r="H22" s="13" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5799,16 +5820,16 @@
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="13" t="s">
         <v>284</v>
       </c>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>246</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="13" t="s">
         <v>285</v>
       </c>
-      <c r="H23" s="12" t="s">
+      <c r="H23" s="13" t="s">
         <v>283</v>
       </c>
     </row>
@@ -5817,16 +5838,16 @@
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="H24" s="12" t="s">
+      <c r="H24" s="13" t="s">
         <v>287</v>
       </c>
     </row>
@@ -5850,11 +5871,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="19" style="11" customWidth="1"/>
-    <col min="5" max="6" width="30.5" style="11" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="11" customWidth="1"/>
-    <col min="9" max="256" width="9" style="11" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="19" style="12" customWidth="1"/>
+    <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
@@ -5921,19 +5942,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="15" t="s">
         <v>288</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>289</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>292</v>
       </c>
     </row>
@@ -5942,16 +5963,16 @@
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G8" s="12" t="s">
+      <c r="G8" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>1</v>
       </c>
     </row>
@@ -5960,16 +5981,16 @@
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>0</v>
       </c>
     </row>
@@ -5978,16 +5999,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G10" s="12" t="s">
+      <c r="G10" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
@@ -5996,16 +6017,16 @@
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G11" s="12" t="s">
+      <c r="G11" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6014,16 +6035,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>1</v>
       </c>
     </row>
@@ -6032,16 +6053,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G13" s="12" t="s">
+      <c r="G13" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>1</v>
       </c>
     </row>
@@ -6050,16 +6071,16 @@
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G14" s="12" t="s">
+      <c r="G14" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6068,16 +6089,16 @@
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G15" s="12" t="s">
+      <c r="G15" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6086,16 +6107,16 @@
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="12" t="s">
+      <c r="G16" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <v>1</v>
       </c>
     </row>
@@ -6104,16 +6125,16 @@
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>252</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <v>1</v>
       </c>
     </row>
@@ -6122,16 +6143,16 @@
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>296</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="13" t="s">
         <v>297</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6140,16 +6161,16 @@
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="13" t="s">
         <v>301</v>
       </c>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>298</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="13" t="s">
         <v>299</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>0</v>
       </c>
     </row>
@@ -6174,11 +6195,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="11" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="11" customWidth="1"/>
-    <col min="6" max="6" width="29" style="11" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="11" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="29" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.8333333333333" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17" customHeight="1" spans="1:8">
@@ -6245,19 +6266,19 @@
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="13" t="s">
         <v>302</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F7" s="12" t="s">
+      <c r="F7" s="13" t="s">
         <v>303</v>
       </c>
-      <c r="G7" s="12" t="s">
+      <c r="G7" s="13" t="s">
         <v>249</v>
       </c>
-      <c r="H7" s="12" t="s">
+      <c r="H7" s="13" t="s">
         <v>304</v>
       </c>
     </row>
@@ -6267,13 +6288,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
-      <c r="F8" s="12" t="s">
+      <c r="F8" s="13" t="s">
         <v>305</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="14">
         <v>0</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -6283,13 +6304,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="12" t="s">
+      <c r="F9" s="13" t="s">
         <v>306</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="14">
         <v>0</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="14">
         <v>2017</v>
       </c>
     </row>
@@ -6298,16 +6319,16 @@
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="13" t="s">
         <v>307</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="13" t="s">
         <v>308</v>
       </c>
-      <c r="G10" s="13">
+      <c r="G10" s="14">
         <v>0</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6317,13 +6338,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="12" t="s">
+      <c r="F11" s="13" t="s">
         <v>309</v>
       </c>
-      <c r="G11" s="13">
+      <c r="G11" s="14">
         <v>1</v>
       </c>
-      <c r="H11" s="13">
+      <c r="H11" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6332,16 +6353,16 @@
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="13" t="s">
         <v>310</v>
       </c>
-      <c r="F12" s="12" t="s">
+      <c r="F12" s="13" t="s">
         <v>311</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="14">
         <v>0</v>
       </c>
-      <c r="H12" s="13">
+      <c r="H12" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6350,16 +6371,16 @@
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="13" t="s">
         <v>312</v>
       </c>
-      <c r="F13" s="12" t="s">
+      <c r="F13" s="13" t="s">
         <v>313</v>
       </c>
-      <c r="G13" s="13">
+      <c r="G13" s="14">
         <v>0</v>
       </c>
-      <c r="H13" s="13">
+      <c r="H13" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6369,13 +6390,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="12" t="s">
+      <c r="F14" s="13" t="s">
         <v>314</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="14">
         <v>0</v>
       </c>
-      <c r="H14" s="13">
+      <c r="H14" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6385,13 +6406,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="12" t="s">
+      <c r="F15" s="13" t="s">
         <v>315</v>
       </c>
-      <c r="G15" s="13">
+      <c r="G15" s="14">
         <v>0</v>
       </c>
-      <c r="H15" s="13">
+      <c r="H15" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6401,13 +6422,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="13" t="s">
         <v>316</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="14">
         <v>0</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6417,13 +6438,13 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
-      <c r="F17" s="12" t="s">
+      <c r="F17" s="13" t="s">
         <v>317</v>
       </c>
-      <c r="G17" s="13">
+      <c r="G17" s="14">
         <v>0</v>
       </c>
-      <c r="H17" s="13">
+      <c r="H17" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6433,13 +6454,13 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
-      <c r="F18" s="12" t="s">
+      <c r="F18" s="13" t="s">
         <v>318</v>
       </c>
-      <c r="G18" s="13">
+      <c r="G18" s="14">
         <v>0</v>
       </c>
-      <c r="H18" s="13">
+      <c r="H18" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6449,13 +6470,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
-      <c r="F19" s="12" t="s">
+      <c r="F19" s="13" t="s">
         <v>319</v>
       </c>
-      <c r="G19" s="13">
+      <c r="G19" s="14">
         <v>1</v>
       </c>
-      <c r="H19" s="13">
+      <c r="H19" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6464,16 +6485,16 @@
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="13" t="s">
         <v>320</v>
       </c>
-      <c r="F20" s="12" t="s">
+      <c r="F20" s="13" t="s">
         <v>321</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="14">
         <v>0</v>
       </c>
-      <c r="H20" s="13">
+      <c r="H20" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6483,13 +6504,13 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
-      <c r="F21" s="12" t="s">
+      <c r="F21" s="13" t="s">
         <v>322</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="14">
         <v>0</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6499,13 +6520,13 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
-      <c r="F22" s="12" t="s">
+      <c r="F22" s="13" t="s">
         <v>323</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="14">
         <v>0</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6515,13 +6536,13 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
-      <c r="F23" s="12" t="s">
+      <c r="F23" s="13" t="s">
         <v>324</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="14">
         <v>1</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6531,13 +6552,13 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="12" t="s">
+      <c r="F24" s="13" t="s">
         <v>325</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="14">
         <v>1</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6547,13 +6568,13 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
-      <c r="F25" s="12" t="s">
+      <c r="F25" s="13" t="s">
         <v>326</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="14">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6563,13 +6584,13 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="13" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="14">
         <v>0</v>
       </c>
-      <c r="H26" s="13">
+      <c r="H26" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6578,16 +6599,16 @@
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="12" t="s">
+      <c r="E27" s="13" t="s">
         <v>328</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="13" t="s">
         <v>329</v>
       </c>
-      <c r="G27" s="13">
+      <c r="G27" s="14">
         <v>0</v>
       </c>
-      <c r="H27" s="13">
+      <c r="H27" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6597,13 +6618,13 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="13" t="s">
         <v>330</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="14">
         <v>0</v>
       </c>
-      <c r="H28" s="13">
+      <c r="H28" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6613,13 +6634,13 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="12" t="s">
+      <c r="F29" s="13" t="s">
         <v>331</v>
       </c>
-      <c r="G29" s="13">
+      <c r="G29" s="14">
         <v>0</v>
       </c>
-      <c r="H29" s="13">
+      <c r="H29" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6628,16 +6649,16 @@
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="12" t="s">
+      <c r="E30" s="13" t="s">
         <v>332</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F30" s="13" t="s">
         <v>333</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="14">
         <v>0</v>
       </c>
-      <c r="H30" s="13">
+      <c r="H30" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6647,13 +6668,13 @@
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="12" t="s">
+      <c r="F31" s="13" t="s">
         <v>334</v>
       </c>
-      <c r="G31" s="13">
+      <c r="G31" s="14">
         <v>0</v>
       </c>
-      <c r="H31" s="13">
+      <c r="H31" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6663,13 +6684,13 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="12" t="s">
+      <c r="F32" s="13" t="s">
         <v>335</v>
       </c>
-      <c r="G32" s="13">
+      <c r="G32" s="14">
         <v>0</v>
       </c>
-      <c r="H32" s="13">
+      <c r="H32" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6678,16 +6699,16 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="12" t="s">
+      <c r="E33" s="13" t="s">
         <v>336</v>
       </c>
-      <c r="F33" s="12" t="s">
+      <c r="F33" s="13" t="s">
         <v>337</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="14">
         <v>0</v>
       </c>
-      <c r="H33" s="13">
+      <c r="H33" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6697,13 +6718,13 @@
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="12" t="s">
+      <c r="F34" s="13" t="s">
         <v>338</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="14">
         <v>1</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6713,13 +6734,13 @@
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="12" t="s">
+      <c r="F35" s="13" t="s">
         <v>339</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="14">
         <v>1</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6728,16 +6749,16 @@
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="13" t="s">
         <v>340</v>
       </c>
-      <c r="F36" s="12" t="s">
+      <c r="F36" s="13" t="s">
         <v>341</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="14">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6747,13 +6768,13 @@
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
-      <c r="F37" s="12" t="s">
+      <c r="F37" s="13" t="s">
         <v>342</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="14">
         <v>0</v>
       </c>
-      <c r="H37" s="13">
+      <c r="H37" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6763,13 +6784,13 @@
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
-      <c r="F38" s="12" t="s">
+      <c r="F38" s="13" t="s">
         <v>343</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="14">
         <v>0</v>
       </c>
-      <c r="H38" s="13">
+      <c r="H38" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6779,13 +6800,13 @@
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
-      <c r="F39" s="12" t="s">
+      <c r="F39" s="13" t="s">
         <v>344</v>
       </c>
-      <c r="G39" s="13">
+      <c r="G39" s="14">
         <v>0</v>
       </c>
-      <c r="H39" s="13">
+      <c r="H39" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6795,13 +6816,13 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
-      <c r="F40" s="12" t="s">
+      <c r="F40" s="13" t="s">
         <v>345</v>
       </c>
-      <c r="G40" s="13">
+      <c r="G40" s="14">
         <v>0</v>
       </c>
-      <c r="H40" s="13">
+      <c r="H40" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6811,13 +6832,13 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
-      <c r="F41" s="12" t="s">
+      <c r="F41" s="13" t="s">
         <v>346</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="14">
         <v>0</v>
       </c>
-      <c r="H41" s="13">
+      <c r="H41" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6827,13 +6848,13 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
-      <c r="F42" s="12" t="s">
+      <c r="F42" s="13" t="s">
         <v>347</v>
       </c>
-      <c r="G42" s="13">
+      <c r="G42" s="14">
         <v>0</v>
       </c>
-      <c r="H42" s="13">
+      <c r="H42" s="14">
         <v>2018</v>
       </c>
     </row>
@@ -6845,13 +6866,13 @@
       <c r="E43" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="F43" s="12" t="s">
+      <c r="F43" s="13" t="s">
         <v>348</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="14">
         <v>0</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6861,13 +6882,13 @@
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
-      <c r="F44" s="12" t="s">
+      <c r="F44" s="13" t="s">
         <v>349</v>
       </c>
-      <c r="G44" s="13">
+      <c r="G44" s="14">
         <v>1</v>
       </c>
-      <c r="H44" s="13">
+      <c r="H44" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6877,13 +6898,13 @@
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
-      <c r="F45" s="12" t="s">
+      <c r="F45" s="13" t="s">
         <v>350</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="14">
         <v>1</v>
       </c>
-      <c r="H45" s="13">
+      <c r="H45" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6895,13 +6916,13 @@
       <c r="E46" s="3" t="s">
         <v>310</v>
       </c>
-      <c r="F46" s="12" t="s">
+      <c r="F46" s="13" t="s">
         <v>351</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="14">
         <v>0</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6913,13 +6934,13 @@
       <c r="E47" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="F47" s="12" t="s">
+      <c r="F47" s="13" t="s">
         <v>352</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="14">
         <v>0</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6929,13 +6950,13 @@
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
-      <c r="F48" s="12" t="s">
+      <c r="F48" s="13" t="s">
         <v>353</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="14">
         <v>0</v>
       </c>
-      <c r="H48" s="13">
+      <c r="H48" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6945,13 +6966,13 @@
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" s="12" t="s">
+      <c r="F49" s="13" t="s">
         <v>354</v>
       </c>
-      <c r="G49" s="13">
+      <c r="G49" s="14">
         <v>0</v>
       </c>
-      <c r="H49" s="13">
+      <c r="H49" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6961,13 +6982,13 @@
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="12" t="s">
+      <c r="F50" s="13" t="s">
         <v>355</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="14">
         <v>0</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6977,13 +6998,13 @@
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="13" t="s">
         <v>356</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="14">
         <v>0</v>
       </c>
-      <c r="H51" s="13">
+      <c r="H51" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -6993,13 +7014,13 @@
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
-      <c r="F52" s="12" t="s">
+      <c r="F52" s="13" t="s">
         <v>357</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="14">
         <v>0</v>
       </c>
-      <c r="H52" s="13">
+      <c r="H52" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7011,13 +7032,13 @@
       <c r="E53" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="F53" s="12" t="s">
+      <c r="F53" s="13" t="s">
         <v>358</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="14">
         <v>0</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7027,13 +7048,13 @@
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
-      <c r="F54" s="12" t="s">
+      <c r="F54" s="13" t="s">
         <v>359</v>
       </c>
-      <c r="G54" s="13">
+      <c r="G54" s="14">
         <v>0</v>
       </c>
-      <c r="H54" s="13">
+      <c r="H54" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7043,13 +7064,13 @@
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="13" t="s">
         <v>360</v>
       </c>
-      <c r="G55" s="13">
+      <c r="G55" s="14">
         <v>0</v>
       </c>
-      <c r="H55" s="13">
+      <c r="H55" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7059,13 +7080,13 @@
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="13" t="s">
         <v>361</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="14">
         <v>1</v>
       </c>
-      <c r="H56" s="13">
+      <c r="H56" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7077,13 +7098,13 @@
       <c r="E57" s="3" t="s">
         <v>328</v>
       </c>
-      <c r="F57" s="12" t="s">
+      <c r="F57" s="13" t="s">
         <v>362</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="14">
         <v>0</v>
       </c>
-      <c r="H57" s="13">
+      <c r="H57" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7093,13 +7114,13 @@
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
-      <c r="F58" s="12" t="s">
+      <c r="F58" s="13" t="s">
         <v>363</v>
       </c>
-      <c r="G58" s="13">
+      <c r="G58" s="14">
         <v>0</v>
       </c>
-      <c r="H58" s="13">
+      <c r="H58" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7109,13 +7130,13 @@
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
-      <c r="F59" s="12" t="s">
+      <c r="F59" s="13" t="s">
         <v>364</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="14">
         <v>0</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7125,13 +7146,13 @@
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
-      <c r="F60" s="12" t="s">
+      <c r="F60" s="13" t="s">
         <v>365</v>
       </c>
-      <c r="G60" s="13">
+      <c r="G60" s="14">
         <v>0</v>
       </c>
-      <c r="H60" s="13">
+      <c r="H60" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7141,13 +7162,13 @@
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
-      <c r="F61" s="12" t="s">
+      <c r="F61" s="13" t="s">
         <v>366</v>
       </c>
-      <c r="G61" s="13">
+      <c r="G61" s="14">
         <v>1</v>
       </c>
-      <c r="H61" s="13">
+      <c r="H61" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7159,13 +7180,13 @@
       <c r="E62" s="3" t="s">
         <v>332</v>
       </c>
-      <c r="F62" s="12" t="s">
+      <c r="F62" s="13" t="s">
         <v>367</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="14">
         <v>0</v>
       </c>
-      <c r="H62" s="13">
+      <c r="H62" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7175,13 +7196,13 @@
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
-      <c r="F63" s="12" t="s">
+      <c r="F63" s="13" t="s">
         <v>368</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="14">
         <v>0</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7191,13 +7212,13 @@
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
-      <c r="F64" s="12" t="s">
+      <c r="F64" s="13" t="s">
         <v>369</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="14">
         <v>0</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7209,13 +7230,13 @@
       <c r="E65" s="3" t="s">
         <v>336</v>
       </c>
-      <c r="F65" s="12" t="s">
+      <c r="F65" s="13" t="s">
         <v>370</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="14">
         <v>0</v>
       </c>
-      <c r="H65" s="13">
+      <c r="H65" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7225,13 +7246,13 @@
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
-      <c r="F66" s="12" t="s">
+      <c r="F66" s="13" t="s">
         <v>371</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="14">
         <v>0</v>
       </c>
-      <c r="H66" s="13">
+      <c r="H66" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7241,13 +7262,13 @@
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
-      <c r="F67" s="12" t="s">
+      <c r="F67" s="13" t="s">
         <v>372</v>
       </c>
-      <c r="G67" s="13">
+      <c r="G67" s="14">
         <v>0</v>
       </c>
-      <c r="H67" s="13">
+      <c r="H67" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7257,13 +7278,13 @@
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
-      <c r="F68" s="12" t="s">
+      <c r="F68" s="13" t="s">
         <v>373</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="14">
         <v>1</v>
       </c>
-      <c r="H68" s="13">
+      <c r="H68" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7273,13 +7294,13 @@
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
-      <c r="F69" s="12" t="s">
+      <c r="F69" s="13" t="s">
         <v>374</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="14">
         <v>1</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7291,13 +7312,13 @@
       <c r="E70" s="3" t="s">
         <v>340</v>
       </c>
-      <c r="F70" s="12" t="s">
+      <c r="F70" s="13" t="s">
         <v>375</v>
       </c>
-      <c r="G70" s="13">
+      <c r="G70" s="14">
         <v>0</v>
       </c>
-      <c r="H70" s="13">
+      <c r="H70" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7307,13 +7328,13 @@
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
-      <c r="F71" s="12" t="s">
+      <c r="F71" s="13" t="s">
         <v>376</v>
       </c>
-      <c r="G71" s="13">
+      <c r="G71" s="14">
         <v>0</v>
       </c>
-      <c r="H71" s="13">
+      <c r="H71" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7323,13 +7344,13 @@
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
-      <c r="F72" s="12" t="s">
+      <c r="F72" s="13" t="s">
         <v>377</v>
       </c>
-      <c r="G72" s="13">
+      <c r="G72" s="14">
         <v>0</v>
       </c>
-      <c r="H72" s="13">
+      <c r="H72" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7339,13 +7360,13 @@
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
-      <c r="F73" s="12" t="s">
+      <c r="F73" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="G73" s="13">
+      <c r="G73" s="14">
         <v>0</v>
       </c>
-      <c r="H73" s="13">
+      <c r="H73" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7355,13 +7376,13 @@
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="12" t="s">
+      <c r="F74" s="13" t="s">
         <v>379</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="14">
         <v>0</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7371,13 +7392,13 @@
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
-      <c r="F75" s="12" t="s">
+      <c r="F75" s="13" t="s">
         <v>380</v>
       </c>
-      <c r="G75" s="13">
+      <c r="G75" s="14">
         <v>0</v>
       </c>
-      <c r="H75" s="13">
+      <c r="H75" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7387,13 +7408,13 @@
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
-      <c r="F76" s="12" t="s">
+      <c r="F76" s="13" t="s">
         <v>381</v>
       </c>
-      <c r="G76" s="13">
+      <c r="G76" s="14">
         <v>0</v>
       </c>
-      <c r="H76" s="13">
+      <c r="H76" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7403,13 +7424,13 @@
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
-      <c r="F77" s="12" t="s">
+      <c r="F77" s="13" t="s">
         <v>382</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="14">
         <v>1</v>
       </c>
-      <c r="H77" s="13">
+      <c r="H77" s="14">
         <v>2019</v>
       </c>
     </row>
@@ -7427,8 +7448,8 @@
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="L26" sqref="L26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -7462,8 +7483,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
@@ -7481,8 +7502,8 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
@@ -7500,8 +7521,8 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
@@ -7519,8 +7540,8 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
@@ -7538,8 +7559,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
@@ -7557,8 +7578,8 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:17">
       <c r="A7" s="3"/>
@@ -7600,8 +7621,8 @@
       <c r="O7" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:17">
       <c r="A8" s="3"/>
@@ -7641,8 +7662,8 @@
       <c r="O8" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:17">
       <c r="A9" s="3"/>
@@ -7682,8 +7703,8 @@
       <c r="O9" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:17">
       <c r="A10" s="3"/>
@@ -7723,8 +7744,8 @@
       <c r="O10" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:17">
       <c r="A11" s="3"/>
@@ -7764,8 +7785,8 @@
       <c r="O11" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:17">
       <c r="A12" s="3"/>
@@ -7805,8 +7826,8 @@
       <c r="O12" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
@@ -7846,8 +7867,8 @@
       <c r="O13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:17">
       <c r="A14" s="3"/>
@@ -7887,8 +7908,8 @@
       <c r="O14" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:17">
       <c r="A15" s="3"/>
@@ -7928,8 +7949,8 @@
       <c r="O15" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
@@ -7969,8 +7990,8 @@
       <c r="O16" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
@@ -8010,8 +8031,8 @@
       <c r="O17" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:17">
       <c r="A18" s="3"/>
@@ -8051,8 +8072,8 @@
       <c r="O18" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:17">
       <c r="A19" s="3"/>
@@ -8092,8 +8113,8 @@
       <c r="O19" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:17">
       <c r="A20" s="3"/>
@@ -8133,8 +8154,8 @@
       <c r="O20" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:17">
       <c r="A21" s="3"/>
@@ -8174,8 +8195,8 @@
       <c r="O21" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:17">
       <c r="A22" s="3"/>
@@ -8215,8 +8236,8 @@
       <c r="O22" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:17">
       <c r="A23" s="3"/>
@@ -8256,8 +8277,8 @@
       <c r="O23" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:17">
       <c r="A24" s="3"/>
@@ -8297,8 +8318,8 @@
       <c r="O24" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:17">
       <c r="A25" s="3"/>
@@ -8338,8 +8359,8 @@
       <c r="O25" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:17">
       <c r="A26" s="3"/>
@@ -8379,8 +8400,8 @@
       <c r="O26" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
     </row>
     <row r="27" ht="22" customHeight="1" spans="1:17">
       <c r="A27" s="3"/>
@@ -8402,7 +8423,7 @@
       <c r="I27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="15" t="s">
+      <c r="J27" s="16" t="s">
         <v>395</v>
       </c>
       <c r="K27" s="3" t="s">
@@ -8420,8 +8441,8 @@
       <c r="O27" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
     </row>
     <row r="28" ht="22" customHeight="1" spans="1:17">
       <c r="A28" s="3"/>
@@ -8443,7 +8464,7 @@
       <c r="I28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="16" t="s">
         <v>395</v>
       </c>
       <c r="K28" s="3" t="s">
@@ -8461,65 +8482,131 @@
       <c r="O28" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
     </row>
     <row r="29" ht="22" customHeight="1" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
+      <c r="E29" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>439</v>
+      </c>
+      <c r="G29" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>440</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J29" s="8">
+        <v>1</v>
+      </c>
+      <c r="K29" s="8">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3" t="s">
+        <v>441</v>
+      </c>
+      <c r="M29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N29" s="8">
+        <v>0</v>
+      </c>
+      <c r="O29" s="8">
+        <v>0</v>
+      </c>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
     </row>
     <row r="30" ht="22" customHeight="1" spans="1:17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="5"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
-      <c r="J30" s="3"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
+      <c r="E30" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>443</v>
+      </c>
+      <c r="G30" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="H30" s="3" t="s">
+        <v>444</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="J30" s="8">
+        <v>1</v>
+      </c>
+      <c r="K30" s="8">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M30" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N30" s="8">
+        <v>0</v>
+      </c>
+      <c r="O30" s="8">
+        <v>0</v>
+      </c>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
     </row>
     <row r="31" ht="22" customHeight="1" spans="1:17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="5"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
+      <c r="E31" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J31" s="8">
+        <v>1</v>
+      </c>
+      <c r="K31" s="8">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="M31" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="N31" s="8">
+        <v>0</v>
+      </c>
+      <c r="O31" s="8">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
     </row>
     <row r="32" ht="22" customHeight="1" spans="1:17">
       <c r="A32" s="3"/>
@@ -8537,8 +8624,8 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:17">
       <c r="A33" s="3"/>
@@ -8556,8 +8643,8 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:17">
       <c r="A34" s="3"/>
@@ -8575,8 +8662,8 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
     </row>
     <row r="35" ht="22" customHeight="1" spans="1:17">
       <c r="A35" s="3"/>
@@ -8594,8 +8681,8 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:17">
       <c r="A36" s="3"/>
@@ -8613,8 +8700,8 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
     </row>
     <row r="37" ht="22" customHeight="1" spans="1:17">
       <c r="A37" s="3"/>
@@ -8632,8 +8719,8 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
     </row>
     <row r="38" ht="22" customHeight="1" spans="1:17">
       <c r="A38" s="3"/>
@@ -8651,8 +8738,8 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
     </row>
     <row r="39" ht="22" customHeight="1" spans="1:17">
       <c r="A39" s="3"/>
@@ -8670,8 +8757,8 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
     </row>
     <row r="40" ht="22" customHeight="1" spans="1:17">
       <c r="A40" s="3"/>
@@ -8689,8 +8776,8 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:17">
       <c r="A41" s="3"/>
@@ -8708,8 +8795,8 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
     </row>
     <row r="42" ht="22" customHeight="1" spans="1:17">
       <c r="A42" s="3"/>
@@ -8727,8 +8814,8 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17">
       <c r="A43" s="4"/>
@@ -8746,8 +8833,8 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17">
       <c r="A44" s="4"/>
@@ -8765,8 +8852,8 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17">
       <c r="A45" s="4"/>
@@ -8784,8 +8871,8 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17">
       <c r="A46" s="4"/>
@@ -8803,8 +8890,8 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17">
       <c r="A47" s="4"/>
@@ -8822,8 +8909,8 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8855,10 +8942,10 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>439</v>
+        <v>447</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -8875,7 +8962,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>395</v>
@@ -8896,7 +8983,7 @@
   <dimension ref="D7:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="13.2"/>
@@ -8912,10 +8999,10 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>441</v>
+        <v>449</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>389</v>
@@ -8938,7 +9025,7 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>395</v>
@@ -8955,7 +9042,7 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>444</v>
+        <v>452</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>395</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24860" windowHeight="11540" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="453">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1388,10 +1388,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1421,7 +1421,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1435,14 +1435,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1458,17 +1458,17 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1481,17 +1481,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1511,32 +1511,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1550,10 +1534,10 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1564,8 +1548,24 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1586,19 +1586,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1610,97 +1610,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,7 +1634,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1730,31 +1694,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1766,7 +1724,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1823,7 +1823,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1839,6 +1839,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1873,21 +1897,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1898,182 +1907,173 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -2083,55 +2083,55 @@
   </cellXfs>
   <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="2" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="3" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="4" builtinId="41"/>
-    <cellStyle name="输入" xfId="5" builtinId="20"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="7" builtinId="38"/>
-    <cellStyle name="货币" xfId="8" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="9" builtinId="37"/>
-    <cellStyle name="百分比" xfId="10" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="11" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="12" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="13" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="14" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="15" builtinId="44"/>
-    <cellStyle name="计算" xfId="16" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="17" builtinId="29"/>
-    <cellStyle name="适中" xfId="18" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="19" builtinId="46"/>
-    <cellStyle name="好" xfId="20" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="21" builtinId="30"/>
-    <cellStyle name="汇总" xfId="22" builtinId="25"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="24" builtinId="23"/>
-    <cellStyle name="输出" xfId="25" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="26" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="27" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="28" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="29" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="30" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="31" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="32" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="33" builtinId="9"/>
-    <cellStyle name="标题" xfId="34" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="35" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="36" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="37" builtinId="40"/>
-    <cellStyle name="注释" xfId="38" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="39" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="40" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="41" builtinId="51"/>
-    <cellStyle name="超链接" xfId="42" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="43" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="44" builtinId="17"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="45" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="46" builtinId="18"/>
-    <cellStyle name="强调文字颜色 6" xfId="47" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="48" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="49" builtinId="24"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
   <tableStyles count="0"/>
   <colors>
@@ -3247,7 +3247,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
@@ -3342,11 +3342,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
@@ -3771,7 +3771,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H94"/>
   <sheetViews>
@@ -5446,7 +5446,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
@@ -5861,7 +5861,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H19"/>
   <sheetViews>
@@ -6185,7 +6185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:H77"/>
   <sheetViews>
@@ -7444,12 +7444,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:Q47"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -7483,8 +7483,8 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="9"/>
-      <c r="Q1" s="9"/>
+      <c r="P1" s="8"/>
+      <c r="Q1" s="8"/>
     </row>
     <row r="2" ht="17" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
@@ -7502,8 +7502,8 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8"/>
     </row>
     <row r="3" ht="17" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
@@ -7521,8 +7521,8 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="9"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="8"/>
     </row>
     <row r="4" ht="17" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
@@ -7540,8 +7540,8 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
     </row>
     <row r="5" ht="17" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
@@ -7559,8 +7559,8 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
     </row>
     <row r="6" ht="17" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
@@ -7578,8 +7578,8 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="8"/>
     </row>
     <row r="7" ht="17" customHeight="1" spans="1:17">
       <c r="A7" s="3"/>
@@ -7621,15 +7621,15 @@
       <c r="O7" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>392</v>
       </c>
       <c r="F8" s="3" t="s">
@@ -7662,15 +7662,15 @@
       <c r="O8" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="5" t="s">
+      <c r="E9" s="4" t="s">
         <v>398</v>
       </c>
       <c r="F9" s="3" t="s">
@@ -7703,15 +7703,15 @@
       <c r="O9" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>401</v>
       </c>
       <c r="F10" s="3" t="s">
@@ -7744,15 +7744,15 @@
       <c r="O10" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>403</v>
       </c>
       <c r="F11" s="3" t="s">
@@ -7785,15 +7785,15 @@
       <c r="O11" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:17">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
-      <c r="E12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>407</v>
       </c>
       <c r="F12" s="3" t="s">
@@ -7826,15 +7826,15 @@
       <c r="O12" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>409</v>
       </c>
       <c r="F13" s="3" t="s">
@@ -7867,15 +7867,15 @@
       <c r="O13" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="4" t="s">
         <v>410</v>
       </c>
       <c r="F14" s="3" t="s">
@@ -7908,15 +7908,15 @@
       <c r="O14" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:17">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="4" t="s">
         <v>411</v>
       </c>
       <c r="F15" s="3" t="s">
@@ -7949,15 +7949,15 @@
       <c r="O15" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="4" t="s">
         <v>412</v>
       </c>
       <c r="F16" s="3" t="s">
@@ -7990,15 +7990,15 @@
       <c r="O16" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
-      <c r="E17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>413</v>
       </c>
       <c r="F17" s="3" t="s">
@@ -8031,15 +8031,15 @@
       <c r="O17" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>415</v>
       </c>
       <c r="F18" s="3" t="s">
@@ -8072,15 +8072,15 @@
       <c r="O18" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
+      <c r="P18" s="9"/>
+      <c r="Q18" s="9"/>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:17">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="4" t="s">
         <v>417</v>
       </c>
       <c r="F19" s="3" t="s">
@@ -8113,15 +8113,15 @@
       <c r="O19" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
+      <c r="P19" s="9"/>
+      <c r="Q19" s="9"/>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:17">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>419</v>
       </c>
       <c r="F20" s="3" t="s">
@@ -8154,15 +8154,15 @@
       <c r="O20" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
+      <c r="P20" s="9"/>
+      <c r="Q20" s="9"/>
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:17">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="4" t="s">
         <v>420</v>
       </c>
       <c r="F21" s="3" t="s">
@@ -8195,15 +8195,15 @@
       <c r="O21" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
     </row>
     <row r="22" ht="21" customHeight="1" spans="1:17">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="4" t="s">
         <v>423</v>
       </c>
       <c r="F22" s="3" t="s">
@@ -8236,15 +8236,15 @@
       <c r="O22" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
+      <c r="P22" s="9"/>
+      <c r="Q22" s="9"/>
     </row>
     <row r="23" ht="21" customHeight="1" spans="1:17">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
-      <c r="E23" s="5" t="s">
+      <c r="E23" s="4" t="s">
         <v>424</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -8277,15 +8277,15 @@
       <c r="O23" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
+      <c r="P23" s="9"/>
+      <c r="Q23" s="9"/>
     </row>
     <row r="24" ht="22.5" customHeight="1" spans="1:17">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>425</v>
       </c>
       <c r="F24" s="3" t="s">
@@ -8318,15 +8318,15 @@
       <c r="O24" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
     </row>
     <row r="25" ht="22.5" customHeight="1" spans="1:17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
-      <c r="E25" s="5" t="s">
+      <c r="E25" s="4" t="s">
         <v>427</v>
       </c>
       <c r="F25" s="3" t="s">
@@ -8359,15 +8359,15 @@
       <c r="O25" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
     </row>
     <row r="26" ht="22.5" customHeight="1" spans="1:17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="4" t="s">
         <v>429</v>
       </c>
       <c r="F26" s="3" t="s">
@@ -8400,15 +8400,15 @@
       <c r="O26" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
     </row>
     <row r="27" ht="22" customHeight="1" spans="1:17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="4" t="s">
         <v>432</v>
       </c>
       <c r="F27" s="3" t="s">
@@ -8441,15 +8441,15 @@
       <c r="O27" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
     </row>
     <row r="28" ht="22" customHeight="1" spans="1:17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="4" t="s">
         <v>435</v>
       </c>
       <c r="F28" s="3" t="s">
@@ -8482,15 +8482,15 @@
       <c r="O28" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
     </row>
     <row r="29" ht="22" customHeight="1" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
-      <c r="E29" s="5" t="s">
+      <c r="E29" s="4" t="s">
         <v>438</v>
       </c>
       <c r="F29" s="3" t="s">
@@ -8505,10 +8505,10 @@
       <c r="I29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="8">
+      <c r="J29" s="11">
         <v>1</v>
       </c>
-      <c r="K29" s="8">
+      <c r="K29" s="11">
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
@@ -8517,21 +8517,21 @@
       <c r="M29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N29" s="8">
+      <c r="N29" s="11">
         <v>0</v>
       </c>
-      <c r="O29" s="8">
+      <c r="O29" s="11">
         <v>0</v>
       </c>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
     </row>
     <row r="30" ht="22" customHeight="1" spans="1:17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>442</v>
       </c>
       <c r="F30" s="3" t="s">
@@ -8546,10 +8546,10 @@
       <c r="I30" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J30" s="8">
+      <c r="J30" s="11">
         <v>1</v>
       </c>
-      <c r="K30" s="8">
+      <c r="K30" s="11">
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -8558,21 +8558,21 @@
       <c r="M30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N30" s="8">
+      <c r="N30" s="11">
         <v>0</v>
       </c>
-      <c r="O30" s="8">
+      <c r="O30" s="11">
         <v>0</v>
       </c>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
     </row>
     <row r="31" ht="22" customHeight="1" spans="1:17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="5" t="s">
+      <c r="E31" s="4" t="s">
         <v>445</v>
       </c>
       <c r="F31" s="3" t="s">
@@ -8585,12 +8585,12 @@
         <v>64</v>
       </c>
       <c r="I31" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J31" s="8">
+        <v>229</v>
+      </c>
+      <c r="J31" s="11">
         <v>1</v>
       </c>
-      <c r="K31" s="8">
+      <c r="K31" s="11">
         <v>0</v>
       </c>
       <c r="L31" s="3" t="s">
@@ -8599,21 +8599,21 @@
       <c r="M31" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N31" s="8">
+      <c r="N31" s="11">
         <v>0</v>
       </c>
-      <c r="O31" s="8">
+      <c r="O31" s="11">
         <v>0</v>
       </c>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
     </row>
     <row r="32" ht="22" customHeight="1" spans="1:17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="5"/>
+      <c r="E32" s="4"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3"/>
       <c r="H32" s="3"/>
@@ -8624,15 +8624,15 @@
       <c r="M32" s="3"/>
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
     </row>
     <row r="33" ht="22" customHeight="1" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="5"/>
+      <c r="E33" s="4"/>
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3"/>
@@ -8643,15 +8643,15 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
     </row>
     <row r="34" ht="22" customHeight="1" spans="1:17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
-      <c r="E34" s="5"/>
+      <c r="E34" s="4"/>
       <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" s="3"/>
@@ -8662,15 +8662,15 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
     </row>
     <row r="35" ht="22" customHeight="1" spans="1:17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
-      <c r="E35" s="5"/>
+      <c r="E35" s="4"/>
       <c r="F35" s="3"/>
       <c r="G35" s="3"/>
       <c r="H35" s="3"/>
@@ -8681,15 +8681,15 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
     </row>
     <row r="36" ht="22" customHeight="1" spans="1:17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
-      <c r="E36" s="5"/>
+      <c r="E36" s="4"/>
       <c r="F36" s="3"/>
       <c r="G36" s="3"/>
       <c r="H36" s="3"/>
@@ -8700,15 +8700,15 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
     </row>
     <row r="37" ht="22" customHeight="1" spans="1:17">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
-      <c r="E37" s="5"/>
+      <c r="E37" s="4"/>
       <c r="F37" s="3"/>
       <c r="G37" s="3"/>
       <c r="H37" s="3"/>
@@ -8719,15 +8719,15 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
     </row>
     <row r="38" ht="22" customHeight="1" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
-      <c r="E38" s="5"/>
+      <c r="E38" s="4"/>
       <c r="F38" s="3"/>
       <c r="G38" s="3"/>
       <c r="H38" s="3"/>
@@ -8738,15 +8738,15 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="11"/>
-      <c r="Q38" s="11"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
     </row>
     <row r="39" ht="22" customHeight="1" spans="1:17">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
-      <c r="E39" s="5"/>
+      <c r="E39" s="4"/>
       <c r="F39" s="3"/>
       <c r="G39" s="3"/>
       <c r="H39" s="3"/>
@@ -8757,15 +8757,15 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
     </row>
     <row r="40" ht="22" customHeight="1" spans="1:17">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
-      <c r="E40" s="5"/>
+      <c r="E40" s="4"/>
       <c r="F40" s="3"/>
       <c r="G40" s="3"/>
       <c r="H40" s="3"/>
@@ -8776,15 +8776,15 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="11"/>
-      <c r="Q40" s="11"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
     </row>
     <row r="41" ht="22" customHeight="1" spans="1:17">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
-      <c r="E41" s="5"/>
+      <c r="E41" s="4"/>
       <c r="F41" s="3"/>
       <c r="G41" s="3"/>
       <c r="H41" s="3"/>
@@ -8795,15 +8795,15 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" ht="22" customHeight="1" spans="1:17">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
-      <c r="E42" s="5"/>
+      <c r="E42" s="4"/>
       <c r="F42" s="3"/>
       <c r="G42" s="3"/>
       <c r="H42" s="3"/>
@@ -8814,15 +8814,15 @@
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
-      <c r="P42" s="11"/>
-      <c r="Q42" s="11"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17">
-      <c r="A43" s="4"/>
-      <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="4"/>
-      <c r="E43" s="4"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
       <c r="F43" s="6"/>
       <c r="G43" s="7"/>
       <c r="H43" s="7"/>
@@ -8833,15 +8833,15 @@
       <c r="M43" s="7"/>
       <c r="N43" s="7"/>
       <c r="O43" s="7"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
     </row>
     <row r="44" ht="21" customHeight="1" spans="1:17">
-      <c r="A44" s="4"/>
-      <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="4"/>
-      <c r="E44" s="4"/>
+      <c r="A44" s="5"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
       <c r="F44" s="6"/>
       <c r="G44" s="7"/>
       <c r="H44" s="7"/>
@@ -8852,15 +8852,15 @@
       <c r="M44" s="7"/>
       <c r="N44" s="7"/>
       <c r="O44" s="7"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
     </row>
     <row r="45" ht="21" customHeight="1" spans="1:17">
-      <c r="A45" s="4"/>
-      <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4"/>
+      <c r="A45" s="5"/>
+      <c r="B45" s="5"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="5"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="6"/>
       <c r="G45" s="7"/>
       <c r="H45" s="7"/>
@@ -8871,15 +8871,15 @@
       <c r="M45" s="7"/>
       <c r="N45" s="7"/>
       <c r="O45" s="7"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
     </row>
     <row r="46" ht="21" customHeight="1" spans="1:17">
-      <c r="A46" s="4"/>
-      <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4"/>
+      <c r="A46" s="5"/>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="6"/>
       <c r="G46" s="7"/>
       <c r="H46" s="7"/>
@@ -8890,15 +8890,15 @@
       <c r="M46" s="7"/>
       <c r="N46" s="7"/>
       <c r="O46" s="7"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
     </row>
     <row r="47" ht="21" customHeight="1" spans="1:17">
-      <c r="A47" s="4"/>
-      <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4"/>
+      <c r="A47" s="5"/>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="6"/>
       <c r="G47" s="7"/>
       <c r="H47" s="7"/>
@@ -8909,8 +8909,8 @@
       <c r="M47" s="7"/>
       <c r="N47" s="7"/>
       <c r="O47" s="7"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8922,7 +8922,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:H8"/>
   <sheetViews>
@@ -8930,7 +8930,7 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="13.2" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="10.8333333333333" style="1"/>
     <col min="4" max="4" width="18.8333333333333" style="1" customWidth="1"/>
@@ -8978,7 +8978,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:I9"/>
   <sheetViews>
@@ -8986,7 +8986,7 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="4" width="10.8333333333333" style="1"/>
     <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="19890" windowHeight="7710" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="917" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="450">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1348,15 +1348,6 @@
   </si>
   <si>
     <t>story,stask,bug</t>
-  </si>
-  <si>
-    <t>fd_object_scheme_field-30</t>
-  </si>
-  <si>
-    <t>testResponsible</t>
-  </si>
-  <si>
-    <t>测试负责人</t>
   </si>
   <si>
     <t>fd_object_scheme_field-31</t>
@@ -1389,9 +1380,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1435,17 +1426,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1453,6 +1436,37 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1481,7 +1495,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1503,9 +1524,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1526,48 +1546,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1586,31 +1577,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1622,31 +1595,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1664,7 +1631,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1676,37 +1703,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,55 +1751,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1810,78 +1801,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1907,118 +1826,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2027,31 +2003,46 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -7446,10 +7437,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q47"/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E29" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
@@ -8535,16 +8526,16 @@
         <v>442</v>
       </c>
       <c r="F30" s="3" t="s">
-        <v>443</v>
+        <v>63</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>444</v>
+        <v>64</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>444</v>
+        <v>64</v>
       </c>
       <c r="I30" s="3" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="J30" s="11">
         <v>1</v>
@@ -8572,39 +8563,17 @@
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4" t="s">
-        <v>445</v>
-      </c>
-      <c r="F31" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H31" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="J31" s="11">
-        <v>1</v>
-      </c>
-      <c r="K31" s="11">
-        <v>0</v>
-      </c>
-      <c r="L31" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="M31" s="3" t="s">
-        <v>201</v>
-      </c>
-      <c r="N31" s="11">
-        <v>0</v>
-      </c>
-      <c r="O31" s="11">
-        <v>0</v>
-      </c>
+      <c r="E31" s="4"/>
+      <c r="F31" s="3"/>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="3"/>
+      <c r="J31" s="3"/>
+      <c r="K31" s="3"/>
+      <c r="L31" s="3"/>
+      <c r="M31" s="3"/>
+      <c r="N31" s="3"/>
+      <c r="O31" s="3"/>
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
@@ -8798,24 +8767,24 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" ht="22" customHeight="1" spans="1:17">
-      <c r="A42" s="3"/>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="4"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
+    <row r="42" ht="21" customHeight="1" spans="1:17">
+      <c r="A42" s="5"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="7"/>
+      <c r="K42" s="7"/>
+      <c r="L42" s="7"/>
+      <c r="M42" s="7"/>
+      <c r="N42" s="7"/>
+      <c r="O42" s="7"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
     </row>
     <row r="43" ht="21" customHeight="1" spans="1:17">
       <c r="A43" s="5"/>
@@ -8892,25 +8861,6 @@
       <c r="O46" s="7"/>
       <c r="P46" s="9"/>
       <c r="Q46" s="9"/>
-    </row>
-    <row r="47" ht="21" customHeight="1" spans="1:17">
-      <c r="A47" s="5"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="6"/>
-      <c r="G47" s="7"/>
-      <c r="H47" s="7"/>
-      <c r="I47" s="7"/>
-      <c r="J47" s="7"/>
-      <c r="K47" s="7"/>
-      <c r="L47" s="7"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="7"/>
-      <c r="O47" s="7"/>
-      <c r="P47" s="9"/>
-      <c r="Q47" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -8942,10 +8892,10 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -8962,7 +8912,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>395</v>
@@ -8999,10 +8949,10 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>389</v>
@@ -9025,7 +8975,7 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>395</v>
@@ -9042,7 +8992,7 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>395</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19890" windowHeight="7710" firstSheet="4" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="910" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="452">
   <si>
     <t>lookup_type</t>
   </si>
@@ -748,6 +748,12 @@
   </si>
   <si>
     <t>非生产环境</t>
+  </si>
+  <si>
+    <t>multiMember</t>
+  </si>
+  <si>
+    <t>多选人员</t>
   </si>
   <si>
     <t>agile_quick_filter_field</t>
@@ -1380,8 +1386,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
@@ -1419,14 +1425,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1436,37 +1442,6 @@
       <color theme="1"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1495,30 +1470,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1546,19 +1529,42 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1577,30 +1583,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1613,7 +1595,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1625,7 +1727,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,121 +1763,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1801,6 +1807,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1816,13 +1831,41 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1845,15 +1888,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1862,39 +1896,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1904,10 +1910,10 @@
     <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1916,138 +1922,138 @@
     <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2070,6 +2076,7 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="50">
@@ -3764,10 +3771,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D96" sqref="D96"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -5426,6 +5433,34 @@
       <c r="H94" s="3" t="s">
         <v>241</v>
       </c>
+    </row>
+    <row r="95" customHeight="1" spans="1:8">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="F95" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="G95" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="H95" s="3" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="96" customHeight="1" spans="1:8">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16"/>
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
+      <c r="E96" s="16"/>
+      <c r="F96" s="16"/>
+      <c r="G96" s="16"/>
+      <c r="H96" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
@@ -5521,19 +5556,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -5545,13 +5580,13 @@
         <v>110</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G8" s="13" t="s">
         <v>111</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" ht="17" customHeight="1" spans="1:8">
@@ -5563,13 +5598,13 @@
         <v>19</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G9" s="13" t="s">
         <v>21</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" ht="17" customHeight="1" spans="1:8">
@@ -5578,16 +5613,16 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" ht="17" customHeight="1" spans="1:8">
@@ -5596,16 +5631,16 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H11" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="12" ht="17" customHeight="1" spans="1:8">
@@ -5614,16 +5649,16 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="F12" s="13" t="s">
         <v>236</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H12" s="13" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="13" ht="17" customHeight="1" spans="1:8">
@@ -5632,16 +5667,16 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>236</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" ht="17" customHeight="1" spans="1:8">
@@ -5650,16 +5685,16 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" ht="17" customHeight="1" spans="1:8">
@@ -5668,16 +5703,16 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="F15" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G15" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="16" ht="17" customHeight="1" spans="1:8">
@@ -5689,13 +5724,13 @@
         <v>118</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G16" s="13" t="s">
         <v>119</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" ht="17" customHeight="1" spans="1:8">
@@ -5704,16 +5739,16 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" ht="17" customHeight="1" spans="1:8">
@@ -5722,16 +5757,16 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="13" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G18" s="13" t="s">
         <v>113</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" ht="17" customHeight="1" spans="1:8">
@@ -5740,16 +5775,16 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" ht="17" customHeight="1" spans="1:8">
@@ -5758,16 +5793,16 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G20" s="13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" ht="17" customHeight="1" spans="1:8">
@@ -5776,16 +5811,16 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="F21" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G21" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
     </row>
     <row r="22" ht="17" customHeight="1" spans="1:8">
@@ -5794,16 +5829,16 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H22" s="13" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="23" ht="17" customHeight="1" spans="1:8">
@@ -5812,16 +5847,16 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="13" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F23" s="13" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G23" s="13" t="s">
+        <v>287</v>
+      </c>
+      <c r="H23" s="13" t="s">
         <v>285</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="24" ht="17" customHeight="1" spans="1:8">
@@ -5836,10 +5871,10 @@
         <v>227</v>
       </c>
       <c r="G24" s="13" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
   </sheetData>
@@ -5934,19 +5969,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="15" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -5955,13 +5990,13 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
@@ -5973,13 +6008,13 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G9" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H9" s="14">
         <v>0</v>
@@ -5991,13 +6026,13 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
@@ -6009,13 +6044,13 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="13" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
@@ -6027,13 +6062,13 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
@@ -6045,13 +6080,13 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H13" s="14">
         <v>1</v>
@@ -6063,13 +6098,13 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
@@ -6081,13 +6116,13 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="13" t="s">
         <v>300</v>
       </c>
-      <c r="F15" s="13" t="s">
-        <v>298</v>
-      </c>
       <c r="G15" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
@@ -6099,13 +6134,13 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
@@ -6117,13 +6152,13 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G17" s="13" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H17" s="14">
         <v>1</v>
@@ -6135,13 +6170,13 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="13" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H18" s="14">
         <v>0</v>
@@ -6153,13 +6188,13 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="F19" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="F19" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
@@ -6258,19 +6293,19 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="8" ht="17" customHeight="1" spans="1:8">
@@ -6280,7 +6315,7 @@
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="13" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="G8" s="14">
         <v>0</v>
@@ -6296,7 +6331,7 @@
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="13" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
@@ -6311,10 +6346,10 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="G10" s="14">
         <v>0</v>
@@ -6330,7 +6365,7 @@
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="13" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -6345,10 +6380,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G12" s="14">
         <v>0</v>
@@ -6363,10 +6398,10 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -6382,7 +6417,7 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -6398,7 +6433,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="13" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -6414,7 +6449,7 @@
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="13" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -6430,7 +6465,7 @@
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="13" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -6446,7 +6481,7 @@
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G18" s="14">
         <v>0</v>
@@ -6462,7 +6497,7 @@
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="13" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -6477,10 +6512,10 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -6496,7 +6531,7 @@
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -6512,7 +6547,7 @@
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="13" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
@@ -6528,7 +6563,7 @@
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -6544,7 +6579,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -6560,7 +6595,7 @@
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="13" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="G25" s="14">
         <v>0</v>
@@ -6576,7 +6611,7 @@
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="13" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="G26" s="14">
         <v>0</v>
@@ -6591,10 +6626,10 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="G27" s="14">
         <v>0</v>
@@ -6610,7 +6645,7 @@
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="13" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="G28" s="14">
         <v>0</v>
@@ -6626,7 +6661,7 @@
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
@@ -6641,10 +6676,10 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="13" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="G30" s="14">
         <v>0</v>
@@ -6660,7 +6695,7 @@
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="G31" s="14">
         <v>0</v>
@@ -6676,7 +6711,7 @@
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
@@ -6691,10 +6726,10 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="13" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -6710,7 +6745,7 @@
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="13" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G34" s="14">
         <v>1</v>
@@ -6726,7 +6761,7 @@
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="13" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="G35" s="14">
         <v>1</v>
@@ -6741,10 +6776,10 @@
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="G36" s="14">
         <v>0</v>
@@ -6760,7 +6795,7 @@
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="13" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -6776,7 +6811,7 @@
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -6792,7 +6827,7 @@
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="G39" s="14">
         <v>0</v>
@@ -6808,7 +6843,7 @@
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G40" s="14">
         <v>0</v>
@@ -6824,7 +6859,7 @@
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="13" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -6840,7 +6875,7 @@
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -6855,10 +6890,10 @@
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="G43" s="14">
         <v>0</v>
@@ -6874,7 +6909,7 @@
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="13" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
@@ -6890,7 +6925,7 @@
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="G45" s="14">
         <v>1</v>
@@ -6905,10 +6940,10 @@
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -6923,10 +6958,10 @@
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -6942,7 +6977,7 @@
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="13" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -6958,7 +6993,7 @@
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="13" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -6974,7 +7009,7 @@
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="13" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -6990,7 +7025,7 @@
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="13" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -7006,7 +7041,7 @@
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="13" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -7021,10 +7056,10 @@
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -7040,7 +7075,7 @@
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="13" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -7056,7 +7091,7 @@
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="13" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -7072,7 +7107,7 @@
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="13" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G56" s="14">
         <v>1</v>
@@ -7087,10 +7122,10 @@
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -7106,7 +7141,7 @@
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="13" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -7122,7 +7157,7 @@
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="13" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -7138,7 +7173,7 @@
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="13" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -7154,7 +7189,7 @@
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="13" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="G61" s="14">
         <v>1</v>
@@ -7169,10 +7204,10 @@
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -7188,7 +7223,7 @@
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="13" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
@@ -7204,7 +7239,7 @@
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -7219,10 +7254,10 @@
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -7238,7 +7273,7 @@
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="G66" s="14">
         <v>0</v>
@@ -7254,7 +7289,7 @@
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="13" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="G67" s="14">
         <v>0</v>
@@ -7270,7 +7305,7 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="13" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="G68" s="14">
         <v>1</v>
@@ -7286,7 +7321,7 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="13" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="G69" s="14">
         <v>1</v>
@@ -7301,10 +7336,10 @@
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="G70" s="14">
         <v>0</v>
@@ -7320,7 +7355,7 @@
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="13" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="G71" s="14">
         <v>0</v>
@@ -7336,7 +7371,7 @@
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="13" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="G72" s="14">
         <v>0</v>
@@ -7352,7 +7387,7 @@
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="13" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="G73" s="14">
         <v>0</v>
@@ -7368,7 +7403,7 @@
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="13" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="G74" s="14">
         <v>0</v>
@@ -7384,7 +7419,7 @@
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="13" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="G75" s="14">
         <v>0</v>
@@ -7400,7 +7435,7 @@
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="13" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="G76" s="14">
         <v>0</v>
@@ -7416,7 +7451,7 @@
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="13" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G77" s="14">
         <v>1</v>
@@ -7439,7 +7474,7 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -7577,13 +7612,13 @@
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
@@ -7595,22 +7630,22 @@
         <v>61</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
@@ -7621,37 +7656,37 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
@@ -7662,37 +7697,37 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
@@ -7703,37 +7738,37 @@
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L10" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
@@ -7744,37 +7779,37 @@
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
@@ -7785,10 +7820,10 @@
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>119</v>
@@ -7800,10 +7835,10 @@
         <v>223</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>93</v>
@@ -7812,10 +7847,10 @@
         <v>201</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
@@ -7826,37 +7861,37 @@
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
@@ -7867,7 +7902,7 @@
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -7882,22 +7917,22 @@
         <v>229</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
@@ -7908,37 +7943,37 @@
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>231</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
@@ -7949,37 +7984,37 @@
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>231</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L16" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
@@ -7990,25 +8025,25 @@
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>231</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>99</v>
@@ -8017,10 +8052,10 @@
         <v>201</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
@@ -8031,37 +8066,37 @@
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>231</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L18" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
@@ -8072,10 +8107,10 @@
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>113</v>
@@ -8087,22 +8122,22 @@
         <v>229</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
@@ -8113,37 +8148,37 @@
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L20" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
@@ -8154,25 +8189,25 @@
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
@@ -8181,10 +8216,10 @@
         <v>201</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
@@ -8195,37 +8230,37 @@
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>233</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
@@ -8236,7 +8271,7 @@
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>110</v>
@@ -8251,22 +8286,22 @@
         <v>233</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K23" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L23" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
@@ -8277,37 +8312,37 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="G24" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
@@ -8318,37 +8353,37 @@
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
@@ -8359,37 +8394,37 @@
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
@@ -8400,37 +8435,37 @@
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J27" s="16" t="s">
-        <v>395</v>
+      <c r="J27" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="K27" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L27" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
@@ -8441,37 +8476,37 @@
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="J28" s="16" t="s">
-        <v>395</v>
+      <c r="J28" s="17" t="s">
+        <v>397</v>
       </c>
       <c r="K28" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="L28" s="3" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
@@ -8482,16 +8517,16 @@
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>233</v>
@@ -8503,7 +8538,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>201</v>
@@ -8523,7 +8558,7 @@
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>63</v>
@@ -8892,19 +8927,19 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="5:8">
@@ -8912,13 +8947,13 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
@@ -8949,22 +8984,22 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
     </row>
     <row r="8" spans="5:9">
@@ -8975,13 +9010,13 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
     <row r="9" spans="5:9">
@@ -8992,13 +9027,13 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -753,7 +753,7 @@
     <t>multiMember</t>
   </si>
   <si>
-    <t>多选人员</t>
+    <t>人员(多选)</t>
   </si>
   <si>
     <t>agile_quick_filter_field</t>
@@ -1385,10 +1385,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1418,14 +1418,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1438,23 +1462,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
@@ -1469,16 +1515,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="3"/>
       <name val="Helvetica Neue"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1492,53 +1539,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1552,17 +1554,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1583,31 +1583,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,85 +1637,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1709,43 +1655,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1763,7 +1673,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1811,7 +1811,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1827,6 +1827,56 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1849,206 +1899,156 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -3774,7 +3774,7 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C063D72-ABBB-A743-AC02-DD2603FFBAC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="2" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="453">
   <si>
     <t>lookup_type</t>
   </si>
@@ -891,9 +897,6 @@
     <t>类型</t>
   </si>
   <si>
-    <t>type_code</t>
-  </si>
-  <si>
     <t>agile_message</t>
   </si>
   <si>
@@ -1378,19 +1381,21 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
+  </si>
+  <si>
+    <t>long</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>issue_type_id</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1407,7 +1412,6 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1417,158 +1421,26 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,194 +1453,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1806,267 +1492,25 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2077,60 +1521,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2203,6 +1601,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3241,88 +2642,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3330,8 +2729,9 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3340,24 +2740,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A17" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="12" customWidth="1"/>
     <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3366,7 +2765,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3375,7 +2774,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3384,7 +2783,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3393,7 +2792,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3402,7 +2801,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3411,7 +2810,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3428,7 +2827,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3443,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3458,7 +2857,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3473,7 +2872,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3488,7 +2887,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3503,7 +2902,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3518,7 +2917,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3533,7 +2932,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3548,7 +2947,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3563,7 +2962,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3578,7 +2977,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3593,7 +2992,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3608,7 +3007,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3623,7 +3022,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3638,7 +3037,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3653,7 +3052,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3668,7 +3067,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3683,7 +3082,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3698,7 +3097,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3713,7 +3112,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3728,7 +3127,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3743,7 +3142,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3759,8 +3158,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3769,26 +3169,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV96"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3798,7 +3197,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3808,7 +3207,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3818,7 +3217,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3828,7 +3227,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3838,7 +3237,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3848,7 +3247,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3868,7 +3267,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3886,7 +3285,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3904,7 +3303,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3922,7 +3321,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3940,7 +3339,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3958,7 +3357,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3976,7 +3375,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3994,7 +3393,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4012,7 +3411,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4030,7 +3429,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4048,7 +3447,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4066,7 +3465,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4084,7 +3483,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4102,7 +3501,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4120,7 +3519,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4138,7 +3537,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4156,7 +3555,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4174,7 +3573,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4192,7 +3591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4210,7 +3609,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4228,7 +3627,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4246,7 +3645,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4264,7 +3663,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4282,7 +3681,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4300,7 +3699,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4318,7 +3717,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4336,7 +3735,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4354,7 +3753,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4372,7 +3771,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4390,7 +3789,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4408,7 +3807,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4426,7 +3825,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4444,7 +3843,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4462,7 +3861,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4480,7 +3879,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4498,7 +3897,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4516,7 +3915,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4534,7 +3933,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4552,7 +3951,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4570,7 +3969,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4588,7 +3987,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4606,7 +4005,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4624,7 +4023,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4642,7 +4041,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4660,7 +4059,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" ht="17" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4678,7 +4077,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4696,7 +4095,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4714,7 +4113,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4732,7 +4131,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4750,7 +4149,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4768,7 +4167,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4786,7 +4185,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4804,7 +4203,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4822,7 +4221,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4840,7 +4239,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4858,7 +4257,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4876,7 +4275,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4894,7 +4293,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4912,7 +4311,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4930,7 +4329,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4948,7 +4347,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4966,7 +4365,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4984,7 +4383,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5002,7 +4401,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5020,7 +4419,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5038,7 +4437,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5056,7 +4455,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5074,7 +4473,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5092,7 +4491,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5110,7 +4509,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5128,7 +4527,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:8">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5146,7 +4545,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:8">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5164,7 +4563,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:8">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5182,7 +4581,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:8">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5200,7 +4599,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:8">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5218,7 +4617,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:8">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5236,7 +4635,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:8">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5254,7 +4653,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:8">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5272,7 +4671,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:8">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5290,7 +4689,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:8">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5308,7 +4707,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:8">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5326,7 +4725,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:8">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5344,7 +4743,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:8">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5362,7 +4761,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:8">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5380,7 +4779,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:8">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5398,7 +4797,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:8">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5416,7 +4815,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:8">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5434,7 +4833,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:8">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5452,7 +4851,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:8">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5463,8 +4862,9 @@
       <c r="H96" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5472,26 +4872,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="12" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5501,7 +4900,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5511,7 +4910,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5521,7 +4920,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5531,7 +4930,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5541,7 +4940,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5551,7 +4950,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5571,7 +4970,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5589,7 +4988,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5607,7 +5006,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5625,7 +5024,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5643,7 +5042,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5661,7 +5060,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5679,7 +5078,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5697,7 +5096,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5715,7 +5114,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5733,7 +5132,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5751,7 +5150,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5769,7 +5168,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5787,7 +5186,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5805,7 +5204,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5823,7 +5222,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5841,7 +5240,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5859,7 +5258,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5867,19 +5266,20 @@
       <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="13" t="s">
-        <v>227</v>
+      <c r="F24" s="18" t="s">
+        <v>451</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="H24" s="13" t="s">
-        <v>289</v>
+      <c r="H24" s="18" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5887,24 +5287,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5914,7 +5311,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5924,7 +5321,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5934,7 +5331,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5944,7 +5341,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5954,7 +5351,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5964,51 +5361,51 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="15" t="s">
+        <v>289</v>
+      </c>
+      <c r="E7" s="13" t="s">
         <v>290</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="F7" s="13" t="s">
         <v>291</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="G7" s="13" t="s">
         <v>292</v>
       </c>
-      <c r="G7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="H7" s="13" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="13" t="s">
+        <v>294</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>295</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="G8" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G8" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>254</v>
@@ -6020,67 +5417,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F10" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G10" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="G10" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="13" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G11" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="G11" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F12" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G12" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G12" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>254</v>
@@ -6092,67 +5489,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F14" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G14" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="G14" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="13" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F15" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F16" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="G16" s="13" t="s">
         <v>296</v>
-      </c>
-      <c r="G16" s="13" t="s">
-        <v>297</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>254</v>
@@ -6164,45 +5561,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F18" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="G18" s="13" t="s">
         <v>298</v>
-      </c>
-      <c r="G18" s="13" t="s">
-        <v>299</v>
       </c>
       <c r="H18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F19" s="13" t="s">
+        <v>299</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>300</v>
-      </c>
-      <c r="G19" s="13" t="s">
-        <v>301</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -6211,24 +5609,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="12" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6238,7 +5635,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6248,7 +5645,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6258,7 +5655,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6268,7 +5665,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6278,7 +5675,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6288,34 +5685,34 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>251</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="13" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G8" s="14">
         <v>0</v>
@@ -6324,14 +5721,14 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="13" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
@@ -6340,16 +5737,16 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
+        <v>308</v>
+      </c>
+      <c r="F10" s="13" t="s">
         <v>309</v>
-      </c>
-      <c r="F10" s="13" t="s">
-        <v>310</v>
       </c>
       <c r="G10" s="14">
         <v>0</v>
@@ -6358,14 +5755,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="13" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -6374,16 +5771,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
+        <v>311</v>
+      </c>
+      <c r="F12" s="13" t="s">
         <v>312</v>
-      </c>
-      <c r="F12" s="13" t="s">
-        <v>313</v>
       </c>
       <c r="G12" s="14">
         <v>0</v>
@@ -6392,16 +5789,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
+        <v>313</v>
+      </c>
+      <c r="F13" s="13" t="s">
         <v>314</v>
-      </c>
-      <c r="F13" s="13" t="s">
-        <v>315</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -6410,14 +5807,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -6426,14 +5823,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="13" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -6442,14 +5839,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="13" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -6458,14 +5855,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="13" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -6474,14 +5871,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G18" s="14">
         <v>0</v>
@@ -6490,14 +5887,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="13" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -6506,16 +5903,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="F20" s="13" t="s">
         <v>322</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>323</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -6524,14 +5921,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -6540,14 +5937,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="13" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
@@ -6556,14 +5953,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -6572,14 +5969,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -6588,14 +5985,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G25" s="14">
         <v>0</v>
@@ -6604,14 +6001,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="13" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G26" s="14">
         <v>0</v>
@@ -6620,16 +6017,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
+        <v>329</v>
+      </c>
+      <c r="F27" s="13" t="s">
         <v>330</v>
-      </c>
-      <c r="F27" s="13" t="s">
-        <v>331</v>
       </c>
       <c r="G27" s="14">
         <v>0</v>
@@ -6638,14 +6035,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G28" s="14">
         <v>0</v>
@@ -6654,14 +6051,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
@@ -6670,16 +6067,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="F30" s="13" t="s">
         <v>334</v>
-      </c>
-      <c r="F30" s="13" t="s">
-        <v>335</v>
       </c>
       <c r="G30" s="14">
         <v>0</v>
@@ -6688,14 +6085,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G31" s="14">
         <v>0</v>
@@ -6704,14 +6101,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="13" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
@@ -6720,16 +6117,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="13" t="s">
+        <v>337</v>
+      </c>
+      <c r="F33" s="13" t="s">
         <v>338</v>
-      </c>
-      <c r="F33" s="13" t="s">
-        <v>339</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -6738,14 +6135,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="13" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G34" s="14">
         <v>1</v>
@@ -6754,14 +6151,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G35" s="14">
         <v>1</v>
@@ -6770,16 +6167,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
+        <v>341</v>
+      </c>
+      <c r="F36" s="13" t="s">
         <v>342</v>
-      </c>
-      <c r="F36" s="13" t="s">
-        <v>343</v>
       </c>
       <c r="G36" s="14">
         <v>0</v>
@@ -6788,14 +6185,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="13" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -6804,14 +6201,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -6820,14 +6217,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G39" s="14">
         <v>0</v>
@@ -6836,14 +6233,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G40" s="14">
         <v>0</v>
@@ -6852,14 +6249,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="13" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -6868,14 +6265,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -6884,16 +6281,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="G43" s="14">
         <v>0</v>
@@ -6902,14 +6299,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="13" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
@@ -6918,14 +6315,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G45" s="14">
         <v>1</v>
@@ -6934,16 +6331,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -6952,16 +6349,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -6970,14 +6367,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -6986,14 +6383,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -7002,14 +6399,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -7018,14 +6415,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="13" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -7034,14 +6431,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="13" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -7050,16 +6447,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -7068,14 +6465,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="13" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -7084,14 +6481,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="13" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -7100,14 +6497,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="13" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G56" s="14">
         <v>1</v>
@@ -7116,16 +6513,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -7134,14 +6531,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="13" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -7150,14 +6547,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -7166,14 +6563,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -7182,14 +6579,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G61" s="14">
         <v>1</v>
@@ -7198,16 +6595,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -7216,14 +6613,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
@@ -7232,14 +6629,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -7248,16 +6645,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -7266,14 +6663,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="13" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G66" s="14">
         <v>0</v>
@@ -7282,14 +6679,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="13" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G67" s="14">
         <v>0</v>
@@ -7298,14 +6695,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G68" s="14">
         <v>1</v>
@@ -7314,14 +6711,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G69" s="14">
         <v>1</v>
@@ -7330,16 +6727,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G70" s="14">
         <v>0</v>
@@ -7348,14 +6745,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G71" s="14">
         <v>0</v>
@@ -7364,14 +6761,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="13" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G72" s="14">
         <v>0</v>
@@ -7380,14 +6777,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G73" s="14">
         <v>0</v>
@@ -7396,14 +6793,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="13" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G74" s="14">
         <v>0</v>
@@ -7412,14 +6809,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G75" s="14">
         <v>0</v>
@@ -7428,14 +6825,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="13" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G76" s="14">
         <v>0</v>
@@ -7444,14 +6841,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="13" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G77" s="14">
         <v>1</v>
@@ -7461,8 +6858,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7470,30 +6868,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:JE46"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="17" width="23.1666666666667" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.6640625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.1640625" style="2" customWidth="1"/>
     <col min="18" max="265" width="9" style="2" customWidth="1"/>
     <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7512,7 +6909,7 @@
       <c r="P1" s="8"/>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7531,7 +6928,7 @@
       <c r="P2" s="8"/>
       <c r="Q2" s="8"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7550,7 +6947,7 @@
       <c r="P3" s="8"/>
       <c r="Q3" s="8"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:17">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7569,7 +6966,7 @@
       <c r="P4" s="8"/>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:17">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7588,7 +6985,7 @@
       <c r="P5" s="8"/>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:17">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7607,18 +7004,18 @@
       <c r="P6" s="8"/>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:17">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>385</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>386</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>387</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
@@ -7630,200 +7027,200 @@
         <v>61</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>387</v>
+      </c>
+      <c r="K7" s="3" t="s">
         <v>388</v>
       </c>
-      <c r="K7" s="3" t="s">
+      <c r="L7" s="3" t="s">
         <v>389</v>
       </c>
-      <c r="L7" s="3" t="s">
+      <c r="M7" s="3" t="s">
         <v>390</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="N7" s="3" t="s">
         <v>391</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="O7" s="3" t="s">
         <v>392</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>393</v>
       </c>
       <c r="P7" s="9"/>
       <c r="Q7" s="9"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:17">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
+        <v>393</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>394</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>395</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>396</v>
-      </c>
       <c r="H8" s="3" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L8" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P8" s="9"/>
       <c r="Q8" s="9"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:17">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>400</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="3" t="s">
         <v>401</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>402</v>
-      </c>
       <c r="H9" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K9" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L9" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K9" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L9" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P9" s="9"/>
       <c r="Q9" s="9"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:17">
+    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P10" s="9"/>
       <c r="Q10" s="9"/>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:17">
+    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F11" s="3" t="s">
         <v>405</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>407</v>
-      </c>
       <c r="H11" s="3" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P11" s="9"/>
       <c r="Q11" s="9"/>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:17">
+    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>119</v>
@@ -7835,10 +7232,10 @@
         <v>223</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>93</v>
@@ -7847,21 +7244,21 @@
         <v>201</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P12" s="9"/>
       <c r="Q12" s="9"/>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:17">
+    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>251</v>
@@ -7876,33 +7273,33 @@
         <v>229</v>
       </c>
       <c r="J13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L13" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K13" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L13" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P13" s="9"/>
       <c r="Q13" s="9"/>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:17">
+    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -7917,33 +7314,33 @@
         <v>229</v>
       </c>
       <c r="J14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P14" s="9"/>
       <c r="Q14" s="9"/>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:17">
+    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>280</v>
@@ -7958,33 +7355,33 @@
         <v>231</v>
       </c>
       <c r="J15" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K15" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P15" s="9"/>
       <c r="Q15" s="9"/>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:17">
+    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>277</v>
@@ -7999,36 +7396,36 @@
         <v>231</v>
       </c>
       <c r="J16" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K16" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P16" s="9"/>
       <c r="Q16" s="9"/>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:17">
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>287</v>
@@ -8040,10 +7437,10 @@
         <v>231</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>99</v>
@@ -8052,24 +7449,24 @@
         <v>201</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P17" s="9"/>
       <c r="Q17" s="9"/>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:17">
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>284</v>
@@ -8081,33 +7478,33 @@
         <v>231</v>
       </c>
       <c r="J18" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K18" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P18" s="9"/>
       <c r="Q18" s="9"/>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:17">
+    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>272</v>
@@ -8122,33 +7519,33 @@
         <v>229</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P19" s="9"/>
       <c r="Q19" s="9"/>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:17">
+    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>274</v>
@@ -8163,51 +7560,51 @@
         <v>229</v>
       </c>
       <c r="J20" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P20" s="9"/>
       <c r="Q20" s="9"/>
     </row>
-    <row r="21" ht="21" customHeight="1" spans="1:17">
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
@@ -8216,21 +7613,21 @@
         <v>201</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P21" s="9"/>
       <c r="Q21" s="9"/>
     </row>
-    <row r="22" ht="21" customHeight="1" spans="1:17">
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>254</v>
@@ -8245,33 +7642,33 @@
         <v>233</v>
       </c>
       <c r="J22" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K22" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L22" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P22" s="9"/>
       <c r="Q22" s="9"/>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="1:17">
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>110</v>
@@ -8286,36 +7683,36 @@
         <v>233</v>
       </c>
       <c r="J23" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K23" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K23" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P23" s="9"/>
       <c r="Q23" s="9"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:17">
+    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>258</v>
@@ -8327,36 +7724,36 @@
         <v>220</v>
       </c>
       <c r="J24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K24" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L24" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K24" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P24" s="10"/>
       <c r="Q24" s="10"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:17">
+    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>260</v>
@@ -8368,165 +7765,165 @@
         <v>220</v>
       </c>
       <c r="J25" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="K25" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="L25" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K25" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P25" s="10"/>
       <c r="Q25" s="10"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:17">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
     </row>
-    <row r="27" ht="22" customHeight="1" spans="1:17">
+    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J27" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="K27" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K27" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P27" s="10"/>
       <c r="Q27" s="10"/>
     </row>
-    <row r="28" ht="22" customHeight="1" spans="1:17">
+    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J28" s="17" t="s">
+        <v>396</v>
+      </c>
+      <c r="K28" s="3" t="s">
+        <v>398</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>397</v>
-      </c>
-      <c r="K28" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>398</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P28" s="10"/>
       <c r="Q28" s="10"/>
     </row>
-    <row r="29" ht="22" customHeight="1" spans="1:17">
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>233</v>
@@ -8538,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>201</v>
@@ -8552,13 +7949,13 @@
       <c r="P29" s="10"/>
       <c r="Q29" s="10"/>
     </row>
-    <row r="30" ht="22" customHeight="1" spans="1:17">
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>63</v>
@@ -8593,7 +7990,7 @@
       <c r="P30" s="10"/>
       <c r="Q30" s="10"/>
     </row>
-    <row r="31" ht="22" customHeight="1" spans="1:17">
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8612,7 +8009,7 @@
       <c r="P31" s="10"/>
       <c r="Q31" s="10"/>
     </row>
-    <row r="32" ht="22" customHeight="1" spans="1:17">
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8631,7 +8028,7 @@
       <c r="P32" s="10"/>
       <c r="Q32" s="10"/>
     </row>
-    <row r="33" ht="22" customHeight="1" spans="1:17">
+    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8650,7 +8047,7 @@
       <c r="P33" s="10"/>
       <c r="Q33" s="10"/>
     </row>
-    <row r="34" ht="22" customHeight="1" spans="1:17">
+    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8669,7 +8066,7 @@
       <c r="P34" s="10"/>
       <c r="Q34" s="10"/>
     </row>
-    <row r="35" ht="22" customHeight="1" spans="1:17">
+    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8688,7 +8085,7 @@
       <c r="P35" s="10"/>
       <c r="Q35" s="10"/>
     </row>
-    <row r="36" ht="22" customHeight="1" spans="1:17">
+    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8707,7 +8104,7 @@
       <c r="P36" s="10"/>
       <c r="Q36" s="10"/>
     </row>
-    <row r="37" ht="22" customHeight="1" spans="1:17">
+    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8726,7 +8123,7 @@
       <c r="P37" s="10"/>
       <c r="Q37" s="10"/>
     </row>
-    <row r="38" ht="22" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8745,7 +8142,7 @@
       <c r="P38" s="10"/>
       <c r="Q38" s="10"/>
     </row>
-    <row r="39" ht="22" customHeight="1" spans="1:17">
+    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8764,7 +8161,7 @@
       <c r="P39" s="10"/>
       <c r="Q39" s="10"/>
     </row>
-    <row r="40" ht="22" customHeight="1" spans="1:17">
+    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8783,7 +8180,7 @@
       <c r="P40" s="10"/>
       <c r="Q40" s="10"/>
     </row>
-    <row r="41" ht="22" customHeight="1" spans="1:17">
+    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -8802,7 +8199,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" ht="21" customHeight="1" spans="1:17">
+    <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="5"/>
       <c r="B42" s="5"/>
       <c r="C42" s="5"/>
@@ -8821,7 +8218,7 @@
       <c r="P42" s="9"/>
       <c r="Q42" s="9"/>
     </row>
-    <row r="43" ht="21" customHeight="1" spans="1:17">
+    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="5"/>
       <c r="B43" s="5"/>
       <c r="C43" s="5"/>
@@ -8840,7 +8237,7 @@
       <c r="P43" s="9"/>
       <c r="Q43" s="9"/>
     </row>
-    <row r="44" ht="21" customHeight="1" spans="1:17">
+    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="5"/>
       <c r="B44" s="5"/>
       <c r="C44" s="5"/>
@@ -8859,7 +8256,7 @@
       <c r="P44" s="9"/>
       <c r="Q44" s="9"/>
     </row>
-    <row r="45" ht="21" customHeight="1" spans="1:17">
+    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="5"/>
       <c r="B45" s="5"/>
       <c r="C45" s="5"/>
@@ -8878,7 +8275,7 @@
       <c r="P45" s="9"/>
       <c r="Q45" s="9"/>
     </row>
-    <row r="46" ht="21" customHeight="1" spans="1:17">
+    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="5"/>
       <c r="B46" s="5"/>
       <c r="C46" s="5"/>
@@ -8898,8 +8295,9 @@
       <c r="Q46" s="9"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8907,102 +8305,100 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="1"/>
-    <col min="4" max="4" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8333333333333" style="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>445</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>446</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="5:8">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.8333333333333" style="1"/>
-    <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8333333333333" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>448</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>449</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="8" spans="5:9">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
@@ -9010,16 +8406,16 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="9" spans="5:9">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
@@ -9027,18 +8423,18 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C063D72-ABBB-A743-AC02-DD2603FFBAC8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="5" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="456">
   <si>
     <t>lookup_type</t>
   </si>
@@ -897,6 +891,9 @@
     <t>类型</t>
   </si>
   <si>
+    <t>issue_type_id</t>
+  </si>
+  <si>
     <t>agile_message</t>
   </si>
   <si>
@@ -1362,6 +1359,18 @@
     <t>fd_object_scheme_field-31</t>
   </si>
   <si>
+    <t>fd_object_scheme_field-32</t>
+  </si>
+  <si>
+    <t>creator</t>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-33</t>
+  </si>
+  <si>
+    <t>updator</t>
+  </si>
+  <si>
     <t>fd_object_scheme</t>
   </si>
   <si>
@@ -1381,21 +1390,19 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
-  </si>
-  <si>
-    <t>long</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>issue_type_id</t>
-    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1412,6 +1419,7 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1421,26 +1429,158 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="DengXian"/>
-      <family val="4"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1453,8 +1593,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1492,43 +1818,331 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="50">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -1601,9 +2215,6 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -2642,86 +3253,88 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:IV10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="5" width="9.83333333333333" style="12" customWidth="1"/>
     <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:5">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:5">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:5">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:5">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:5">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:5">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:5">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:5">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:5">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:5">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2729,9 +3342,8 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -2740,23 +3352,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:IV29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6666666666667" style="12" customWidth="1"/>
     <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:7">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2765,7 +3378,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:7">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2774,7 +3387,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:7">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2783,7 +3396,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:7">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2792,7 +3405,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:7">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2801,7 +3414,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:7">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2810,7 +3423,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:7">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2827,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:7">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2842,7 +3455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:7">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2857,7 +3470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:7">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2872,7 +3485,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:7">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2887,7 +3500,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:7">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2902,7 +3515,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:7">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2917,7 +3530,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:7">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2932,7 +3545,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:7">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2947,7 +3560,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:7">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2962,7 +3575,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:7">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -2977,7 +3590,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:7">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -2992,7 +3605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" customHeight="1" spans="1:7">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3007,7 +3620,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" customHeight="1" spans="1:7">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3022,7 +3635,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" customHeight="1" spans="1:7">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3037,7 +3650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" customHeight="1" spans="1:7">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3052,7 +3665,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" customHeight="1" spans="1:7">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3067,7 +3680,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" customHeight="1" spans="1:7">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3082,7 +3695,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" customHeight="1" spans="1:7">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3097,7 +3710,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" customHeight="1" spans="1:7">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3112,7 +3725,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" customHeight="1" spans="1:7">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3127,7 +3740,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" customHeight="1" spans="1:7">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3142,7 +3755,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" customHeight="1" spans="1:7">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3158,9 +3771,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3169,25 +3781,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:IV96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.3333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6666666666667" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1666666666667" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3197,7 +3810,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3207,7 +3820,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3217,7 +3830,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3227,7 +3840,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3237,7 +3850,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3247,7 +3860,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3267,7 +3880,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3285,7 +3898,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3303,7 +3916,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3321,7 +3934,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3339,7 +3952,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3357,7 +3970,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3375,7 +3988,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3393,7 +4006,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3411,7 +4024,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3429,7 +4042,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3447,7 +4060,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3465,7 +4078,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3483,7 +4096,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3501,7 +4114,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3519,7 +4132,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3537,7 +4150,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3555,7 +4168,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3573,7 +4186,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3591,7 +4204,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3609,7 +4222,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3627,7 +4240,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3645,7 +4258,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3663,7 +4276,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3681,7 +4294,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3699,7 +4312,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3717,7 +4330,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3735,7 +4348,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3753,7 +4366,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3771,7 +4384,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3789,7 +4402,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3807,7 +4420,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3825,7 +4438,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3843,7 +4456,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3861,7 +4474,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3879,7 +4492,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3897,7 +4510,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3915,7 +4528,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" ht="17" customHeight="1" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3933,7 +4546,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" ht="17" customHeight="1" spans="1:8">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3951,7 +4564,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" ht="17" customHeight="1" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3969,7 +4582,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" ht="17" customHeight="1" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3987,7 +4600,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" ht="17" customHeight="1" spans="1:8">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4005,7 +4618,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" ht="17" customHeight="1" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4023,7 +4636,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" ht="17" customHeight="1" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4041,7 +4654,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" ht="17" customHeight="1" spans="1:8">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4059,7 +4672,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" ht="17" customHeight="1" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4077,7 +4690,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4095,7 +4708,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4113,7 +4726,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4131,7 +4744,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4149,7 +4762,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4167,7 +4780,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4185,7 +4798,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4203,7 +4816,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4221,7 +4834,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4239,7 +4852,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4257,7 +4870,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4275,7 +4888,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4293,7 +4906,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4311,7 +4924,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4329,7 +4942,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4347,7 +4960,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4365,7 +4978,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4383,7 +4996,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4401,7 +5014,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4419,7 +5032,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4437,7 +5050,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4455,7 +5068,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4473,7 +5086,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4491,7 +5104,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4509,7 +5122,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4527,7 +5140,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" customHeight="1" spans="1:8">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4545,7 +5158,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" customHeight="1" spans="1:8">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4563,7 +5176,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" customHeight="1" spans="1:8">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4581,7 +5194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" customHeight="1" spans="1:8">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4599,7 +5212,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" customHeight="1" spans="1:8">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4617,7 +5230,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" customHeight="1" spans="1:8">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4635,7 +5248,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" customHeight="1" spans="1:8">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4653,7 +5266,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" customHeight="1" spans="1:8">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4671,7 +5284,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" customHeight="1" spans="1:8">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4689,7 +5302,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" customHeight="1" spans="1:8">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4707,7 +5320,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" customHeight="1" spans="1:8">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4725,7 +5338,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" customHeight="1" spans="1:8">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4743,7 +5356,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" customHeight="1" spans="1:8">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4761,7 +5374,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" customHeight="1" spans="1:8">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4779,7 +5392,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" customHeight="1" spans="1:8">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4797,7 +5410,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" customHeight="1" spans="1:8">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4815,7 +5428,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" customHeight="1" spans="1:8">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4833,7 +5446,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" customHeight="1" spans="1:8">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4851,7 +5464,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" customHeight="1" spans="1:8">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -4862,9 +5475,8 @@
       <c r="H96" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -4872,25 +5484,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:IV24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.1666666666667" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.3333333333333" style="12" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4900,7 +5513,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4910,7 +5523,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4920,7 +5533,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4930,7 +5543,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4940,7 +5553,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4950,7 +5563,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4970,7 +5583,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -4988,7 +5601,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5006,7 +5619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5024,7 +5637,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5042,7 +5655,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5060,7 +5673,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5078,7 +5691,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5096,7 +5709,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5114,7 +5727,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5132,7 +5745,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5150,7 +5763,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5168,7 +5781,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5186,7 +5799,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5204,7 +5817,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5222,7 +5835,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5240,7 +5853,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5258,7 +5871,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5266,20 +5879,19 @@
       <c r="E24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="18" t="s">
-        <v>451</v>
+      <c r="F24" s="13" t="s">
+        <v>248</v>
       </c>
       <c r="G24" s="13" t="s">
         <v>288</v>
       </c>
-      <c r="H24" s="18" t="s">
-        <v>452</v>
+      <c r="H24" s="13" t="s">
+        <v>289</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5287,21 +5899,24 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:IV19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.6666666666667" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5311,7 +5926,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5321,7 +5936,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5331,7 +5946,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5341,7 +5956,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5351,7 +5966,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5361,51 +5976,51 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="15" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="G7" s="13" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F8" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G8" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H8" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F9" s="13" t="s">
         <v>254</v>
@@ -5417,67 +6032,67 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H10" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="13" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F11" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H11" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G12" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H12" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F13" s="13" t="s">
         <v>254</v>
@@ -5489,67 +6104,67 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="13" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G14" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H14" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="13" t="s">
+        <v>302</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>300</v>
+      </c>
+      <c r="G15" s="13" t="s">
         <v>301</v>
-      </c>
-      <c r="F15" s="13" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" s="13" t="s">
-        <v>300</v>
       </c>
       <c r="H15" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F16" s="13" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H16" s="14">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F17" s="13" t="s">
         <v>254</v>
@@ -5561,46 +6176,45 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H18" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="13" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="F19" s="13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="H19" s="14">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -5609,23 +6223,24 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:IV77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.8333333333333" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.8333333333333" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="12" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.8333333333333" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:8">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5635,7 +6250,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" ht="17" customHeight="1" spans="1:8">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5645,7 +6260,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" ht="17" customHeight="1" spans="1:8">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5655,7 +6270,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" ht="17" customHeight="1" spans="1:8">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5665,7 +6280,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" ht="17" customHeight="1" spans="1:8">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5675,7 +6290,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" ht="17" customHeight="1" spans="1:8">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5685,34 +6300,34 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" ht="17" customHeight="1" spans="1:8">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="13" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="E7" s="13" t="s">
         <v>2</v>
       </c>
       <c r="F7" s="13" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G7" s="13" t="s">
         <v>251</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:8">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="13" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="G8" s="14">
         <v>0</v>
@@ -5721,14 +6336,14 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" ht="17" customHeight="1" spans="1:8">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="G9" s="14">
         <v>0</v>
@@ -5737,16 +6352,16 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" ht="17" customHeight="1" spans="1:8">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="13" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G10" s="14">
         <v>0</v>
@@ -5755,14 +6370,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" ht="17" customHeight="1" spans="1:8">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="13" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G11" s="14">
         <v>1</v>
@@ -5771,16 +6386,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" ht="17" customHeight="1" spans="1:8">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="13" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F12" s="13" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G12" s="14">
         <v>0</v>
@@ -5789,16 +6404,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" ht="17" customHeight="1" spans="1:8">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G13" s="14">
         <v>0</v>
@@ -5807,14 +6422,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" ht="17" customHeight="1" spans="1:8">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="13" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G14" s="14">
         <v>0</v>
@@ -5823,14 +6438,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" ht="17" customHeight="1" spans="1:8">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="13" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G15" s="14">
         <v>0</v>
@@ -5839,14 +6454,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" ht="17" customHeight="1" spans="1:8">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="13" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="G16" s="14">
         <v>0</v>
@@ -5855,14 +6470,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" ht="17" customHeight="1" spans="1:8">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="13" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="G17" s="14">
         <v>0</v>
@@ -5871,14 +6486,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" ht="17" customHeight="1" spans="1:8">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="13" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G18" s="14">
         <v>0</v>
@@ -5887,14 +6502,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" ht="17" customHeight="1" spans="1:8">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="13" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G19" s="14">
         <v>1</v>
@@ -5903,16 +6518,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" ht="17" customHeight="1" spans="1:8">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="13" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="G20" s="14">
         <v>0</v>
@@ -5921,14 +6536,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" ht="17" customHeight="1" spans="1:8">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="13" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G21" s="14">
         <v>0</v>
@@ -5937,14 +6552,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" ht="17" customHeight="1" spans="1:8">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="13" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="G22" s="14">
         <v>0</v>
@@ -5953,14 +6568,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" ht="17" customHeight="1" spans="1:8">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="13" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G23" s="14">
         <v>1</v>
@@ -5969,14 +6584,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" ht="17" customHeight="1" spans="1:8">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G24" s="14">
         <v>1</v>
@@ -5985,14 +6600,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" ht="17" customHeight="1" spans="1:8">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="13" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G25" s="14">
         <v>0</v>
@@ -6001,14 +6616,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" ht="17" customHeight="1" spans="1:8">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="13" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G26" s="14">
         <v>0</v>
@@ -6017,16 +6632,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" ht="17" customHeight="1" spans="1:8">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="13" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F27" s="13" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G27" s="14">
         <v>0</v>
@@ -6035,14 +6650,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" ht="17" customHeight="1" spans="1:8">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="13" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="G28" s="14">
         <v>0</v>
@@ -6051,14 +6666,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" ht="17" customHeight="1" spans="1:8">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="13" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G29" s="14">
         <v>0</v>
@@ -6067,16 +6682,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" ht="17" customHeight="1" spans="1:8">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="13" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F30" s="13" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="G30" s="14">
         <v>0</v>
@@ -6085,14 +6700,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" ht="17" customHeight="1" spans="1:8">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="13" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="G31" s="14">
         <v>0</v>
@@ -6101,14 +6716,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" ht="17" customHeight="1" spans="1:8">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G32" s="14">
         <v>0</v>
@@ -6117,16 +6732,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" ht="17" customHeight="1" spans="1:8">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="13" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F33" s="13" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="G33" s="14">
         <v>0</v>
@@ -6135,14 +6750,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" ht="17" customHeight="1" spans="1:8">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="13" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="G34" s="14">
         <v>1</v>
@@ -6151,14 +6766,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" ht="17" customHeight="1" spans="1:8">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="13" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G35" s="14">
         <v>1</v>
@@ -6167,16 +6782,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" ht="17" customHeight="1" spans="1:8">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
       <c r="E36" s="13" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="G36" s="14">
         <v>0</v>
@@ -6185,14 +6800,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" ht="17" customHeight="1" spans="1:8">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="13" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="G37" s="14">
         <v>0</v>
@@ -6201,14 +6816,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" ht="17" customHeight="1" spans="1:8">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" s="13" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G38" s="14">
         <v>0</v>
@@ -6217,14 +6832,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" ht="17" customHeight="1" spans="1:8">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" s="13" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G39" s="14">
         <v>0</v>
@@ -6233,14 +6848,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" ht="17" customHeight="1" spans="1:8">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G40" s="14">
         <v>0</v>
@@ -6249,14 +6864,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" ht="17" customHeight="1" spans="1:8">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" s="13" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G41" s="14">
         <v>0</v>
@@ -6265,14 +6880,14 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" ht="17" customHeight="1" spans="1:8">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="G42" s="14">
         <v>0</v>
@@ -6281,16 +6896,16 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" ht="17" customHeight="1" spans="1:8">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
       <c r="E43" s="3" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="G43" s="14">
         <v>0</v>
@@ -6299,14 +6914,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" customHeight="1" spans="1:8">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
       <c r="E44" s="3"/>
       <c r="F44" s="13" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G44" s="14">
         <v>1</v>
@@ -6315,14 +6930,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" customHeight="1" spans="1:8">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
       <c r="E45" s="3"/>
       <c r="F45" s="13" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G45" s="14">
         <v>1</v>
@@ -6331,16 +6946,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" customHeight="1" spans="1:8">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
       <c r="E46" s="3" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="F46" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="G46" s="14">
         <v>0</v>
@@ -6349,16 +6964,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" customHeight="1" spans="1:8">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="F47" s="13" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G47" s="14">
         <v>0</v>
@@ -6367,14 +6982,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" customHeight="1" spans="1:8">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" s="13" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G48" s="14">
         <v>0</v>
@@ -6383,14 +6998,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" customHeight="1" spans="1:8">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
       <c r="F49" s="13" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="G49" s="14">
         <v>0</v>
@@ -6399,14 +7014,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" customHeight="1" spans="1:8">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
       <c r="F50" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G50" s="14">
         <v>0</v>
@@ -6415,14 +7030,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" customHeight="1" spans="1:8">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" s="13" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="G51" s="14">
         <v>0</v>
@@ -6431,14 +7046,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" customHeight="1" spans="1:8">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" s="13" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="G52" s="14">
         <v>0</v>
@@ -6447,16 +7062,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" customHeight="1" spans="1:8">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
       <c r="E53" s="3" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F53" s="13" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G53" s="14">
         <v>0</v>
@@ -6465,14 +7080,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" customHeight="1" spans="1:8">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="G54" s="14">
         <v>0</v>
@@ -6481,14 +7096,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" customHeight="1" spans="1:8">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" s="13" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G55" s="14">
         <v>0</v>
@@ -6497,14 +7112,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" customHeight="1" spans="1:8">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
       <c r="E56" s="3"/>
       <c r="F56" s="13" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="G56" s="14">
         <v>1</v>
@@ -6513,16 +7128,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" customHeight="1" spans="1:8">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
       <c r="E57" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F57" s="13" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="G57" s="14">
         <v>0</v>
@@ -6531,14 +7146,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" customHeight="1" spans="1:8">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G58" s="14">
         <v>0</v>
@@ -6547,14 +7162,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" customHeight="1" spans="1:8">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" s="13" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="G59" s="14">
         <v>0</v>
@@ -6563,14 +7178,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" customHeight="1" spans="1:8">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" s="13" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G60" s="14">
         <v>0</v>
@@ -6579,14 +7194,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" customHeight="1" spans="1:8">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" s="13" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="G61" s="14">
         <v>1</v>
@@ -6595,16 +7210,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" customHeight="1" spans="1:8">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
       <c r="E62" s="3" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="F62" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G62" s="14">
         <v>0</v>
@@ -6613,14 +7228,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" customHeight="1" spans="1:8">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" s="13" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="G63" s="14">
         <v>0</v>
@@ -6629,14 +7244,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" customHeight="1" spans="1:8">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" s="13" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G64" s="14">
         <v>0</v>
@@ -6645,16 +7260,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" customHeight="1" spans="1:8">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
       <c r="E65" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="F65" s="13" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G65" s="14">
         <v>0</v>
@@ -6663,14 +7278,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" customHeight="1" spans="1:8">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" s="13" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="G66" s="14">
         <v>0</v>
@@ -6679,14 +7294,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" customHeight="1" spans="1:8">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="G67" s="14">
         <v>0</v>
@@ -6695,14 +7310,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" customHeight="1" spans="1:8">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" s="13" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G68" s="14">
         <v>1</v>
@@ -6711,14 +7326,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" customHeight="1" spans="1:8">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" s="13" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="G69" s="14">
         <v>1</v>
@@ -6727,16 +7342,16 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" customHeight="1" spans="1:8">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
       <c r="E70" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F70" s="13" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="G70" s="14">
         <v>0</v>
@@ -6745,14 +7360,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" customHeight="1" spans="1:8">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
       <c r="E71" s="3"/>
       <c r="F71" s="13" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="G71" s="14">
         <v>0</v>
@@ -6761,14 +7376,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" customHeight="1" spans="1:8">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
       <c r="E72" s="3"/>
       <c r="F72" s="13" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="G72" s="14">
         <v>0</v>
@@ -6777,14 +7392,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" customHeight="1" spans="1:8">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
       <c r="E73" s="3"/>
       <c r="F73" s="13" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="G73" s="14">
         <v>0</v>
@@ -6793,14 +7408,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" customHeight="1" spans="1:8">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
       <c r="F74" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G74" s="14">
         <v>0</v>
@@ -6809,14 +7424,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" customHeight="1" spans="1:8">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" s="13" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="G75" s="14">
         <v>0</v>
@@ -6825,14 +7440,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" customHeight="1" spans="1:8">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" s="13" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G76" s="14">
         <v>0</v>
@@ -6841,14 +7456,14 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" customHeight="1" spans="1:8">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" s="13" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G77" s="14">
         <v>1</v>
@@ -6858,9 +7473,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -6868,29 +7482,30 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:JE46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A21" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6666666666667" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6666666666667" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.3333333333333" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.6666666666667" style="2" customWidth="1"/>
     <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.6640625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="23.1640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.1666666666667" style="2" customWidth="1"/>
     <col min="18" max="265" width="9" style="2" customWidth="1"/>
     <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="17" customHeight="1" spans="1:17">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6906,10 +7521,10 @@
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
       <c r="O1" s="3"/>
-      <c r="P1" s="8"/>
-      <c r="Q1" s="8"/>
-    </row>
-    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="9"/>
+      <c r="Q1" s="9"/>
+    </row>
+    <row r="2" ht="17" customHeight="1" spans="1:17">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6925,10 +7540,10 @@
       <c r="M2" s="3"/>
       <c r="N2" s="3"/>
       <c r="O2" s="3"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-    </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9"/>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:17">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6944,10 +7559,10 @@
       <c r="M3" s="3"/>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-    </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P3" s="9"/>
+      <c r="Q3" s="9"/>
+    </row>
+    <row r="4" ht="17" customHeight="1" spans="1:17">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6963,10 +7578,10 @@
       <c r="M4" s="3"/>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-    </row>
-    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+    </row>
+    <row r="5" ht="17" customHeight="1" spans="1:17">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6982,10 +7597,10 @@
       <c r="M5" s="3"/>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-    </row>
-    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+    </row>
+    <row r="6" ht="17" customHeight="1" spans="1:17">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7001,21 +7616,21 @@
       <c r="M6" s="3"/>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-    </row>
-    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+    </row>
+    <row r="7" ht="17" customHeight="1" spans="1:17">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>2</v>
@@ -7027,200 +7642,200 @@
         <v>61</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="9"/>
-    </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" ht="17" customHeight="1" spans="1:17">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="4" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>229</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L8" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M8" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O8" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P8" s="9"/>
-      <c r="Q8" s="9"/>
-    </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" ht="17" customHeight="1" spans="1:17">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="4" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L9" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M9" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O9" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="9"/>
-    </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" ht="17" customHeight="1" spans="1:17">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="4" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>227</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K10" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L10" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L10" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M10" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O10" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="9"/>
-    </row>
-    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" ht="17" customHeight="1" spans="1:17">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="4" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>223</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N11" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O11" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="9"/>
-    </row>
-    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" ht="17" customHeight="1" spans="1:17">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>119</v>
@@ -7232,10 +7847,10 @@
         <v>223</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L12" s="3" t="s">
         <v>93</v>
@@ -7244,21 +7859,21 @@
         <v>201</v>
       </c>
       <c r="N12" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O12" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="9"/>
-    </row>
-    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" ht="17" customHeight="1" spans="1:17">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>251</v>
@@ -7273,33 +7888,33 @@
         <v>229</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L13" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M13" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N13" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O13" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="9"/>
-    </row>
-    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" ht="17" customHeight="1" spans="1:17">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -7314,33 +7929,33 @@
         <v>229</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K14" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L14" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M14" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N14" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O14" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="9"/>
-    </row>
-    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" ht="17" customHeight="1" spans="1:17">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>280</v>
@@ -7355,33 +7970,33 @@
         <v>231</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K15" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L15" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L15" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M15" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O15" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="9"/>
-    </row>
-    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" ht="17" customHeight="1" spans="1:17">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>277</v>
@@ -7396,36 +8011,36 @@
         <v>231</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K16" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L16" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L16" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M16" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N16" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O16" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-    </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" ht="17" customHeight="1" spans="1:17">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>287</v>
@@ -7437,10 +8052,10 @@
         <v>231</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L17" s="3" t="s">
         <v>99</v>
@@ -7449,24 +8064,24 @@
         <v>201</v>
       </c>
       <c r="N17" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O17" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-    </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" ht="17" customHeight="1" spans="1:17">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>284</v>
@@ -7478,33 +8093,33 @@
         <v>231</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K18" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L18" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L18" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M18" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N18" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O18" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P18" s="9"/>
-      <c r="Q18" s="9"/>
-    </row>
-    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" ht="17" customHeight="1" spans="1:17">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>272</v>
@@ -7519,33 +8134,33 @@
         <v>229</v>
       </c>
       <c r="J19" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K19" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N19" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O19" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P19" s="9"/>
-      <c r="Q19" s="9"/>
-    </row>
-    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" ht="17" customHeight="1" spans="1:17">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>274</v>
@@ -7560,51 +8175,51 @@
         <v>229</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K20" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L20" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L20" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M20" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N20" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O20" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P20" s="9"/>
-      <c r="Q20" s="9"/>
-    </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:17">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>225</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L21" s="3" t="s">
         <v>91</v>
@@ -7613,21 +8228,21 @@
         <v>201</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O21" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P21" s="9"/>
-      <c r="Q21" s="9"/>
-    </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" ht="21" customHeight="1" spans="1:17">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>254</v>
@@ -7642,33 +8257,33 @@
         <v>233</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K22" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L22" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N22" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O22" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-    </row>
-    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" ht="21" customHeight="1" spans="1:17">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>110</v>
@@ -7683,36 +8298,36 @@
         <v>233</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K23" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M23" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N23" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O23" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-    </row>
-    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" ht="22.5" customHeight="1" spans="1:17">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>258</v>
@@ -7724,36 +8339,36 @@
         <v>220</v>
       </c>
       <c r="J24" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K24" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L24" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O24" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P24" s="11"/>
+      <c r="Q24" s="11"/>
+    </row>
+    <row r="25" ht="22.5" customHeight="1" spans="1:17">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>260</v>
@@ -7765,197 +8380,197 @@
         <v>220</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K25" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="L25" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="M25" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N25" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O25" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+    </row>
+    <row r="26" ht="22.5" customHeight="1" spans="1:17">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G26" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>220</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K26" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N26" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O26" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+    </row>
+    <row r="27" ht="22" customHeight="1" spans="1:17">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J27" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K27" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L27" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L27" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M27" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N27" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O27" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+    </row>
+    <row r="28" ht="22" customHeight="1" spans="1:17">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>120</v>
       </c>
       <c r="J28" s="17" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="K28" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L28" s="3" t="s">
         <v>398</v>
-      </c>
-      <c r="L28" s="3" t="s">
-        <v>397</v>
       </c>
       <c r="M28" s="3" t="s">
         <v>201</v>
       </c>
       <c r="N28" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="O28" s="3" t="s">
-        <v>398</v>
-      </c>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+    </row>
+    <row r="29" ht="22" customHeight="1" spans="1:17">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="11">
+      <c r="J29" s="5">
         <v>1</v>
       </c>
-      <c r="K29" s="11">
+      <c r="K29" s="5">
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N29" s="11">
+      <c r="N29" s="5">
         <v>0</v>
       </c>
-      <c r="O29" s="11">
+      <c r="O29" s="5">
         <v>0</v>
       </c>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+    </row>
+    <row r="30" ht="22" customHeight="1" spans="1:17">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>63</v>
@@ -7969,10 +8584,10 @@
       <c r="I30" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J30" s="11">
+      <c r="J30" s="5">
         <v>1</v>
       </c>
-      <c r="K30" s="11">
+      <c r="K30" s="5">
         <v>0</v>
       </c>
       <c r="L30" s="3" t="s">
@@ -7981,54 +8596,98 @@
       <c r="M30" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="N30" s="11">
+      <c r="N30" s="5">
         <v>0</v>
       </c>
-      <c r="O30" s="11">
+      <c r="O30" s="5">
         <v>0</v>
       </c>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+    </row>
+    <row r="31" ht="22" customHeight="1" spans="1:17">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="3"/>
-      <c r="G31" s="3"/>
-      <c r="H31" s="3"/>
-      <c r="I31" s="3"/>
-      <c r="J31" s="3"/>
-      <c r="K31" s="3"/>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="G31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="H31" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J31" s="5">
+        <v>1</v>
+      </c>
+      <c r="K31" s="5">
+        <v>0</v>
+      </c>
+      <c r="L31" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N31" s="5">
+        <v>0</v>
+      </c>
+      <c r="O31" s="5">
+        <v>0</v>
+      </c>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+    </row>
+    <row r="32" ht="22" customHeight="1" spans="1:17">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
-      <c r="E32" s="4"/>
-      <c r="F32" s="3"/>
-      <c r="G32" s="3"/>
-      <c r="H32" s="3"/>
-      <c r="I32" s="3"/>
-      <c r="J32" s="3"/>
-      <c r="K32" s="3"/>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="G32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H32" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="J32" s="5">
+        <v>1</v>
+      </c>
+      <c r="K32" s="5">
+        <v>0</v>
+      </c>
+      <c r="L32" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="M32" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N32" s="5">
+        <v>0</v>
+      </c>
+      <c r="O32" s="5">
+        <v>0</v>
+      </c>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+    </row>
+    <row r="33" ht="22" customHeight="1" spans="1:17">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -8044,10 +8703,10 @@
       <c r="M33" s="3"/>
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+    </row>
+    <row r="34" ht="22" customHeight="1" spans="1:17">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8063,10 +8722,10 @@
       <c r="M34" s="3"/>
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+    </row>
+    <row r="35" ht="22" customHeight="1" spans="1:17">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8082,10 +8741,10 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+    </row>
+    <row r="36" ht="22" customHeight="1" spans="1:17">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8101,10 +8760,10 @@
       <c r="M36" s="3"/>
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+    </row>
+    <row r="37" ht="22" customHeight="1" spans="1:17">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8120,10 +8779,10 @@
       <c r="M37" s="3"/>
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+    </row>
+    <row r="38" ht="22" customHeight="1" spans="1:17">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8139,10 +8798,10 @@
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+    </row>
+    <row r="39" ht="22" customHeight="1" spans="1:17">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8158,10 +8817,10 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+    </row>
+    <row r="40" ht="22" customHeight="1" spans="1:17">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8177,10 +8836,10 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+    </row>
+    <row r="41" ht="22" customHeight="1" spans="1:17">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -8196,108 +8855,107 @@
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="5"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="5"/>
-      <c r="E42" s="5"/>
-      <c r="F42" s="6"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
-      <c r="I42" s="7"/>
-      <c r="J42" s="7"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="7"/>
-      <c r="N42" s="7"/>
-      <c r="O42" s="7"/>
-      <c r="P42" s="9"/>
-      <c r="Q42" s="9"/>
-    </row>
-    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="5"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
-      <c r="I43" s="7"/>
-      <c r="J43" s="7"/>
-      <c r="K43" s="7"/>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="9"/>
-      <c r="Q43" s="9"/>
-    </row>
-    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="5"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="7"/>
-      <c r="H44" s="7"/>
-      <c r="I44" s="7"/>
-      <c r="J44" s="7"/>
-      <c r="K44" s="7"/>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-      <c r="O44" s="7"/>
-      <c r="P44" s="9"/>
-      <c r="Q44" s="9"/>
-    </row>
-    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="5"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="5"/>
-      <c r="D45" s="5"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="6"/>
-      <c r="G45" s="7"/>
-      <c r="H45" s="7"/>
-      <c r="I45" s="7"/>
-      <c r="J45" s="7"/>
-      <c r="K45" s="7"/>
-      <c r="L45" s="7"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="7"/>
-      <c r="O45" s="7"/>
-      <c r="P45" s="9"/>
-      <c r="Q45" s="9"/>
-    </row>
-    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="5"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-      <c r="G46" s="7"/>
-      <c r="H46" s="7"/>
-      <c r="I46" s="7"/>
-      <c r="J46" s="7"/>
-      <c r="K46" s="7"/>
-      <c r="L46" s="7"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="7"/>
-      <c r="O46" s="7"/>
-      <c r="P46" s="9"/>
-      <c r="Q46" s="9"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+    </row>
+    <row r="42" ht="21" customHeight="1" spans="1:17">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="8"/>
+      <c r="I42" s="8"/>
+      <c r="J42" s="8"/>
+      <c r="K42" s="8"/>
+      <c r="L42" s="8"/>
+      <c r="M42" s="8"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="8"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" ht="21" customHeight="1" spans="1:17">
+      <c r="A43" s="6"/>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" ht="21" customHeight="1" spans="1:17">
+      <c r="A44" s="6"/>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="7"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="8"/>
+      <c r="I44" s="8"/>
+      <c r="J44" s="8"/>
+      <c r="K44" s="8"/>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="8"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" ht="21" customHeight="1" spans="1:17">
+      <c r="A45" s="6"/>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="8"/>
+      <c r="I45" s="8"/>
+      <c r="J45" s="8"/>
+      <c r="K45" s="8"/>
+      <c r="L45" s="8"/>
+      <c r="M45" s="8"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="8"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" ht="21" customHeight="1" spans="1:17">
+      <c r="A46" s="6"/>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="8"/>
+      <c r="I46" s="8"/>
+      <c r="J46" s="8"/>
+      <c r="K46" s="8"/>
+      <c r="L46" s="8"/>
+      <c r="M46" s="8"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="8"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
-  <pageSetup orientation="portrait"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
+  <pageSetup paperSize="1" orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8305,100 +8963,102 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:H8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.8333333333333" style="1"/>
+    <col min="4" max="4" width="18.8333333333333" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.8333333333333" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="19.3333333333333" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="5:8">
       <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="D7:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.8333333333333" style="1"/>
+    <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.8333333333333" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>447</v>
+        <v>452</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>448</v>
+        <v>453</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I7" s="1" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="8" spans="5:9">
       <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
@@ -8406,16 +9066,16 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>449</v>
+        <v>454</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I8" s="1" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="9" spans="5:9">
       <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
@@ -8423,18 +9083,18 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>450</v>
+        <v>455</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="5" activeTab="6"/>
+    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="454">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1362,13 +1362,7 @@
     <t>fd_object_scheme_field-32</t>
   </si>
   <si>
-    <t>creator</t>
-  </si>
-  <si>
     <t>fd_object_scheme_field-33</t>
-  </si>
-  <si>
-    <t>updator</t>
   </si>
   <si>
     <t>fd_object_scheme</t>
@@ -1399,8 +1393,8 @@
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -1430,44 +1424,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1482,10 +1439,55 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Helvetica Neue"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1497,29 +1499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1535,9 +1515,32 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="Helvetica Neue"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Helvetica Neue"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1549,11 +1552,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1564,19 +1566,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF0000FF"/>
       <name val="Helvetica Neue"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1595,7 +1589,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1607,7 +1655,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1619,19 +1721,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1643,25 +1745,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1673,43 +1757,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1721,61 +1769,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,30 +1813,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1863,32 +1833,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1916,151 +1860,201 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
@@ -5488,8 +5482,8 @@
   <sheetPr/>
   <dimension ref="A1:H24"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
@@ -7486,7 +7480,7 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A18" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
@@ -8614,7 +8608,7 @@
         <v>445</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>446</v>
+        <v>261</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>262</v>
@@ -8652,10 +8646,10 @@
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>448</v>
+        <v>264</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>265</v>
@@ -8983,10 +8977,10 @@
   <sheetData>
     <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -9003,7 +8997,7 @@
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>397</v>
@@ -9040,10 +9034,10 @@
   <sheetData>
     <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>391</v>
@@ -9066,7 +9060,7 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>397</v>
@@ -9083,7 +9077,7 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>397</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8153E-A90C-414C-B4C7-21FB5D86E12F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7860" firstSheet="4" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="458">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1384,19 +1390,28 @@
   </si>
   <si>
     <t>敏捷问题页面【编辑】</t>
+  </si>
+  <si>
+    <t>app_version</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用版本</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story,bug,task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-34</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="24">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1413,7 +1428,6 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1423,158 +1437,31 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
+      <sz val="12"/>
+      <color indexed="8"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
+      <sz val="9"/>
+      <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Helvetica Neue"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Helvetica Neue"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1587,194 +1474,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="11">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1812,270 +1513,28 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="49" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -2083,60 +1542,14 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
@@ -2209,6 +1622,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3247,88 +2663,86 @@
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:IV10"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="4"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:5">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:5">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:5">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:5">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:5">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:5">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:5">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:5">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:5">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:5">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3336,8 +2750,9 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000README</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3346,24 +2761,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:G29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:IV29"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="6"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="12" customWidth="1"/>
     <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:7">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3372,7 +2786,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:7">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3381,7 +2795,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:7">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3390,7 +2804,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:7">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3399,7 +2813,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:7">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3408,7 +2822,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:7">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3417,7 +2831,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:7">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3434,7 +2848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:7">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3449,7 +2863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:7">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3464,7 +2878,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:7">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3479,7 +2893,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:7">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3494,7 +2908,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:7">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3509,7 +2923,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:7">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3524,7 +2938,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:7">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3539,7 +2953,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:7">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3554,7 +2968,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:7">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3569,7 +2983,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:7">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3584,7 +2998,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:7">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3599,7 +3013,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" customHeight="1" spans="1:7">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3614,7 +3028,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" customHeight="1" spans="1:7">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3629,7 +3043,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" customHeight="1" spans="1:7">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3644,7 +3058,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" customHeight="1" spans="1:7">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3659,7 +3073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" customHeight="1" spans="1:7">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3674,7 +3088,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" customHeight="1" spans="1:7">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3689,7 +3103,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" customHeight="1" spans="1:7">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3704,7 +3118,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" customHeight="1" spans="1:7">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3719,7 +3133,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" customHeight="1" spans="1:7">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3734,7 +3148,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" customHeight="1" spans="1:7">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3749,7 +3163,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" customHeight="1" spans="1:7">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3765,8 +3179,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -3775,26 +3190,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H96"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:IV96"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.3333333333333" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.6666666666667" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.1666666666667" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3804,7 +3218,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3814,7 +3228,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3824,7 +3238,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3834,7 +3248,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3844,7 +3258,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3854,7 +3268,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3874,7 +3288,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3892,7 +3306,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3910,7 +3324,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3928,7 +3342,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3946,7 +3360,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3964,7 +3378,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3982,7 +3396,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -4000,7 +3414,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -4018,7 +3432,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -4036,7 +3450,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -4054,7 +3468,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -4072,7 +3486,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -4090,7 +3504,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -4108,7 +3522,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -4126,7 +3540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -4144,7 +3558,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -4162,7 +3576,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -4180,7 +3594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -4198,7 +3612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -4216,7 +3630,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -4234,7 +3648,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -4252,7 +3666,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -4270,7 +3684,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -4288,7 +3702,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -4306,7 +3720,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -4324,7 +3738,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -4342,7 +3756,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -4360,7 +3774,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -4378,7 +3792,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -4396,7 +3810,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -4414,7 +3828,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -4432,7 +3846,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -4450,7 +3864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -4468,7 +3882,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -4486,7 +3900,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -4504,7 +3918,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -4522,7 +3936,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" ht="17" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -4540,7 +3954,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" ht="17" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -4558,7 +3972,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" ht="17" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -4576,7 +3990,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" ht="17" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4594,7 +4008,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" ht="17" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4612,7 +4026,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" ht="17" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4630,7 +4044,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" ht="17" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4648,7 +4062,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" ht="17" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4666,7 +4080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" ht="17" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4684,7 +4098,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4702,7 +4116,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4720,7 +4134,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4738,7 +4152,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4756,7 +4170,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4774,7 +4188,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4792,7 +4206,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4810,7 +4224,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4828,7 +4242,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4846,7 +4260,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4864,7 +4278,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4882,7 +4296,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4900,7 +4314,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4918,7 +4332,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4936,7 +4350,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4954,7 +4368,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4972,7 +4386,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4990,7 +4404,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -5008,7 +4422,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -5026,7 +4440,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -5044,7 +4458,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -5062,7 +4476,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -5080,7 +4494,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -5098,7 +4512,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -5116,7 +4530,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -5134,7 +4548,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" customHeight="1" spans="1:8">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -5152,7 +4566,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" customHeight="1" spans="1:8">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -5170,7 +4584,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" customHeight="1" spans="1:8">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -5188,7 +4602,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" customHeight="1" spans="1:8">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -5206,7 +4620,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" customHeight="1" spans="1:8">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -5224,7 +4638,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" customHeight="1" spans="1:8">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -5242,7 +4656,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" customHeight="1" spans="1:8">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -5260,7 +4674,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" customHeight="1" spans="1:8">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -5278,7 +4692,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" customHeight="1" spans="1:8">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -5296,7 +4710,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" customHeight="1" spans="1:8">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -5314,7 +4728,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" customHeight="1" spans="1:8">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -5332,7 +4746,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" customHeight="1" spans="1:8">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -5350,7 +4764,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" customHeight="1" spans="1:8">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -5368,7 +4782,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" customHeight="1" spans="1:8">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -5386,7 +4800,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" customHeight="1" spans="1:8">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -5404,7 +4818,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" customHeight="1" spans="1:8">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -5422,7 +4836,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" customHeight="1" spans="1:8">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -5440,7 +4854,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" customHeight="1" spans="1:8">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -5458,7 +4872,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" customHeight="1" spans="1:8">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -5469,8 +4883,9 @@
       <c r="H96" s="16"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5478,26 +4893,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:IV24"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A3" workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.1666666666667" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.1640625" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.8333333333333" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.3333333333333" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.33203125" style="12" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5507,7 +4921,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5517,7 +4931,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5527,7 +4941,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5537,7 +4951,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5547,7 +4961,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5557,7 +4971,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5577,7 +4991,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5595,7 +5009,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5613,7 +5027,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5631,7 +5045,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5649,7 +5063,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5667,7 +5081,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5685,7 +5099,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5703,7 +5117,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5721,7 +5135,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5739,7 +5153,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5757,7 +5171,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5775,7 +5189,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5793,7 +5207,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5811,7 +5225,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5829,7 +5243,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5847,7 +5261,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5865,7 +5279,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5884,8 +5298,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -5893,24 +5308,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:IV19"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.83333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="17.6666666666667" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.6640625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5920,7 +5332,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5930,7 +5342,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5940,7 +5352,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5950,7 +5362,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5960,7 +5372,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5970,7 +5382,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5990,7 +5402,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6008,7 +5420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6026,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6044,7 +5456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6062,7 +5474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6080,7 +5492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6098,7 +5510,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6116,7 +5528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6134,7 +5546,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6152,7 +5564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6170,7 +5582,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6188,7 +5600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6207,8 +5619,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000agile_lookup_type</oddHeader>
     <oddFooter>&amp;C&amp;"DejaVu Serif,Regular"&amp;12&amp;K000000Page &amp;P</oddFooter>
@@ -6217,24 +5630,23 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:H77"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+  <dimension ref="A1:IV77"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="16" customHeight="1" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.8333333333333" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.8333333333333" style="12" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.83203125" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.83203125" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="12" customWidth="1"/>
-    <col min="7" max="256" width="10.8333333333333" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.83203125" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:8">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6244,7 +5656,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:8">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6254,7 +5666,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:8">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6264,7 +5676,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:8">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6274,7 +5686,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:8">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -6284,7 +5696,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:8">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -6294,7 +5706,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:8">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -6314,7 +5726,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:8">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -6330,7 +5742,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:8">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -6346,7 +5758,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:8">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -6364,7 +5776,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:8">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -6380,7 +5792,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:8">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -6398,7 +5810,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:8">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -6416,7 +5828,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:8">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -6432,7 +5844,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:8">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -6448,7 +5860,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:8">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -6464,7 +5876,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:8">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -6480,7 +5892,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:8">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -6496,7 +5908,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:8">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -6512,7 +5924,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:8">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -6530,7 +5942,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" ht="17" customHeight="1" spans="1:8">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -6546,7 +5958,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" ht="17" customHeight="1" spans="1:8">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -6562,7 +5974,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" ht="17" customHeight="1" spans="1:8">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -6578,7 +5990,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" ht="17" customHeight="1" spans="1:8">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6594,7 +6006,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" ht="17" customHeight="1" spans="1:8">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6610,7 +6022,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" ht="17" customHeight="1" spans="1:8">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6626,7 +6038,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" ht="17" customHeight="1" spans="1:8">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6644,7 +6056,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" ht="17" customHeight="1" spans="1:8">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6660,7 +6072,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" ht="17" customHeight="1" spans="1:8">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6676,7 +6088,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" ht="17" customHeight="1" spans="1:8">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6694,7 +6106,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" ht="17" customHeight="1" spans="1:8">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6710,7 +6122,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" ht="17" customHeight="1" spans="1:8">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6726,7 +6138,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" ht="17" customHeight="1" spans="1:8">
+    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6744,7 +6156,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" ht="17" customHeight="1" spans="1:8">
+    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6760,7 +6172,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" ht="17" customHeight="1" spans="1:8">
+    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6776,7 +6188,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" ht="17" customHeight="1" spans="1:8">
+    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6794,7 +6206,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" ht="17" customHeight="1" spans="1:8">
+    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6810,7 +6222,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" ht="17" customHeight="1" spans="1:8">
+    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6826,7 +6238,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" ht="17" customHeight="1" spans="1:8">
+    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6842,7 +6254,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" ht="17" customHeight="1" spans="1:8">
+    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6858,7 +6270,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" ht="17" customHeight="1" spans="1:8">
+    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6874,7 +6286,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" ht="17" customHeight="1" spans="1:8">
+    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6890,7 +6302,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" ht="17" customHeight="1" spans="1:8">
+    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6908,7 +6320,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" customHeight="1" spans="1:8">
+    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6924,7 +6336,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" customHeight="1" spans="1:8">
+    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6940,7 +6352,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" customHeight="1" spans="1:8">
+    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6958,7 +6370,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" customHeight="1" spans="1:8">
+    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6976,7 +6388,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" customHeight="1" spans="1:8">
+    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6992,7 +6404,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" customHeight="1" spans="1:8">
+    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -7008,7 +6420,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" customHeight="1" spans="1:8">
+    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -7024,7 +6436,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" customHeight="1" spans="1:8">
+    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -7040,7 +6452,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" customHeight="1" spans="1:8">
+    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -7056,7 +6468,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" customHeight="1" spans="1:8">
+    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -7074,7 +6486,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" customHeight="1" spans="1:8">
+    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -7090,7 +6502,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" customHeight="1" spans="1:8">
+    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -7106,7 +6518,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" customHeight="1" spans="1:8">
+    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -7122,7 +6534,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" customHeight="1" spans="1:8">
+    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -7140,7 +6552,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" customHeight="1" spans="1:8">
+    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -7156,7 +6568,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" customHeight="1" spans="1:8">
+    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -7172,7 +6584,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" customHeight="1" spans="1:8">
+    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -7188,7 +6600,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" customHeight="1" spans="1:8">
+    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -7204,7 +6616,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" customHeight="1" spans="1:8">
+    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -7222,7 +6634,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" customHeight="1" spans="1:8">
+    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -7238,7 +6650,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" customHeight="1" spans="1:8">
+    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -7254,7 +6666,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" customHeight="1" spans="1:8">
+    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -7272,7 +6684,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" customHeight="1" spans="1:8">
+    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -7288,7 +6700,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" customHeight="1" spans="1:8">
+    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -7304,7 +6716,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" customHeight="1" spans="1:8">
+    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -7320,7 +6732,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" customHeight="1" spans="1:8">
+    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -7336,7 +6748,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" customHeight="1" spans="1:8">
+    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -7354,7 +6766,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" customHeight="1" spans="1:8">
+    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -7370,7 +6782,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" customHeight="1" spans="1:8">
+    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -7386,7 +6798,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" customHeight="1" spans="1:8">
+    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -7402,7 +6814,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" customHeight="1" spans="1:8">
+    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -7418,7 +6830,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" customHeight="1" spans="1:8">
+    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -7434,7 +6846,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" customHeight="1" spans="1:8">
+    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -7450,7 +6862,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" customHeight="1" spans="1:8">
+    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -7467,8 +6879,9 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -7476,30 +6889,29 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:Q46"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:JE46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6666666666667" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6666666666667" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.3333333333333" style="2" customWidth="1"/>
-    <col min="8" max="11" width="29.6666666666667" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
     <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.6666666666667" style="2" customWidth="1"/>
-    <col min="15" max="17" width="23.1666666666667" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.6640625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.1640625" style="2" customWidth="1"/>
     <col min="18" max="265" width="9" style="2" customWidth="1"/>
     <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17" customHeight="1" spans="1:17">
+    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -7518,7 +6930,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" ht="17" customHeight="1" spans="1:17">
+    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -7537,7 +6949,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" ht="17" customHeight="1" spans="1:17">
+    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -7556,7 +6968,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" ht="17" customHeight="1" spans="1:17">
+    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -7575,7 +6987,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" ht="17" customHeight="1" spans="1:17">
+    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7594,7 +7006,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" ht="17" customHeight="1" spans="1:17">
+    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7613,7 +7025,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" ht="17" customHeight="1" spans="1:17">
+    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7656,7 +7068,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" ht="17" customHeight="1" spans="1:17">
+    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7697,7 +7109,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" ht="17" customHeight="1" spans="1:17">
+    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7738,7 +7150,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" ht="17" customHeight="1" spans="1:17">
+    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7779,7 +7191,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" ht="17" customHeight="1" spans="1:17">
+    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7820,7 +7232,7 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" ht="17" customHeight="1" spans="1:17">
+    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -7861,7 +7273,7 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" ht="17" customHeight="1" spans="1:17">
+    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -7902,7 +7314,7 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" ht="17" customHeight="1" spans="1:17">
+    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -7943,7 +7355,7 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" ht="17" customHeight="1" spans="1:17">
+    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -7984,7 +7396,7 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" ht="17" customHeight="1" spans="1:17">
+    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -8025,7 +7437,7 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" ht="17" customHeight="1" spans="1:17">
+    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -8066,7 +7478,7 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" ht="17" customHeight="1" spans="1:17">
+    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -8107,7 +7519,7 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" ht="17" customHeight="1" spans="1:17">
+    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -8148,7 +7560,7 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" ht="17" customHeight="1" spans="1:17">
+    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -8189,7 +7601,7 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" ht="21" customHeight="1" spans="1:17">
+    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -8230,7 +7642,7 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" ht="21" customHeight="1" spans="1:17">
+    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -8271,7 +7683,7 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" ht="21" customHeight="1" spans="1:17">
+    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -8312,7 +7724,7 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" ht="22.5" customHeight="1" spans="1:17">
+    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -8353,7 +7765,7 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" ht="22.5" customHeight="1" spans="1:17">
+    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -8394,7 +7806,7 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" ht="22.5" customHeight="1" spans="1:17">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -8435,7 +7847,7 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" ht="22" customHeight="1" spans="1:17">
+    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -8476,7 +7888,7 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" ht="22" customHeight="1" spans="1:17">
+    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -8517,7 +7929,7 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" ht="22" customHeight="1" spans="1:17">
+    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -8558,7 +7970,7 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" ht="22" customHeight="1" spans="1:17">
+    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -8599,7 +8011,7 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" ht="22" customHeight="1" spans="1:17">
+    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -8640,7 +8052,7 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" ht="22" customHeight="1" spans="1:17">
+    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -8681,26 +8093,48 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" ht="22" customHeight="1" spans="1:17">
+    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+      <c r="E33" s="5" t="s">
+        <v>457</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>454</v>
+      </c>
+      <c r="G33" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="H33" s="18" t="s">
+        <v>455</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="17" t="s">
+        <v>397</v>
+      </c>
+      <c r="K33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="L33" s="18" t="s">
+        <v>456</v>
+      </c>
+      <c r="M33" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" s="3" t="s">
+        <v>399</v>
+      </c>
+      <c r="O33" s="3" t="s">
+        <v>399</v>
+      </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
-    <row r="34" ht="22" customHeight="1" spans="1:17">
+    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8719,7 +8153,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" ht="22" customHeight="1" spans="1:17">
+    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8738,7 +8172,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" ht="22" customHeight="1" spans="1:17">
+    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8757,7 +8191,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" ht="22" customHeight="1" spans="1:17">
+    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8776,7 +8210,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" ht="22" customHeight="1" spans="1:17">
+    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8795,7 +8229,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" ht="22" customHeight="1" spans="1:17">
+    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8814,7 +8248,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" ht="22" customHeight="1" spans="1:17">
+    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8833,7 +8267,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" ht="22" customHeight="1" spans="1:17">
+    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -8852,7 +8286,7 @@
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
     </row>
-    <row r="42" ht="21" customHeight="1" spans="1:17">
+    <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -8871,7 +8305,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" ht="21" customHeight="1" spans="1:17">
+    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -8890,7 +8324,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" ht="21" customHeight="1" spans="1:17">
+    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -8909,7 +8343,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" ht="21" customHeight="1" spans="1:17">
+    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -8928,7 +8362,7 @@
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
     </row>
-    <row r="46" ht="21" customHeight="1" spans="1:17">
+    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
@@ -8948,8 +8382,9 @@
       <c r="Q46" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="1" orientation="portrait"/>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
@@ -8957,25 +8392,24 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:H8"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75" outlineLevelRow="7" outlineLevelCol="7"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.8333333333333" style="1"/>
-    <col min="4" max="4" width="18.8333333333333" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.8333333333333" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.3333333333333" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.8333333333333" style="1"/>
+    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8">
+    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>447</v>
       </c>
@@ -8992,7 +8426,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="5:8">
+    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
@@ -9007,32 +8441,31 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333333333333" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="4" width="10.8333333333333" style="1"/>
-    <col min="5" max="5" width="15.3333333333333" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.83203125" style="1"/>
+    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6666666666667" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.8333333333333" style="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9">
+    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
       <c r="D7" s="1" t="s">
         <v>450</v>
       </c>
@@ -9052,7 +8485,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="5:9">
+    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
@@ -9069,7 +8502,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="5:9">
+    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
       <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
@@ -9087,8 +8520,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBD8153E-A90C-414C-B4C7-21FB5D86E12F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983AAEC-204D-BC4F-9EEC-01CA5F30CCDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1392,10 +1392,6 @@
     <t>敏捷问题页面【编辑】</t>
   </si>
   <si>
-    <t>app_version</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>应用版本</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -1405,6 +1401,10 @@
   </si>
   <si>
     <t>fd_object_scheme_field-34</t>
+  </si>
+  <si>
+    <t>appVersion</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1422,29 +1422,34 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="DengXian"/>
+      <family val="4"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1518,7 +1523,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1544,6 +1549,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -6892,7 +6898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
@@ -8099,16 +8105,16 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5" t="s">
+        <v>456</v>
+      </c>
+      <c r="F33" s="19" t="s">
         <v>457</v>
       </c>
-      <c r="F33" s="18" t="s">
+      <c r="G33" s="18" t="s">
         <v>454</v>
       </c>
-      <c r="G33" s="18" t="s">
-        <v>455</v>
-      </c>
       <c r="H33" s="18" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>231</v>
@@ -8120,7 +8126,7 @@
         <v>399</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>201</v>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3983AAEC-204D-BC4F-9EEC-01CA5F30CCDA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667240D7-C7EE-CD48-B1A8-181381D02EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1392,18 +1392,18 @@
     <t>敏捷问题页面【编辑】</t>
   </si>
   <si>
-    <t>应用版本</t>
+    <t>fd_object_scheme_field-34</t>
+  </si>
+  <si>
+    <t>tag</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>story,bug,task</t>
+    <t>story,issue_epic,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>fd_object_scheme_field-34</t>
-  </si>
-  <si>
-    <t>appVersion</t>
+    <t>story,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1411,7 +1411,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -1448,13 +1448,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color indexed="8"/>
       <name val="DengXian"/>
       <family val="4"/>
       <charset val="134"/>
@@ -1548,8 +1541,10 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2756,7 +2751,7 @@
       <c r="E10" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -3185,7 +3180,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -4889,7 +4884,7 @@
       <c r="H96" s="16"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5304,7 +5299,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -5625,7 +5620,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -6885,7 +6880,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
   <headerFooter>
@@ -6898,8 +6893,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE46"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" workbookViewId="0">
+      <selection activeCell="L34" sqref="L34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8084,8 +8079,8 @@
       <c r="K32" s="5">
         <v>0</v>
       </c>
-      <c r="L32" s="5" t="s">
-        <v>398</v>
+      <c r="L32" s="19" t="s">
+        <v>456</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>201</v>
@@ -8105,16 +8100,16 @@
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
       <c r="E33" s="5" t="s">
-        <v>456</v>
-      </c>
-      <c r="F33" s="19" t="s">
-        <v>457</v>
+        <v>454</v>
+      </c>
+      <c r="F33" s="18" t="s">
+        <v>455</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="H33" s="18" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>231</v>
@@ -8126,7 +8121,7 @@
         <v>399</v>
       </c>
       <c r="L33" s="18" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="M33" s="5" t="s">
         <v>201</v>
@@ -8447,7 +8442,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8526,7 +8521,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{667240D7-C7EE-CD48-B1A8-181381D02EE1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858844B-448C-4541-96B7-D82ECAD5B3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="455">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1392,18 +1392,7 @@
     <t>敏捷问题页面【编辑】</t>
   </si>
   <si>
-    <t>fd_object_scheme_field-34</t>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>story,issue_epic,bug,task,sub_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>story,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1516,7 +1505,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1541,7 +1530,6 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -6891,10 +6879,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:JE46"/>
+  <dimension ref="A1:JE45"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="D33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8079,8 +8067,8 @@
       <c r="K32" s="5">
         <v>0</v>
       </c>
-      <c r="L32" s="19" t="s">
-        <v>456</v>
+      <c r="L32" s="18" t="s">
+        <v>454</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>201</v>
@@ -8099,39 +8087,17 @@
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
-      <c r="E33" s="5" t="s">
-        <v>454</v>
-      </c>
-      <c r="F33" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="G33" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="H33" s="18" t="s">
-        <v>455</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="J33" s="17" t="s">
-        <v>397</v>
-      </c>
-      <c r="K33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="L33" s="18" t="s">
-        <v>457</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>201</v>
-      </c>
-      <c r="N33" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>399</v>
-      </c>
+      <c r="E33" s="4"/>
+      <c r="F33" s="3"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="3"/>
+      <c r="J33" s="3"/>
+      <c r="K33" s="3"/>
+      <c r="L33" s="3"/>
+      <c r="M33" s="3"/>
+      <c r="N33" s="3"/>
+      <c r="O33" s="3"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
     </row>
@@ -8268,24 +8234,24 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3"/>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="4"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="11"/>
-      <c r="Q41" s="11"/>
+    <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="6"/>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="7"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="8"/>
+      <c r="I41" s="8"/>
+      <c r="J41" s="8"/>
+      <c r="K41" s="8"/>
+      <c r="L41" s="8"/>
+      <c r="M41" s="8"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="8"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
@@ -8362,25 +8328,6 @@
       <c r="O45" s="8"/>
       <c r="P45" s="10"/>
       <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="6"/>
-      <c r="B46" s="6"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="6"/>
-      <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="8"/>
-      <c r="I46" s="8"/>
-      <c r="J46" s="8"/>
-      <c r="K46" s="8"/>
-      <c r="L46" s="8"/>
-      <c r="M46" s="8"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="8"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6858844B-448C-4541-96B7-D82ECAD5B3C4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73986B-E3DA-CA40-AF93-1CFE9228C22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="458">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1393,6 +1393,17 @@
   </si>
   <si>
     <t>story,issue_epic,bug,task,sub_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>fd_object_scheme_field-34</t>
+  </si>
+  <si>
+    <t>tag</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>story,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1505,7 +1516,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
@@ -1533,6 +1544,14 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -8082,26 +8101,296 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="4"/>
-      <c r="F33" s="3"/>
-      <c r="G33" s="3"/>
-      <c r="H33" s="3"/>
-      <c r="I33" s="3"/>
-      <c r="J33" s="3"/>
-      <c r="K33" s="3"/>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
+    <row r="33" spans="1:265" s="24" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="19"/>
+      <c r="B33" s="19"/>
+      <c r="C33" s="19"/>
+      <c r="D33" s="19"/>
+      <c r="E33" s="20" t="s">
+        <v>455</v>
+      </c>
+      <c r="F33" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="G33" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="H33" s="21" t="s">
+        <v>456</v>
+      </c>
+      <c r="I33" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="J33" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="K33" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="L33" s="21" t="s">
+        <v>457</v>
+      </c>
+      <c r="M33" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="N33" s="19" t="s">
+        <v>399</v>
+      </c>
+      <c r="O33" s="19" t="s">
+        <v>399</v>
+      </c>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
-    </row>
-    <row r="34" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="23"/>
+      <c r="AC33" s="23"/>
+      <c r="AD33" s="23"/>
+      <c r="AE33" s="23"/>
+      <c r="AF33" s="23"/>
+      <c r="AG33" s="23"/>
+      <c r="AH33" s="23"/>
+      <c r="AI33" s="23"/>
+      <c r="AJ33" s="23"/>
+      <c r="AK33" s="23"/>
+      <c r="AL33" s="23"/>
+      <c r="AM33" s="23"/>
+      <c r="AN33" s="23"/>
+      <c r="AO33" s="23"/>
+      <c r="AP33" s="23"/>
+      <c r="AQ33" s="23"/>
+      <c r="AR33" s="23"/>
+      <c r="AS33" s="23"/>
+      <c r="AT33" s="23"/>
+      <c r="AU33" s="23"/>
+      <c r="AV33" s="23"/>
+      <c r="AW33" s="23"/>
+      <c r="AX33" s="23"/>
+      <c r="AY33" s="23"/>
+      <c r="AZ33" s="23"/>
+      <c r="BA33" s="23"/>
+      <c r="BB33" s="23"/>
+      <c r="BC33" s="23"/>
+      <c r="BD33" s="23"/>
+      <c r="BE33" s="23"/>
+      <c r="BF33" s="23"/>
+      <c r="BG33" s="23"/>
+      <c r="BH33" s="23"/>
+      <c r="BI33" s="23"/>
+      <c r="BJ33" s="23"/>
+      <c r="BK33" s="23"/>
+      <c r="BL33" s="23"/>
+      <c r="BM33" s="23"/>
+      <c r="BN33" s="23"/>
+      <c r="BO33" s="23"/>
+      <c r="BP33" s="23"/>
+      <c r="BQ33" s="23"/>
+      <c r="BR33" s="23"/>
+      <c r="BS33" s="23"/>
+      <c r="BT33" s="23"/>
+      <c r="BU33" s="23"/>
+      <c r="BV33" s="23"/>
+      <c r="BW33" s="23"/>
+      <c r="BX33" s="23"/>
+      <c r="BY33" s="23"/>
+      <c r="BZ33" s="23"/>
+      <c r="CA33" s="23"/>
+      <c r="CB33" s="23"/>
+      <c r="CC33" s="23"/>
+      <c r="CD33" s="23"/>
+      <c r="CE33" s="23"/>
+      <c r="CF33" s="23"/>
+      <c r="CG33" s="23"/>
+      <c r="CH33" s="23"/>
+      <c r="CI33" s="23"/>
+      <c r="CJ33" s="23"/>
+      <c r="CK33" s="23"/>
+      <c r="CL33" s="23"/>
+      <c r="CM33" s="23"/>
+      <c r="CN33" s="23"/>
+      <c r="CO33" s="23"/>
+      <c r="CP33" s="23"/>
+      <c r="CQ33" s="23"/>
+      <c r="CR33" s="23"/>
+      <c r="CS33" s="23"/>
+      <c r="CT33" s="23"/>
+      <c r="CU33" s="23"/>
+      <c r="CV33" s="23"/>
+      <c r="CW33" s="23"/>
+      <c r="CX33" s="23"/>
+      <c r="CY33" s="23"/>
+      <c r="CZ33" s="23"/>
+      <c r="DA33" s="23"/>
+      <c r="DB33" s="23"/>
+      <c r="DC33" s="23"/>
+      <c r="DD33" s="23"/>
+      <c r="DE33" s="23"/>
+      <c r="DF33" s="23"/>
+      <c r="DG33" s="23"/>
+      <c r="DH33" s="23"/>
+      <c r="DI33" s="23"/>
+      <c r="DJ33" s="23"/>
+      <c r="DK33" s="23"/>
+      <c r="DL33" s="23"/>
+      <c r="DM33" s="23"/>
+      <c r="DN33" s="23"/>
+      <c r="DO33" s="23"/>
+      <c r="DP33" s="23"/>
+      <c r="DQ33" s="23"/>
+      <c r="DR33" s="23"/>
+      <c r="DS33" s="23"/>
+      <c r="DT33" s="23"/>
+      <c r="DU33" s="23"/>
+      <c r="DV33" s="23"/>
+      <c r="DW33" s="23"/>
+      <c r="DX33" s="23"/>
+      <c r="DY33" s="23"/>
+      <c r="DZ33" s="23"/>
+      <c r="EA33" s="23"/>
+      <c r="EB33" s="23"/>
+      <c r="EC33" s="23"/>
+      <c r="ED33" s="23"/>
+      <c r="EE33" s="23"/>
+      <c r="EF33" s="23"/>
+      <c r="EG33" s="23"/>
+      <c r="EH33" s="23"/>
+      <c r="EI33" s="23"/>
+      <c r="EJ33" s="23"/>
+      <c r="EK33" s="23"/>
+      <c r="EL33" s="23"/>
+      <c r="EM33" s="23"/>
+      <c r="EN33" s="23"/>
+      <c r="EO33" s="23"/>
+      <c r="EP33" s="23"/>
+      <c r="EQ33" s="23"/>
+      <c r="ER33" s="23"/>
+      <c r="ES33" s="23"/>
+      <c r="ET33" s="23"/>
+      <c r="EU33" s="23"/>
+      <c r="EV33" s="23"/>
+      <c r="EW33" s="23"/>
+      <c r="EX33" s="23"/>
+      <c r="EY33" s="23"/>
+      <c r="EZ33" s="23"/>
+      <c r="FA33" s="23"/>
+      <c r="FB33" s="23"/>
+      <c r="FC33" s="23"/>
+      <c r="FD33" s="23"/>
+      <c r="FE33" s="23"/>
+      <c r="FF33" s="23"/>
+      <c r="FG33" s="23"/>
+      <c r="FH33" s="23"/>
+      <c r="FI33" s="23"/>
+      <c r="FJ33" s="23"/>
+      <c r="FK33" s="23"/>
+      <c r="FL33" s="23"/>
+      <c r="FM33" s="23"/>
+      <c r="FN33" s="23"/>
+      <c r="FO33" s="23"/>
+      <c r="FP33" s="23"/>
+      <c r="FQ33" s="23"/>
+      <c r="FR33" s="23"/>
+      <c r="FS33" s="23"/>
+      <c r="FT33" s="23"/>
+      <c r="FU33" s="23"/>
+      <c r="FV33" s="23"/>
+      <c r="FW33" s="23"/>
+      <c r="FX33" s="23"/>
+      <c r="FY33" s="23"/>
+      <c r="FZ33" s="23"/>
+      <c r="GA33" s="23"/>
+      <c r="GB33" s="23"/>
+      <c r="GC33" s="23"/>
+      <c r="GD33" s="23"/>
+      <c r="GE33" s="23"/>
+      <c r="GF33" s="23"/>
+      <c r="GG33" s="23"/>
+      <c r="GH33" s="23"/>
+      <c r="GI33" s="23"/>
+      <c r="GJ33" s="23"/>
+      <c r="GK33" s="23"/>
+      <c r="GL33" s="23"/>
+      <c r="GM33" s="23"/>
+      <c r="GN33" s="23"/>
+      <c r="GO33" s="23"/>
+      <c r="GP33" s="23"/>
+      <c r="GQ33" s="23"/>
+      <c r="GR33" s="23"/>
+      <c r="GS33" s="23"/>
+      <c r="GT33" s="23"/>
+      <c r="GU33" s="23"/>
+      <c r="GV33" s="23"/>
+      <c r="GW33" s="23"/>
+      <c r="GX33" s="23"/>
+      <c r="GY33" s="23"/>
+      <c r="GZ33" s="23"/>
+      <c r="HA33" s="23"/>
+      <c r="HB33" s="23"/>
+      <c r="HC33" s="23"/>
+      <c r="HD33" s="23"/>
+      <c r="HE33" s="23"/>
+      <c r="HF33" s="23"/>
+      <c r="HG33" s="23"/>
+      <c r="HH33" s="23"/>
+      <c r="HI33" s="23"/>
+      <c r="HJ33" s="23"/>
+      <c r="HK33" s="23"/>
+      <c r="HL33" s="23"/>
+      <c r="HM33" s="23"/>
+      <c r="HN33" s="23"/>
+      <c r="HO33" s="23"/>
+      <c r="HP33" s="23"/>
+      <c r="HQ33" s="23"/>
+      <c r="HR33" s="23"/>
+      <c r="HS33" s="23"/>
+      <c r="HT33" s="23"/>
+      <c r="HU33" s="23"/>
+      <c r="HV33" s="23"/>
+      <c r="HW33" s="23"/>
+      <c r="HX33" s="23"/>
+      <c r="HY33" s="23"/>
+      <c r="HZ33" s="23"/>
+      <c r="IA33" s="23"/>
+      <c r="IB33" s="23"/>
+      <c r="IC33" s="23"/>
+      <c r="ID33" s="23"/>
+      <c r="IE33" s="23"/>
+      <c r="IF33" s="23"/>
+      <c r="IG33" s="23"/>
+      <c r="IH33" s="23"/>
+      <c r="II33" s="23"/>
+      <c r="IJ33" s="23"/>
+      <c r="IK33" s="23"/>
+      <c r="IL33" s="23"/>
+      <c r="IM33" s="23"/>
+      <c r="IN33" s="23"/>
+      <c r="IO33" s="23"/>
+      <c r="IP33" s="23"/>
+      <c r="IQ33" s="23"/>
+      <c r="IR33" s="23"/>
+      <c r="IS33" s="23"/>
+      <c r="IT33" s="23"/>
+      <c r="IU33" s="23"/>
+      <c r="IV33" s="23"/>
+      <c r="IW33" s="23"/>
+      <c r="IX33" s="23"/>
+      <c r="IY33" s="23"/>
+      <c r="IZ33" s="23"/>
+      <c r="JA33" s="23"/>
+      <c r="JB33" s="23"/>
+      <c r="JC33" s="23"/>
+      <c r="JD33" s="23"/>
+      <c r="JE33" s="23"/>
+    </row>
+    <row r="34" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8120,7 +8409,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8139,7 +8428,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8158,7 +8447,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8177,7 +8466,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8196,7 +8485,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8215,7 +8504,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8234,7 +8523,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8253,7 +8542,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -8272,7 +8561,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -8291,7 +8580,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -8310,7 +8599,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>

--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\agile_service\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E73986B-E3DA-CA40-AF93-1CFE9228C22F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8A3E8-9CF4-49AE-8524-5FCE36F49638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19060" firstSheet="4" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -1251,9 +1251,6 @@
     <t>remainingTime</t>
   </si>
   <si>
-    <t>预估时间</t>
-  </si>
-  <si>
     <t>story,bug,task,sub_task</t>
   </si>
   <si>
@@ -1404,6 +1401,10 @@
   </si>
   <si>
     <t>story,bug,task,sub_task</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余预估时间</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -1411,7 +1412,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2681,76 +2682,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="5" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="5" width="9.875" style="12" customWidth="1"/>
     <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2772,20 +2773,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:IV29"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.625" style="12" customWidth="1"/>
     <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2794,7 +2795,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2803,7 +2804,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2812,7 +2813,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2821,7 +2822,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2830,7 +2831,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2839,7 +2840,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2856,7 +2857,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2871,7 +2872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2886,7 +2887,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2901,7 +2902,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2916,7 +2917,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2931,7 +2932,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2946,7 +2947,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2961,7 +2962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2976,7 +2977,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2991,7 +2992,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3006,7 +3007,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3021,7 +3022,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3036,7 +3037,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3051,7 +3052,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3066,7 +3067,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3081,7 +3082,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3096,7 +3097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3111,7 +3112,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3126,7 +3127,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3141,7 +3142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3156,7 +3157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3171,7 +3172,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3201,22 +3202,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:IV96"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A82" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.1640625" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.375" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.125" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3226,7 +3227,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3236,7 +3237,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3246,7 +3247,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3256,7 +3257,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3266,7 +3267,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3276,7 +3277,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3296,7 +3297,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3314,7 +3315,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3332,7 +3333,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3350,7 +3351,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3368,7 +3369,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3386,7 +3387,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3404,7 +3405,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3422,7 +3423,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3440,7 +3441,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3458,7 +3459,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3476,7 +3477,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3494,7 +3495,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3512,7 +3513,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3530,7 +3531,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3548,7 +3549,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3566,7 +3567,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3584,7 +3585,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3602,7 +3603,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3620,7 +3621,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3638,7 +3639,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3656,7 +3657,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3674,7 +3675,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3692,7 +3693,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3710,7 +3711,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3728,7 +3729,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -3746,7 +3747,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -3764,7 +3765,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -3782,7 +3783,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -3800,7 +3801,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -3818,7 +3819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -3836,7 +3837,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -3854,7 +3855,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -3872,7 +3873,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -3890,7 +3891,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -3908,7 +3909,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -3926,7 +3927,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -3944,7 +3945,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -3962,7 +3963,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3980,7 +3981,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3998,7 +3999,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -4016,7 +4017,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -4034,7 +4035,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -4052,7 +4053,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -4070,7 +4071,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -4088,7 +4089,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -4106,7 +4107,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.75" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -4124,7 +4125,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.75" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -4142,7 +4143,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.75" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -4160,7 +4161,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.75" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -4178,7 +4179,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.75" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -4196,7 +4197,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.75" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -4214,7 +4215,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.75" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -4232,7 +4233,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.75" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -4250,7 +4251,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.75" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -4268,7 +4269,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.75" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -4286,7 +4287,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.75" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -4304,7 +4305,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.75" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -4322,7 +4323,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.75" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -4340,7 +4341,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.75" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -4358,7 +4359,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.75" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -4376,7 +4377,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.75" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -4394,7 +4395,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.75" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -4412,7 +4413,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.75" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -4430,7 +4431,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.75" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -4448,7 +4449,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15.75" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -4466,7 +4467,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.75" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -4484,7 +4485,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.75" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -4502,7 +4503,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.75" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -4520,7 +4521,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.75" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -4538,7 +4539,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15.75" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -4556,7 +4557,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="78" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" ht="15.75" customHeight="1">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
       <c r="C78" s="3"/>
@@ -4574,7 +4575,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" ht="15.75" customHeight="1">
       <c r="A79" s="3"/>
       <c r="B79" s="3"/>
       <c r="C79" s="3"/>
@@ -4592,7 +4593,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" ht="15.75" customHeight="1">
       <c r="A80" s="3"/>
       <c r="B80" s="3"/>
       <c r="C80" s="3"/>
@@ -4610,7 +4611,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="15.75" customHeight="1">
       <c r="A81" s="3"/>
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
@@ -4628,7 +4629,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" ht="15.75" customHeight="1">
       <c r="A82" s="3"/>
       <c r="B82" s="3"/>
       <c r="C82" s="3"/>
@@ -4646,7 +4647,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="15.75" customHeight="1">
       <c r="A83" s="3"/>
       <c r="B83" s="3"/>
       <c r="C83" s="3"/>
@@ -4664,7 +4665,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="84" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="15.75" customHeight="1">
       <c r="A84" s="3"/>
       <c r="B84" s="3"/>
       <c r="C84" s="3"/>
@@ -4682,7 +4683,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" ht="15.75" customHeight="1">
       <c r="A85" s="3"/>
       <c r="B85" s="3"/>
       <c r="C85" s="3"/>
@@ -4700,7 +4701,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="15.75" customHeight="1">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
       <c r="C86" s="3"/>
@@ -4718,7 +4719,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" ht="15.75" customHeight="1">
       <c r="A87" s="3"/>
       <c r="B87" s="3"/>
       <c r="C87" s="3"/>
@@ -4736,7 +4737,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" ht="15.75" customHeight="1">
       <c r="A88" s="3"/>
       <c r="B88" s="3"/>
       <c r="C88" s="3"/>
@@ -4754,7 +4755,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="89" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="15.75" customHeight="1">
       <c r="A89" s="3"/>
       <c r="B89" s="3"/>
       <c r="C89" s="3"/>
@@ -4772,7 +4773,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="15.75" customHeight="1">
       <c r="A90" s="3"/>
       <c r="B90" s="3"/>
       <c r="C90" s="3"/>
@@ -4790,7 +4791,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="15.75" customHeight="1">
       <c r="A91" s="3"/>
       <c r="B91" s="3"/>
       <c r="C91" s="3"/>
@@ -4808,7 +4809,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="15.75" customHeight="1">
       <c r="A92" s="3"/>
       <c r="B92" s="3"/>
       <c r="C92" s="3"/>
@@ -4826,7 +4827,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" ht="15.75" customHeight="1">
       <c r="A93" s="3"/>
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
@@ -4844,7 +4845,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" ht="15.75" customHeight="1">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
       <c r="C94" s="3"/>
@@ -4862,7 +4863,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="15.75" customHeight="1">
       <c r="A95" s="3"/>
       <c r="B95" s="3"/>
       <c r="C95" s="3"/>
@@ -4880,7 +4881,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="96" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="15.75" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="16"/>
       <c r="C96" s="16"/>
@@ -4908,18 +4909,18 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
-    <col min="4" max="4" width="22.1640625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="22.125" style="12" customWidth="1"/>
     <col min="5" max="5" width="25" style="12" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="12" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="12" customWidth="1"/>
+    <col min="7" max="7" width="18.375" style="12" customWidth="1"/>
     <col min="8" max="8" width="19.5" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -4929,7 +4930,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -4939,7 +4940,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -4949,7 +4950,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -4959,7 +4960,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -4969,7 +4970,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -4979,7 +4980,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -4999,7 +5000,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5017,7 +5018,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5035,7 +5036,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5053,7 +5054,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5071,7 +5072,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5089,7 +5090,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5107,7 +5108,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5125,7 +5126,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5143,7 +5144,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5161,7 +5162,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5179,7 +5180,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5197,7 +5198,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5215,7 +5216,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5233,7 +5234,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5251,7 +5252,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5269,7 +5270,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5287,7 +5288,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -5321,16 +5322,16 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.875" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="8" width="17.6640625" style="12" customWidth="1"/>
+    <col min="7" max="8" width="17.625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5340,7 +5341,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5350,7 +5351,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5360,7 +5361,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5370,7 +5371,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5380,7 +5381,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5390,7 +5391,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5410,7 +5411,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5428,7 +5429,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5446,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5464,7 +5465,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5482,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5500,7 +5501,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5518,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5536,7 +5537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5554,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5572,7 +5573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5590,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5608,7 +5609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5641,20 +5642,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:IV77"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A44" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="H66" sqref="H66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.95" customHeight="1"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="12" customWidth="1"/>
-    <col min="4" max="4" width="15.83203125" style="12" customWidth="1"/>
-    <col min="5" max="5" width="16.83203125" style="12" customWidth="1"/>
+    <col min="1" max="3" width="10.875" style="12" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="12" customWidth="1"/>
+    <col min="5" max="5" width="16.875" style="12" customWidth="1"/>
     <col min="6" max="6" width="29" style="12" customWidth="1"/>
-    <col min="7" max="256" width="10.83203125" style="12" customWidth="1"/>
+    <col min="7" max="256" width="10.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -5664,7 +5665,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -5674,7 +5675,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -5684,7 +5685,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -5694,7 +5695,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -5704,7 +5705,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -5714,7 +5715,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -5734,7 +5735,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -5750,7 +5751,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -5766,7 +5767,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -5784,7 +5785,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -5800,7 +5801,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -5818,7 +5819,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -5836,7 +5837,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -5852,7 +5853,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -5868,7 +5869,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -5884,7 +5885,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -5900,7 +5901,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -5916,7 +5917,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -5932,7 +5933,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -5950,7 +5951,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -5966,7 +5967,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -5982,7 +5983,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -5998,7 +5999,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -6014,7 +6015,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -6030,7 +6031,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -6046,7 +6047,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -6064,7 +6065,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -6080,7 +6081,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -6096,7 +6097,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -6114,7 +6115,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -6130,7 +6131,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
@@ -6146,7 +6147,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A33" s="3"/>
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
@@ -6164,7 +6165,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -6180,7 +6181,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -6196,7 +6197,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="36" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -6214,7 +6215,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="37" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -6230,7 +6231,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="38" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -6246,7 +6247,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -6262,7 +6263,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -6278,7 +6279,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="41" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A41" s="3"/>
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
@@ -6294,7 +6295,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="42" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A42" s="3"/>
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
@@ -6310,7 +6311,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="43" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" ht="17.100000000000001" customHeight="1">
       <c r="A43" s="3"/>
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
@@ -6328,7 +6329,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="44" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" ht="15.95" customHeight="1">
       <c r="A44" s="3"/>
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
@@ -6344,7 +6345,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="15.95" customHeight="1">
       <c r="A45" s="3"/>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -6360,7 +6361,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" ht="15.95" customHeight="1">
       <c r="A46" s="3"/>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -6378,7 +6379,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="15.95" customHeight="1">
       <c r="A47" s="3"/>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -6396,7 +6397,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" ht="15.95" customHeight="1">
       <c r="A48" s="3"/>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -6412,7 +6413,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="15.95" customHeight="1">
       <c r="A49" s="3"/>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -6428,7 +6429,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" ht="15.95" customHeight="1">
       <c r="A50" s="3"/>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -6444,7 +6445,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="51" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" ht="15.95" customHeight="1">
       <c r="A51" s="3"/>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -6460,7 +6461,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="52" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" ht="15.95" customHeight="1">
       <c r="A52" s="3"/>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -6476,7 +6477,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" ht="15.95" customHeight="1">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -6494,7 +6495,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" ht="15.95" customHeight="1">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -6510,7 +6511,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" ht="15.95" customHeight="1">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -6526,7 +6527,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" ht="15.95" customHeight="1">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
@@ -6542,7 +6543,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="15.95" customHeight="1">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
@@ -6560,7 +6561,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="15.95" customHeight="1">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -6576,7 +6577,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="59" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" ht="15.95" customHeight="1">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
@@ -6592,7 +6593,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" ht="15.95" customHeight="1">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
@@ -6608,7 +6609,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="15.95" customHeight="1">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
@@ -6624,7 +6625,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="62" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" ht="15.95" customHeight="1">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
@@ -6642,7 +6643,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" ht="15.95" customHeight="1">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
@@ -6658,7 +6659,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="64" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" ht="15.95" customHeight="1">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
@@ -6674,7 +6675,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="65" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" ht="15.95" customHeight="1">
       <c r="A65" s="3"/>
       <c r="B65" s="3"/>
       <c r="C65" s="3"/>
@@ -6692,7 +6693,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" ht="15.95" customHeight="1">
       <c r="A66" s="3"/>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -6708,7 +6709,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="67" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" ht="15.95" customHeight="1">
       <c r="A67" s="3"/>
       <c r="B67" s="3"/>
       <c r="C67" s="3"/>
@@ -6724,7 +6725,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="68" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" ht="15.95" customHeight="1">
       <c r="A68" s="3"/>
       <c r="B68" s="3"/>
       <c r="C68" s="3"/>
@@ -6740,7 +6741,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="69" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" ht="15.95" customHeight="1">
       <c r="A69" s="3"/>
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
@@ -6756,7 +6757,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" ht="15.95" customHeight="1">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
       <c r="C70" s="3"/>
@@ -6774,7 +6775,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" ht="15.95" customHeight="1">
       <c r="A71" s="3"/>
       <c r="B71" s="3"/>
       <c r="C71" s="3"/>
@@ -6790,7 +6791,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" ht="15.95" customHeight="1">
       <c r="A72" s="3"/>
       <c r="B72" s="3"/>
       <c r="C72" s="3"/>
@@ -6806,7 +6807,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="73" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" ht="15.95" customHeight="1">
       <c r="A73" s="3"/>
       <c r="B73" s="3"/>
       <c r="C73" s="3"/>
@@ -6822,7 +6823,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="74" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" ht="15.95" customHeight="1">
       <c r="A74" s="3"/>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -6838,7 +6839,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" ht="15.95" customHeight="1">
       <c r="A75" s="3"/>
       <c r="B75" s="3"/>
       <c r="C75" s="3"/>
@@ -6854,7 +6855,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" ht="15.95" customHeight="1">
       <c r="A76" s="3"/>
       <c r="B76" s="3"/>
       <c r="C76" s="3"/>
@@ -6870,7 +6871,7 @@
         <v>2019</v>
       </c>
     </row>
-    <row r="77" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" ht="15.95" customHeight="1">
       <c r="A77" s="3"/>
       <c r="B77" s="3"/>
       <c r="C77" s="3"/>
@@ -6900,26 +6901,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:JE45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D5" workbookViewId="0">
-      <selection activeCell="D33" sqref="A33:XFD33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="3" width="9" style="2" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="26.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="24.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.625" style="2" customWidth="1"/>
     <col min="6" max="6" width="27" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.33203125" style="2" customWidth="1"/>
-    <col min="8" max="11" width="29.6640625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.375" style="2" customWidth="1"/>
+    <col min="8" max="11" width="29.625" style="2" customWidth="1"/>
     <col min="12" max="12" width="39.5" style="2" customWidth="1"/>
-    <col min="13" max="14" width="29.6640625" style="2" customWidth="1"/>
-    <col min="15" max="17" width="23.1640625" style="2" customWidth="1"/>
+    <col min="13" max="14" width="29.625" style="2" customWidth="1"/>
+    <col min="15" max="17" width="23.125" style="2" customWidth="1"/>
     <col min="18" max="265" width="9" style="2" customWidth="1"/>
     <col min="266" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -6938,7 +6939,7 @@
       <c r="P1" s="9"/>
       <c r="Q1" s="9"/>
     </row>
-    <row r="2" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -6957,7 +6958,7 @@
       <c r="P2" s="9"/>
       <c r="Q2" s="9"/>
     </row>
-    <row r="3" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -6976,7 +6977,7 @@
       <c r="P3" s="9"/>
       <c r="Q3" s="9"/>
     </row>
-    <row r="4" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -6995,7 +6996,7 @@
       <c r="P4" s="9"/>
       <c r="Q4" s="9"/>
     </row>
-    <row r="5" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -7014,7 +7015,7 @@
       <c r="P5" s="9"/>
       <c r="Q5" s="9"/>
     </row>
-    <row r="6" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -7033,7 +7034,7 @@
       <c r="P6" s="9"/>
       <c r="Q6" s="9"/>
     </row>
-    <row r="7" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -7076,7 +7077,7 @@
       <c r="P7" s="10"/>
       <c r="Q7" s="10"/>
     </row>
-    <row r="8" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -7117,7 +7118,7 @@
       <c r="P8" s="10"/>
       <c r="Q8" s="10"/>
     </row>
-    <row r="9" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -7158,7 +7159,7 @@
       <c r="P9" s="10"/>
       <c r="Q9" s="10"/>
     </row>
-    <row r="10" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -7199,7 +7200,7 @@
       <c r="P10" s="10"/>
       <c r="Q10" s="10"/>
     </row>
-    <row r="11" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -7211,10 +7212,10 @@
         <v>406</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>407</v>
+        <v>457</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>223</v>
@@ -7226,7 +7227,7 @@
         <v>399</v>
       </c>
       <c r="L11" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M11" s="3" t="s">
         <v>201</v>
@@ -7240,16 +7241,16 @@
       <c r="P11" s="10"/>
       <c r="Q11" s="10"/>
     </row>
-    <row r="12" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F12" s="3" t="s">
         <v>409</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>410</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>119</v>
@@ -7281,13 +7282,13 @@
       <c r="P12" s="10"/>
       <c r="Q12" s="10"/>
     </row>
-    <row r="13" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="4" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>251</v>
@@ -7322,13 +7323,13 @@
       <c r="P13" s="10"/>
       <c r="Q13" s="10"/>
     </row>
-    <row r="14" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
       <c r="E14" s="4" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>19</v>
@@ -7363,13 +7364,13 @@
       <c r="P14" s="10"/>
       <c r="Q14" s="10"/>
     </row>
-    <row r="15" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
       <c r="E15" s="4" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>280</v>
@@ -7404,13 +7405,13 @@
       <c r="P15" s="10"/>
       <c r="Q15" s="10"/>
     </row>
-    <row r="16" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
       <c r="E16" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>277</v>
@@ -7445,16 +7446,16 @@
       <c r="P16" s="10"/>
       <c r="Q16" s="10"/>
     </row>
-    <row r="17" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
       <c r="E17" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F17" s="3" t="s">
         <v>415</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>416</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>287</v>
@@ -7486,16 +7487,16 @@
       <c r="P17" s="10"/>
       <c r="Q17" s="10"/>
     </row>
-    <row r="18" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
       <c r="E18" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F18" s="3" t="s">
         <v>417</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>418</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>284</v>
@@ -7527,13 +7528,13 @@
       <c r="P18" s="10"/>
       <c r="Q18" s="10"/>
     </row>
-    <row r="19" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
       <c r="E19" s="4" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>272</v>
@@ -7554,7 +7555,7 @@
         <v>399</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="M19" s="3" t="s">
         <v>201</v>
@@ -7568,13 +7569,13 @@
       <c r="P19" s="10"/>
       <c r="Q19" s="10"/>
     </row>
-    <row r="20" spans="1:17" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" ht="17.100000000000001" customHeight="1">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
       <c r="E20" s="4" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>274</v>
@@ -7609,22 +7610,22 @@
       <c r="P20" s="10"/>
       <c r="Q20" s="10"/>
     </row>
-    <row r="21" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" ht="21" customHeight="1">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
       <c r="E21" s="4" t="s">
+        <v>421</v>
+      </c>
+      <c r="F21" s="3" t="s">
         <v>422</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="G21" s="3" t="s">
         <v>423</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>424</v>
-      </c>
       <c r="H21" s="3" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>225</v>
@@ -7650,13 +7651,13 @@
       <c r="P21" s="10"/>
       <c r="Q21" s="10"/>
     </row>
-    <row r="22" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" ht="21" customHeight="1">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
       <c r="E22" s="4" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>254</v>
@@ -7691,13 +7692,13 @@
       <c r="P22" s="10"/>
       <c r="Q22" s="10"/>
     </row>
-    <row r="23" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" ht="21" customHeight="1">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
       <c r="E23" s="4" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>110</v>
@@ -7732,16 +7733,16 @@
       <c r="P23" s="10"/>
       <c r="Q23" s="10"/>
     </row>
-    <row r="24" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" ht="22.5" customHeight="1">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="F24" s="3" t="s">
         <v>427</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>428</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>258</v>
@@ -7773,16 +7774,16 @@
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
     </row>
-    <row r="25" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:17" ht="22.5" customHeight="1">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
       <c r="E25" s="4" t="s">
+        <v>428</v>
+      </c>
+      <c r="F25" s="3" t="s">
         <v>429</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>430</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>260</v>
@@ -7814,22 +7815,22 @@
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
     </row>
-    <row r="26" spans="1:17" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:17" ht="22.5" customHeight="1">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
       <c r="E26" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F26" s="3" t="s">
         <v>431</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="G26" s="3" t="s">
         <v>432</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>433</v>
-      </c>
       <c r="H26" s="3" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>220</v>
@@ -7841,7 +7842,7 @@
         <v>399</v>
       </c>
       <c r="L26" s="3" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="M26" s="3" t="s">
         <v>201</v>
@@ -7855,22 +7856,22 @@
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
     </row>
-    <row r="27" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:17" ht="21.95" customHeight="1">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
       <c r="E27" s="4" t="s">
+        <v>433</v>
+      </c>
+      <c r="F27" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="G27" s="3" t="s">
         <v>435</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>436</v>
-      </c>
       <c r="H27" s="3" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>120</v>
@@ -7896,22 +7897,22 @@
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
     </row>
-    <row r="28" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" ht="21.95" customHeight="1">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
       <c r="E28" s="4" t="s">
+        <v>436</v>
+      </c>
+      <c r="F28" s="3" t="s">
         <v>437</v>
       </c>
-      <c r="F28" s="3" t="s">
+      <c r="G28" s="3" t="s">
         <v>438</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>439</v>
-      </c>
       <c r="H28" s="3" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>120</v>
@@ -7937,22 +7938,22 @@
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
     </row>
-    <row r="29" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:17" ht="21.95" customHeight="1">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
       <c r="E29" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="F29" s="3" t="s">
         <v>440</v>
       </c>
-      <c r="F29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>441</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>442</v>
-      </c>
       <c r="H29" s="3" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>233</v>
@@ -7964,7 +7965,7 @@
         <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>201</v>
@@ -7978,13 +7979,13 @@
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
     </row>
-    <row r="30" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" ht="21.95" customHeight="1">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
       <c r="E30" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>63</v>
@@ -8019,13 +8020,13 @@
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
     </row>
-    <row r="31" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" ht="21.95" customHeight="1">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
       <c r="E31" s="5" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="F31" s="5" t="s">
         <v>261</v>
@@ -8060,13 +8061,13 @@
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
     </row>
-    <row r="32" spans="1:17" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" ht="21.95" customHeight="1">
       <c r="A32" s="3"/>
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
       <c r="E32" s="5" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="F32" s="5" t="s">
         <v>264</v>
@@ -8087,7 +8088,7 @@
         <v>0</v>
       </c>
       <c r="L32" s="18" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="M32" s="5" t="s">
         <v>201</v>
@@ -8101,22 +8102,22 @@
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
     </row>
-    <row r="33" spans="1:265" s="24" customFormat="1" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:265" s="24" customFormat="1" ht="21.95" customHeight="1">
       <c r="A33" s="19"/>
       <c r="B33" s="19"/>
       <c r="C33" s="19"/>
       <c r="D33" s="19"/>
       <c r="E33" s="20" t="s">
+        <v>454</v>
+      </c>
+      <c r="F33" s="21" t="s">
         <v>455</v>
       </c>
-      <c r="F33" s="21" t="s">
-        <v>456</v>
-      </c>
       <c r="G33" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="H33" s="21" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="I33" s="19" t="s">
         <v>231</v>
@@ -8128,7 +8129,7 @@
         <v>399</v>
       </c>
       <c r="L33" s="21" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="M33" s="20" t="s">
         <v>201</v>
@@ -8390,7 +8391,7 @@
       <c r="JD33" s="23"/>
       <c r="JE33" s="23"/>
     </row>
-    <row r="34" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:265" ht="21.95" customHeight="1">
       <c r="A34" s="3"/>
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
@@ -8409,7 +8410,7 @@
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
     </row>
-    <row r="35" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:265" ht="21.95" customHeight="1">
       <c r="A35" s="3"/>
       <c r="B35" s="3"/>
       <c r="C35" s="3"/>
@@ -8428,7 +8429,7 @@
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
     </row>
-    <row r="36" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:265" ht="21.95" customHeight="1">
       <c r="A36" s="3"/>
       <c r="B36" s="3"/>
       <c r="C36" s="3"/>
@@ -8447,7 +8448,7 @@
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
     </row>
-    <row r="37" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:265" ht="21.95" customHeight="1">
       <c r="A37" s="3"/>
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
@@ -8466,7 +8467,7 @@
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
     </row>
-    <row r="38" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:265" ht="21.95" customHeight="1">
       <c r="A38" s="3"/>
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
@@ -8485,7 +8486,7 @@
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
     </row>
-    <row r="39" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:265" ht="21.95" customHeight="1">
       <c r="A39" s="3"/>
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
@@ -8504,7 +8505,7 @@
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
     </row>
-    <row r="40" spans="1:265" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:265" ht="21.95" customHeight="1">
       <c r="A40" s="3"/>
       <c r="B40" s="3"/>
       <c r="C40" s="3"/>
@@ -8523,7 +8524,7 @@
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
     </row>
-    <row r="41" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:265" ht="21" customHeight="1">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -8542,7 +8543,7 @@
       <c r="P41" s="10"/>
       <c r="Q41" s="10"/>
     </row>
-    <row r="42" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:265" ht="21" customHeight="1">
       <c r="A42" s="6"/>
       <c r="B42" s="6"/>
       <c r="C42" s="6"/>
@@ -8561,7 +8562,7 @@
       <c r="P42" s="10"/>
       <c r="Q42" s="10"/>
     </row>
-    <row r="43" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:265" ht="21" customHeight="1">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -8580,7 +8581,7 @@
       <c r="P43" s="10"/>
       <c r="Q43" s="10"/>
     </row>
-    <row r="44" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:265" ht="21" customHeight="1">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -8599,7 +8600,7 @@
       <c r="P44" s="10"/>
       <c r="Q44" s="10"/>
     </row>
-    <row r="45" spans="1:265" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:265" ht="21" customHeight="1">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
@@ -8632,26 +8633,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="D7:H8"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
-    <col min="4" max="4" width="18.83203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="1" customWidth="1"/>
+    <col min="1" max="3" width="10.875" style="1"/>
+    <col min="4" max="4" width="18.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" style="1" customWidth="1"/>
     <col min="6" max="7" width="17.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="19.33203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="1"/>
+    <col min="8" max="8" width="19.375" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:8">
       <c r="D7" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>447</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>448</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>2</v>
@@ -8663,12 +8664,12 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="4:8" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:8">
       <c r="E8" s="1" t="s">
         <v>201</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G8" s="1" t="s">
         <v>397</v>
@@ -8687,27 +8688,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="D7:I9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="15.33203125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="10.875" style="1"/>
+    <col min="5" max="5" width="15.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.625" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.5" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="4:9">
       <c r="D7" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>450</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>451</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>391</v>
@@ -8722,7 +8723,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="8" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="4:9">
       <c r="E8" s="1" t="s">
         <v>205</v>
       </c>
@@ -8730,7 +8731,7 @@
         <v>201</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>397</v>
@@ -8739,7 +8740,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="4:9">
       <c r="E9" s="1" t="s">
         <v>207</v>
       </c>
@@ -8747,7 +8748,7 @@
         <v>201</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>397</v>
@@ -8759,6 +8760,6 @@
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
+++ b/src/main/resources/script/db/init-data/agile_service/agile_service/2018-05-19-data-init.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10509"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\猪齿鱼\choerodon\agile-service\src\main\resources\script\db\init-data\agile_service\agile_service\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/superlee/Documents/idea_work/agile-group/agile-service/src/main/resources/script/db/init-data/agile_service/agile_service/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCE8A3E8-9CF4-49AE-8524-5FCE36F49638}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA3482C-D416-014F-A5C2-D34BDC7A49E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3100" yWindow="460" windowWidth="20740" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="455">
   <si>
     <t>lookup_type</t>
   </si>
@@ -1390,17 +1390,6 @@
   </si>
   <si>
     <t>story,issue_epic,bug,task,sub_task</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>fd_object_scheme_field-34</t>
-  </si>
-  <si>
-    <t>tag</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>story,bug,task,sub_task</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
@@ -1412,7 +1401,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -2682,76 +2671,76 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="9.875" style="12" customWidth="1"/>
+    <col min="1" max="5" width="9.83203125" style="12" customWidth="1"/>
     <col min="6" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
       <c r="E1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
     </row>
-    <row r="3" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
-    <row r="5" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
       <c r="E5" s="3"/>
     </row>
-    <row r="6" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="3"/>
     </row>
-    <row r="7" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="3"/>
     </row>
-    <row r="8" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:5" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2777,16 +2766,16 @@
       <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="9.875" style="12" customWidth="1"/>
+    <col min="1" max="3" width="9.83203125" style="12" customWidth="1"/>
     <col min="4" max="4" width="19" style="12" customWidth="1"/>
     <col min="5" max="6" width="30.5" style="12" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="12" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="12" customWidth="1"/>
     <col min="8" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -2795,7 +2784,7 @@
       <c r="F1" s="3"/>
       <c r="G1" s="3"/>
     </row>
-    <row r="2" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -2804,7 +2793,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -2813,7 +2802,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -2822,7 +2811,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -2831,7 +2820,7 @@
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
     </row>
-    <row r="6" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -2840,7 +2829,7 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
     </row>
-    <row r="7" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -2857,7 +2846,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -2872,7 +2861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -2887,7 +2876,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -2902,7 +2891,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -2917,7 +2906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -2932,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -2947,7 +2936,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -2962,7 +2951,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -2977,7 +2966,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -2992,7 +2981,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3007,7 +2996,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:7" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3022,7 +3011,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="15.75" customHeight="1">
+    <row r="19" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3037,7 +3026,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="15.75" customHeight="1">
+    <row r="20" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3052,7 +3041,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" customHeight="1">
+    <row r="21" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3067,7 +3056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" customHeight="1">
+    <row r="22" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3082,7 +3071,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" customHeight="1">
+    <row r="23" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3097,7 +3086,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="15.75" customHeight="1">
+    <row r="24" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3112,7 +3101,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="15.75" customHeight="1">
+    <row r="25" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3127,7 +3116,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="15.75" customHeight="1">
+    <row r="26" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3142,7 +3131,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="15.75" customHeight="1">
+    <row r="27" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3157,7 +3146,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="15.75" customHeight="1">
+    <row r="28" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3172,7 +3161,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="15.75" customHeight="1">
+    <row r="29" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3206,18 +3195,18 @@
       <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="9" style="12" customWidth="1"/>
     <col min="4" max="4" width="18" style="12" customWidth="1"/>
     <col min="5" max="5" width="27" style="12" customWidth="1"/>
-    <col min="6" max="6" width="24.375" style="12" customWidth="1"/>
-    <col min="7" max="7" width="29.625" style="12" customWidth="1"/>
-    <col min="8" max="8" width="23.125" style="12" customWidth="1"/>
+    <col min="6" max="6" width="24.33203125" style="12" customWidth="1"/>
+    <col min="7" max="7" width="29.6640625" style="12" customWidth="1"/>
+    <col min="8" max="8" width="23.1640625" style="12" customWidth="1"/>
     <col min="9" max="256" width="9" style="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="1" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3227,7 +3216,7 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
     </row>
-    <row r="2" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="2" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
@@ -3237,7 +3226,7 @@
       <c r="G2" s="3"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="3" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
@@ -3247,7 +3236,7 @@
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="4" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
@@ -3257,7 +3246,7 @@
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="5" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
@@ -3267,7 +3256,7 @@
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="6" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
@@ -3277,7 +3266,7 @@
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="7" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -3297,7 +3286,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="8" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
@@ -3315,7 +3304,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="9" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -3333,7 +3322,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="10" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -3351,7 +3340,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="11" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -3369,7 +3358,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="12" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -3387,7 +3376,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="13" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
@@ -3405,7 +3394,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="14" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
@@ -3423,7 +3412,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="15" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
@@ -3441,7 +3430,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="16" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3"/>
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
@@ -3459,7 +3448,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="17" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="3"/>
       <c r="B17" s="3"/>
       <c r="C17" s="3"/>
@@ -3477,7 +3466,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="18" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
@@ -3495,7 +3484,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="19" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
@@ -3513,7 +3502,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="20" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="3"/>
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
@@ -3531,7 +3520,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="21" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="3"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
@@ -3549,7 +3538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="22" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
@@ -3567,7 +3556,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="23" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="3"/>
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
@@ -3585,7 +3574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="24" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="3"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
@@ -3603,7 +3592,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="25" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="3"/>
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
@@ -3621,7 +3610,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="26" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
@@ -3639,7 +3628,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="27" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
@@ -3657,7 +3646,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="28" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
@@ -3675,7 +3664,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="29" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="3"/>
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
@@ -3693,7 +3682,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="30" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="3"/>
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
@@ -3711,7 +3700,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="31" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="3"/>
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
@@ -3729,7 +3718,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="17.100000000000001" customHeight="1">
+    <row r="32" spans="1:8" ht="17" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="3"/>
       <